--- a/Analisis Antonio/Base de datos Franco-Rodriguez et al..xlsx
+++ b/Analisis Antonio/Base de datos Franco-Rodriguez et al..xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="5" rupBuild="10811"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="5" rupBuild="26731"/>
   <workbookPr showInkAnnotation="0" defaultThemeVersion="124226"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="https://d.docs.live.net/46607659e12c2fb4/Documents/"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\elilo\Desktop\Apps\R Studio\Analisis articulo\Analisis Antonio\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="14_{9C974417-1E4E-0A49-BAFE-A0EB1DE2AD55}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{5FB21C5A-9473-40EA-A8A7-95E901A18BDC}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="1560" yWindow="500" windowWidth="11560" windowHeight="9240" tabRatio="657" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12456" tabRatio="657" activeTab="3" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="BaseDatos" sheetId="9" r:id="rId1"/>
@@ -8233,7 +8233,7 @@
   </cellXfs>
   <cellStyles count="3">
     <cellStyle name="Excel Built-in Normal" xfId="1" xr:uid="{00000000-0005-0000-0000-000000000000}"/>
-    <cellStyle name="Hyperlink" xfId="2" builtinId="8"/>
+    <cellStyle name="Hipervínculo" xfId="2" builtinId="8"/>
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
   </cellStyles>
   <dxfs count="0"/>
@@ -8545,156 +8545,156 @@
       <selection pane="bottomRight" sqref="A1:A1048576"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultColWidth="5.1640625" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="5.109375" defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <cols>
-    <col min="1" max="1" width="7.5" style="39" customWidth="1"/>
-    <col min="2" max="2" width="8.5" style="36" bestFit="1" customWidth="1"/>
-    <col min="3" max="4" width="8.5" style="36" customWidth="1"/>
-    <col min="5" max="6" width="9.5" style="36" bestFit="1" customWidth="1"/>
-    <col min="7" max="7" width="10.5" style="36" bestFit="1" customWidth="1"/>
-    <col min="8" max="8" width="33.5" style="40" bestFit="1" customWidth="1"/>
-    <col min="9" max="10" width="10.5" style="36" bestFit="1" customWidth="1"/>
-    <col min="11" max="11" width="11.5" style="41" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="7.44140625" style="39" customWidth="1"/>
+    <col min="2" max="2" width="8.44140625" style="36" bestFit="1" customWidth="1"/>
+    <col min="3" max="4" width="8.44140625" style="36" customWidth="1"/>
+    <col min="5" max="6" width="9.44140625" style="36" bestFit="1" customWidth="1"/>
+    <col min="7" max="7" width="10.44140625" style="36" bestFit="1" customWidth="1"/>
+    <col min="8" max="8" width="33.44140625" style="40" bestFit="1" customWidth="1"/>
+    <col min="9" max="10" width="10.44140625" style="36" bestFit="1" customWidth="1"/>
+    <col min="11" max="11" width="11.44140625" style="41" bestFit="1" customWidth="1"/>
     <col min="12" max="12" width="12" style="29" bestFit="1" customWidth="1"/>
-    <col min="13" max="13" width="12.5" style="56" bestFit="1" customWidth="1"/>
+    <col min="13" max="13" width="12.44140625" style="56" bestFit="1" customWidth="1"/>
     <col min="14" max="14" width="29" style="36" bestFit="1" customWidth="1"/>
-    <col min="15" max="15" width="10.5" style="42" bestFit="1" customWidth="1"/>
-    <col min="16" max="16" width="9.5" style="42" bestFit="1" customWidth="1"/>
-    <col min="17" max="17" width="5.5" style="42" bestFit="1" customWidth="1"/>
-    <col min="18" max="18" width="7.83203125" style="43" bestFit="1" customWidth="1"/>
-    <col min="19" max="19" width="7.5" style="49" bestFit="1" customWidth="1"/>
-    <col min="20" max="21" width="15.5" style="18" bestFit="1" customWidth="1"/>
-    <col min="22" max="22" width="16.1640625" style="23" bestFit="1" customWidth="1"/>
-    <col min="23" max="23" width="15.5" style="20" bestFit="1" customWidth="1"/>
-    <col min="24" max="24" width="13.5" style="45" bestFit="1" customWidth="1"/>
-    <col min="25" max="25" width="14.5" style="18" bestFit="1" customWidth="1"/>
-    <col min="26" max="26" width="13.5" style="18" bestFit="1" customWidth="1"/>
-    <col min="27" max="28" width="14.5" style="18" bestFit="1" customWidth="1"/>
+    <col min="15" max="15" width="10.44140625" style="42" bestFit="1" customWidth="1"/>
+    <col min="16" max="16" width="9.44140625" style="42" bestFit="1" customWidth="1"/>
+    <col min="17" max="17" width="5.44140625" style="42" bestFit="1" customWidth="1"/>
+    <col min="18" max="18" width="7.77734375" style="43" bestFit="1" customWidth="1"/>
+    <col min="19" max="19" width="7.44140625" style="49" bestFit="1" customWidth="1"/>
+    <col min="20" max="21" width="15.44140625" style="18" bestFit="1" customWidth="1"/>
+    <col min="22" max="22" width="16.109375" style="23" bestFit="1" customWidth="1"/>
+    <col min="23" max="23" width="15.44140625" style="20" bestFit="1" customWidth="1"/>
+    <col min="24" max="24" width="13.44140625" style="45" bestFit="1" customWidth="1"/>
+    <col min="25" max="25" width="14.44140625" style="18" bestFit="1" customWidth="1"/>
+    <col min="26" max="26" width="13.44140625" style="18" bestFit="1" customWidth="1"/>
+    <col min="27" max="28" width="14.44140625" style="18" bestFit="1" customWidth="1"/>
     <col min="29" max="29" width="15" style="23" bestFit="1" customWidth="1"/>
-    <col min="30" max="30" width="14.5" style="20" bestFit="1" customWidth="1"/>
-    <col min="31" max="31" width="12.5" style="45" bestFit="1" customWidth="1"/>
-    <col min="32" max="32" width="13.5" style="18" bestFit="1" customWidth="1"/>
-    <col min="33" max="33" width="12.5" style="18" bestFit="1" customWidth="1"/>
-    <col min="34" max="34" width="6.5" style="19" bestFit="1" customWidth="1"/>
-    <col min="35" max="35" width="9.5" style="19" bestFit="1" customWidth="1"/>
-    <col min="36" max="36" width="11.5" style="19" bestFit="1" customWidth="1"/>
-    <col min="37" max="37" width="5.5" style="19" bestFit="1" customWidth="1"/>
-    <col min="38" max="38" width="8.1640625" style="19" bestFit="1" customWidth="1"/>
-    <col min="39" max="39" width="6.5" style="19" bestFit="1" customWidth="1"/>
-    <col min="40" max="40" width="8.5" style="19" bestFit="1" customWidth="1"/>
-    <col min="41" max="41" width="4.83203125" style="19" bestFit="1" customWidth="1"/>
-    <col min="42" max="42" width="7.5" style="19" bestFit="1" customWidth="1"/>
-    <col min="43" max="43" width="7.1640625" style="19" bestFit="1" customWidth="1"/>
-    <col min="44" max="44" width="9.5" style="19" bestFit="1" customWidth="1"/>
-    <col min="45" max="45" width="8.5" style="19" bestFit="1" customWidth="1"/>
-    <col min="46" max="46" width="10.5" style="19" bestFit="1" customWidth="1"/>
-    <col min="47" max="47" width="6.5" style="19" bestFit="1" customWidth="1"/>
-    <col min="48" max="48" width="8.1640625" style="19" bestFit="1" customWidth="1"/>
-    <col min="49" max="49" width="7.5" style="19" bestFit="1" customWidth="1"/>
-    <col min="50" max="50" width="8.5" style="19" bestFit="1" customWidth="1"/>
-    <col min="51" max="51" width="5.5" style="19" bestFit="1" customWidth="1"/>
-    <col min="52" max="52" width="11.5" style="19" bestFit="1" customWidth="1"/>
-    <col min="53" max="53" width="15.83203125" style="19" bestFit="1" customWidth="1"/>
-    <col min="54" max="54" width="13.5" style="19" bestFit="1" customWidth="1"/>
-    <col min="55" max="56" width="7.1640625" style="19" bestFit="1" customWidth="1"/>
-    <col min="57" max="57" width="8.1640625" style="19" bestFit="1" customWidth="1"/>
-    <col min="58" max="58" width="13.5" style="19" bestFit="1" customWidth="1"/>
-    <col min="59" max="59" width="18.5" style="19" bestFit="1" customWidth="1"/>
-    <col min="60" max="60" width="17.5" style="19" bestFit="1" customWidth="1"/>
-    <col min="61" max="61" width="7.5" style="19" bestFit="1" customWidth="1"/>
-    <col min="62" max="62" width="8.5" style="19" bestFit="1" customWidth="1"/>
-    <col min="63" max="63" width="9.5" style="19" customWidth="1"/>
-    <col min="64" max="64" width="13.5" style="19" bestFit="1" customWidth="1"/>
+    <col min="30" max="30" width="14.44140625" style="20" bestFit="1" customWidth="1"/>
+    <col min="31" max="31" width="12.44140625" style="45" bestFit="1" customWidth="1"/>
+    <col min="32" max="32" width="13.44140625" style="18" bestFit="1" customWidth="1"/>
+    <col min="33" max="33" width="12.44140625" style="18" bestFit="1" customWidth="1"/>
+    <col min="34" max="34" width="6.44140625" style="19" bestFit="1" customWidth="1"/>
+    <col min="35" max="35" width="9.44140625" style="19" bestFit="1" customWidth="1"/>
+    <col min="36" max="36" width="11.44140625" style="19" bestFit="1" customWidth="1"/>
+    <col min="37" max="37" width="5.44140625" style="19" bestFit="1" customWidth="1"/>
+    <col min="38" max="38" width="8.109375" style="19" bestFit="1" customWidth="1"/>
+    <col min="39" max="39" width="6.44140625" style="19" bestFit="1" customWidth="1"/>
+    <col min="40" max="40" width="8.44140625" style="19" bestFit="1" customWidth="1"/>
+    <col min="41" max="41" width="4.77734375" style="19" bestFit="1" customWidth="1"/>
+    <col min="42" max="42" width="7.44140625" style="19" bestFit="1" customWidth="1"/>
+    <col min="43" max="43" width="7.109375" style="19" bestFit="1" customWidth="1"/>
+    <col min="44" max="44" width="9.44140625" style="19" bestFit="1" customWidth="1"/>
+    <col min="45" max="45" width="8.44140625" style="19" bestFit="1" customWidth="1"/>
+    <col min="46" max="46" width="10.44140625" style="19" bestFit="1" customWidth="1"/>
+    <col min="47" max="47" width="6.44140625" style="19" bestFit="1" customWidth="1"/>
+    <col min="48" max="48" width="8.109375" style="19" bestFit="1" customWidth="1"/>
+    <col min="49" max="49" width="7.44140625" style="19" bestFit="1" customWidth="1"/>
+    <col min="50" max="50" width="8.44140625" style="19" bestFit="1" customWidth="1"/>
+    <col min="51" max="51" width="5.44140625" style="19" bestFit="1" customWidth="1"/>
+    <col min="52" max="52" width="11.44140625" style="19" bestFit="1" customWidth="1"/>
+    <col min="53" max="53" width="15.77734375" style="19" bestFit="1" customWidth="1"/>
+    <col min="54" max="54" width="13.44140625" style="19" bestFit="1" customWidth="1"/>
+    <col min="55" max="56" width="7.109375" style="19" bestFit="1" customWidth="1"/>
+    <col min="57" max="57" width="8.109375" style="19" bestFit="1" customWidth="1"/>
+    <col min="58" max="58" width="13.44140625" style="19" bestFit="1" customWidth="1"/>
+    <col min="59" max="59" width="18.44140625" style="19" bestFit="1" customWidth="1"/>
+    <col min="60" max="60" width="17.44140625" style="19" bestFit="1" customWidth="1"/>
+    <col min="61" max="61" width="7.44140625" style="19" bestFit="1" customWidth="1"/>
+    <col min="62" max="62" width="8.44140625" style="19" bestFit="1" customWidth="1"/>
+    <col min="63" max="63" width="9.44140625" style="19" customWidth="1"/>
+    <col min="64" max="64" width="13.44140625" style="19" bestFit="1" customWidth="1"/>
     <col min="65" max="65" width="17" style="19" bestFit="1" customWidth="1"/>
     <col min="66" max="69" width="17" style="19" customWidth="1"/>
-    <col min="70" max="70" width="4.83203125" style="19" bestFit="1" customWidth="1"/>
-    <col min="71" max="71" width="5.83203125" style="19" bestFit="1" customWidth="1"/>
-    <col min="72" max="72" width="6.83203125" style="19" bestFit="1" customWidth="1"/>
-    <col min="73" max="73" width="12.5" style="19" bestFit="1" customWidth="1"/>
+    <col min="70" max="70" width="4.77734375" style="19" bestFit="1" customWidth="1"/>
+    <col min="71" max="71" width="5.77734375" style="19" bestFit="1" customWidth="1"/>
+    <col min="72" max="72" width="6.77734375" style="19" bestFit="1" customWidth="1"/>
+    <col min="73" max="73" width="12.44140625" style="19" bestFit="1" customWidth="1"/>
     <col min="74" max="89" width="17" style="19" customWidth="1"/>
-    <col min="90" max="90" width="19.83203125" style="19" bestFit="1" customWidth="1"/>
+    <col min="90" max="90" width="19.77734375" style="19" bestFit="1" customWidth="1"/>
     <col min="91" max="99" width="17" style="19" customWidth="1"/>
-    <col min="100" max="100" width="7.5" style="64" bestFit="1" customWidth="1"/>
-    <col min="101" max="101" width="7.5" style="45" bestFit="1" customWidth="1"/>
-    <col min="102" max="102" width="5.5" style="64" bestFit="1" customWidth="1"/>
-    <col min="103" max="103" width="6.5" style="64" bestFit="1" customWidth="1"/>
-    <col min="104" max="104" width="3.83203125" style="45" bestFit="1" customWidth="1"/>
-    <col min="105" max="105" width="3.83203125" style="64" bestFit="1" customWidth="1"/>
-    <col min="106" max="107" width="15.5" style="64" bestFit="1" customWidth="1"/>
-    <col min="108" max="108" width="15.83203125" style="70" bestFit="1" customWidth="1"/>
-    <col min="109" max="109" width="18.5" style="70" bestFit="1" customWidth="1"/>
-    <col min="110" max="110" width="15.5" style="20" bestFit="1" customWidth="1"/>
-    <col min="111" max="111" width="9.5" style="45" bestFit="1" customWidth="1"/>
-    <col min="112" max="112" width="8.5" style="44" bestFit="1" customWidth="1"/>
-    <col min="113" max="113" width="11.83203125" style="23" bestFit="1" customWidth="1"/>
-    <col min="114" max="114" width="8.5" style="23" bestFit="1" customWidth="1"/>
-    <col min="115" max="115" width="18.5" style="23" bestFit="1" customWidth="1"/>
-    <col min="116" max="116" width="15.83203125" style="72" bestFit="1" customWidth="1"/>
-    <col min="117" max="117" width="17.5" style="72" bestFit="1" customWidth="1"/>
-    <col min="118" max="118" width="14.5" style="23" bestFit="1" customWidth="1"/>
-    <col min="119" max="119" width="8.5" style="23" bestFit="1" customWidth="1"/>
-    <col min="120" max="120" width="7.5" style="23" bestFit="1" customWidth="1"/>
-    <col min="121" max="121" width="10.83203125" style="23" bestFit="1" customWidth="1"/>
-    <col min="122" max="122" width="7.5" style="42" bestFit="1" customWidth="1"/>
-    <col min="123" max="123" width="17.5" style="42" bestFit="1" customWidth="1"/>
-    <col min="124" max="124" width="15.1640625" style="42" bestFit="1" customWidth="1"/>
+    <col min="100" max="100" width="7.44140625" style="64" bestFit="1" customWidth="1"/>
+    <col min="101" max="101" width="7.44140625" style="45" bestFit="1" customWidth="1"/>
+    <col min="102" max="102" width="5.44140625" style="64" bestFit="1" customWidth="1"/>
+    <col min="103" max="103" width="6.44140625" style="64" bestFit="1" customWidth="1"/>
+    <col min="104" max="104" width="3.77734375" style="45" bestFit="1" customWidth="1"/>
+    <col min="105" max="105" width="3.77734375" style="64" bestFit="1" customWidth="1"/>
+    <col min="106" max="107" width="15.44140625" style="64" bestFit="1" customWidth="1"/>
+    <col min="108" max="108" width="15.77734375" style="70" bestFit="1" customWidth="1"/>
+    <col min="109" max="109" width="18.44140625" style="70" bestFit="1" customWidth="1"/>
+    <col min="110" max="110" width="15.44140625" style="20" bestFit="1" customWidth="1"/>
+    <col min="111" max="111" width="9.44140625" style="45" bestFit="1" customWidth="1"/>
+    <col min="112" max="112" width="8.44140625" style="44" bestFit="1" customWidth="1"/>
+    <col min="113" max="113" width="11.77734375" style="23" bestFit="1" customWidth="1"/>
+    <col min="114" max="114" width="8.44140625" style="23" bestFit="1" customWidth="1"/>
+    <col min="115" max="115" width="18.44140625" style="23" bestFit="1" customWidth="1"/>
+    <col min="116" max="116" width="15.77734375" style="72" bestFit="1" customWidth="1"/>
+    <col min="117" max="117" width="17.44140625" style="72" bestFit="1" customWidth="1"/>
+    <col min="118" max="118" width="14.44140625" style="23" bestFit="1" customWidth="1"/>
+    <col min="119" max="119" width="8.44140625" style="23" bestFit="1" customWidth="1"/>
+    <col min="120" max="120" width="7.44140625" style="23" bestFit="1" customWidth="1"/>
+    <col min="121" max="121" width="10.77734375" style="23" bestFit="1" customWidth="1"/>
+    <col min="122" max="122" width="7.44140625" style="42" bestFit="1" customWidth="1"/>
+    <col min="123" max="123" width="17.44140625" style="42" bestFit="1" customWidth="1"/>
+    <col min="124" max="124" width="15.109375" style="42" bestFit="1" customWidth="1"/>
     <col min="125" max="125" width="15" style="42" bestFit="1" customWidth="1"/>
-    <col min="126" max="126" width="17.5" style="42" bestFit="1" customWidth="1"/>
-    <col min="127" max="127" width="17.5" style="23" bestFit="1" customWidth="1"/>
-    <col min="128" max="128" width="14.1640625" style="23" bestFit="1" customWidth="1"/>
+    <col min="126" max="126" width="17.44140625" style="42" bestFit="1" customWidth="1"/>
+    <col min="127" max="127" width="17.44140625" style="23" bestFit="1" customWidth="1"/>
+    <col min="128" max="128" width="14.109375" style="23" bestFit="1" customWidth="1"/>
     <col min="129" max="129" width="14" style="23" bestFit="1" customWidth="1"/>
-    <col min="130" max="131" width="16.5" style="23" bestFit="1" customWidth="1"/>
-    <col min="132" max="132" width="6.5" style="64" bestFit="1" customWidth="1"/>
-    <col min="133" max="133" width="4.5" style="64" bestFit="1" customWidth="1"/>
-    <col min="134" max="134" width="9.5" style="64" bestFit="1" customWidth="1"/>
-    <col min="135" max="135" width="10.5" style="36" bestFit="1" customWidth="1"/>
-    <col min="136" max="136" width="5.5" style="29" bestFit="1" customWidth="1"/>
-    <col min="137" max="137" width="10.5" style="29" bestFit="1" customWidth="1"/>
-    <col min="138" max="138" width="7.1640625" style="29" bestFit="1" customWidth="1"/>
-    <col min="139" max="139" width="9.1640625" style="29" bestFit="1" customWidth="1"/>
-    <col min="140" max="140" width="8.5" style="29" customWidth="1"/>
-    <col min="141" max="141" width="7.5" style="29" customWidth="1"/>
-    <col min="142" max="142" width="8.1640625" style="29" customWidth="1"/>
-    <col min="143" max="143" width="12.5" style="29" customWidth="1"/>
-    <col min="144" max="144" width="4.5" style="36" customWidth="1"/>
+    <col min="130" max="131" width="16.44140625" style="23" bestFit="1" customWidth="1"/>
+    <col min="132" max="132" width="6.44140625" style="64" bestFit="1" customWidth="1"/>
+    <col min="133" max="133" width="4.44140625" style="64" bestFit="1" customWidth="1"/>
+    <col min="134" max="134" width="9.44140625" style="64" bestFit="1" customWidth="1"/>
+    <col min="135" max="135" width="10.44140625" style="36" bestFit="1" customWidth="1"/>
+    <col min="136" max="136" width="5.44140625" style="29" bestFit="1" customWidth="1"/>
+    <col min="137" max="137" width="10.44140625" style="29" bestFit="1" customWidth="1"/>
+    <col min="138" max="138" width="7.109375" style="29" bestFit="1" customWidth="1"/>
+    <col min="139" max="139" width="9.109375" style="29" bestFit="1" customWidth="1"/>
+    <col min="140" max="140" width="8.44140625" style="29" customWidth="1"/>
+    <col min="141" max="141" width="7.44140625" style="29" customWidth="1"/>
+    <col min="142" max="142" width="8.109375" style="29" customWidth="1"/>
+    <col min="143" max="143" width="12.44140625" style="29" customWidth="1"/>
+    <col min="144" max="144" width="4.44140625" style="36" customWidth="1"/>
     <col min="145" max="145" width="5" style="36" customWidth="1"/>
-    <col min="146" max="146" width="8.5" style="36" customWidth="1"/>
-    <col min="147" max="147" width="9.5" style="36" customWidth="1"/>
-    <col min="148" max="148" width="8.5" style="36" customWidth="1"/>
-    <col min="149" max="149" width="5.5" style="36" customWidth="1"/>
-    <col min="150" max="150" width="10.5" style="36" customWidth="1"/>
+    <col min="146" max="146" width="8.44140625" style="36" customWidth="1"/>
+    <col min="147" max="147" width="9.44140625" style="36" customWidth="1"/>
+    <col min="148" max="148" width="8.44140625" style="36" customWidth="1"/>
+    <col min="149" max="149" width="5.44140625" style="36" customWidth="1"/>
+    <col min="150" max="150" width="10.44140625" style="36" customWidth="1"/>
     <col min="151" max="151" width="14" style="36" customWidth="1"/>
-    <col min="152" max="152" width="9.5" style="36" customWidth="1"/>
-    <col min="153" max="153" width="13.5" style="36" customWidth="1"/>
+    <col min="152" max="152" width="9.44140625" style="36" customWidth="1"/>
+    <col min="153" max="153" width="13.44140625" style="36" customWidth="1"/>
     <col min="154" max="154" width="12" style="36" customWidth="1"/>
-    <col min="155" max="155" width="14.5" style="36" customWidth="1"/>
-    <col min="156" max="156" width="9.5" style="36" bestFit="1" customWidth="1"/>
-    <col min="157" max="157" width="10.5" style="36" bestFit="1" customWidth="1"/>
-    <col min="158" max="158" width="6.5" style="36" bestFit="1" customWidth="1"/>
-    <col min="159" max="159" width="13.5" style="36" bestFit="1" customWidth="1"/>
-    <col min="160" max="160" width="12.5" style="36" bestFit="1" customWidth="1"/>
-    <col min="161" max="161" width="13.1640625" style="36" bestFit="1" customWidth="1"/>
-    <col min="162" max="162" width="13.5" style="36" bestFit="1" customWidth="1"/>
-    <col min="163" max="163" width="12.5" style="36" bestFit="1" customWidth="1"/>
-    <col min="164" max="164" width="13.1640625" style="36" bestFit="1" customWidth="1"/>
+    <col min="155" max="155" width="14.44140625" style="36" customWidth="1"/>
+    <col min="156" max="156" width="9.44140625" style="36" bestFit="1" customWidth="1"/>
+    <col min="157" max="157" width="10.44140625" style="36" bestFit="1" customWidth="1"/>
+    <col min="158" max="158" width="6.44140625" style="36" bestFit="1" customWidth="1"/>
+    <col min="159" max="159" width="13.44140625" style="36" bestFit="1" customWidth="1"/>
+    <col min="160" max="160" width="12.44140625" style="36" bestFit="1" customWidth="1"/>
+    <col min="161" max="161" width="13.109375" style="36" bestFit="1" customWidth="1"/>
+    <col min="162" max="162" width="13.44140625" style="36" bestFit="1" customWidth="1"/>
+    <col min="163" max="163" width="12.44140625" style="36" bestFit="1" customWidth="1"/>
+    <col min="164" max="164" width="13.109375" style="36" bestFit="1" customWidth="1"/>
     <col min="165" max="167" width="12" style="36" bestFit="1" customWidth="1"/>
     <col min="168" max="168" width="17.33203125" style="36" bestFit="1" customWidth="1"/>
     <col min="169" max="169" width="16.33203125" style="36" bestFit="1" customWidth="1"/>
-    <col min="170" max="170" width="16.83203125" style="36" bestFit="1" customWidth="1"/>
-    <col min="171" max="174" width="16.83203125" style="36" customWidth="1"/>
+    <col min="170" max="170" width="16.77734375" style="36" bestFit="1" customWidth="1"/>
+    <col min="171" max="174" width="16.77734375" style="36" customWidth="1"/>
     <col min="175" max="175" width="11" style="36" bestFit="1" customWidth="1"/>
-    <col min="176" max="176" width="11.5" style="36" bestFit="1" customWidth="1"/>
+    <col min="176" max="176" width="11.44140625" style="36" bestFit="1" customWidth="1"/>
     <col min="177" max="177" width="11" style="36" bestFit="1" customWidth="1"/>
-    <col min="178" max="178" width="11.5" style="36" bestFit="1" customWidth="1"/>
-    <col min="179" max="179" width="9.5" style="36" bestFit="1" customWidth="1"/>
-    <col min="180" max="180" width="10.1640625" style="36" bestFit="1" customWidth="1"/>
-    <col min="181" max="181" width="14.83203125" style="36" bestFit="1" customWidth="1"/>
-    <col min="182" max="182" width="15.5" style="36" bestFit="1" customWidth="1"/>
+    <col min="178" max="178" width="11.44140625" style="36" bestFit="1" customWidth="1"/>
+    <col min="179" max="179" width="9.44140625" style="36" bestFit="1" customWidth="1"/>
+    <col min="180" max="180" width="10.109375" style="36" bestFit="1" customWidth="1"/>
+    <col min="181" max="181" width="14.77734375" style="36" bestFit="1" customWidth="1"/>
+    <col min="182" max="182" width="15.44140625" style="36" bestFit="1" customWidth="1"/>
     <col min="183" max="186" width="12" style="36" bestFit="1" customWidth="1"/>
-    <col min="187" max="16384" width="5.1640625" style="36"/>
+    <col min="187" max="16384" width="5.109375" style="36"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:186" s="27" customFormat="1" ht="15" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:186" s="27" customFormat="1" ht="15" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A1" s="24" t="s">
         <v>0</v>
       </c>
@@ -9252,7 +9252,7 @@
         <v>563</v>
       </c>
     </row>
-    <row r="2" spans="1:186" ht="18" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="2" spans="1:186" ht="18" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A2" s="28" t="s">
         <v>187</v>
       </c>
@@ -9675,7 +9675,7 @@
         <v>360.81865030674851</v>
       </c>
     </row>
-    <row r="3" spans="1:186" ht="18" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="3" spans="1:186" ht="18" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A3" s="28" t="s">
         <v>187</v>
       </c>
@@ -10124,7 +10124,7 @@
         <v>518.6248034934498</v>
       </c>
     </row>
-    <row r="4" spans="1:186" x14ac:dyDescent="0.2">
+    <row r="4" spans="1:186" x14ac:dyDescent="0.3">
       <c r="A4" s="28" t="s">
         <v>187</v>
       </c>
@@ -10537,7 +10537,7 @@
         <v>463.98124137931035</v>
       </c>
     </row>
-    <row r="5" spans="1:186" x14ac:dyDescent="0.2">
+    <row r="5" spans="1:186" x14ac:dyDescent="0.3">
       <c r="A5" s="28" t="s">
         <v>187</v>
       </c>
@@ -10958,7 +10958,7 @@
         <v>545.16401913875598</v>
       </c>
     </row>
-    <row r="6" spans="1:186" x14ac:dyDescent="0.2">
+    <row r="6" spans="1:186" x14ac:dyDescent="0.3">
       <c r="A6" s="28" t="s">
         <v>187</v>
       </c>
@@ -11395,7 +11395,7 @@
         <v>552.1510297482838</v>
       </c>
     </row>
-    <row r="7" spans="1:186" x14ac:dyDescent="0.2">
+    <row r="7" spans="1:186" x14ac:dyDescent="0.3">
       <c r="A7" s="28" t="s">
         <v>187</v>
       </c>
@@ -11825,7 +11825,7 @@
         <v>420.50467741935483</v>
       </c>
     </row>
-    <row r="8" spans="1:186" x14ac:dyDescent="0.2">
+    <row r="8" spans="1:186" x14ac:dyDescent="0.3">
       <c r="A8" s="28" t="s">
         <v>187</v>
       </c>
@@ -12258,7 +12258,7 @@
         <v>458.22834437086095</v>
       </c>
     </row>
-    <row r="9" spans="1:186" x14ac:dyDescent="0.2">
+    <row r="9" spans="1:186" x14ac:dyDescent="0.3">
       <c r="A9" s="28" t="s">
         <v>187</v>
       </c>
@@ -12705,7 +12705,7 @@
         <v>409.08182212581346</v>
       </c>
     </row>
-    <row r="10" spans="1:186" x14ac:dyDescent="0.2">
+    <row r="10" spans="1:186" x14ac:dyDescent="0.3">
       <c r="A10" s="28" t="s">
         <v>187</v>
       </c>
@@ -13134,7 +13134,7 @@
         <v>494.03376975169306</v>
       </c>
     </row>
-    <row r="11" spans="1:186" x14ac:dyDescent="0.2">
+    <row r="11" spans="1:186" x14ac:dyDescent="0.3">
       <c r="A11" s="28" t="s">
         <v>187</v>
       </c>
@@ -13583,7 +13583,7 @@
         <v>539.71921568627454</v>
       </c>
     </row>
-    <row r="12" spans="1:186" x14ac:dyDescent="0.2">
+    <row r="12" spans="1:186" x14ac:dyDescent="0.3">
       <c r="A12" s="28" t="s">
         <v>187</v>
       </c>
@@ -14035,7 +14035,7 @@
         <v>495.27692307692308</v>
       </c>
     </row>
-    <row r="13" spans="1:186" x14ac:dyDescent="0.2">
+    <row r="13" spans="1:186" x14ac:dyDescent="0.3">
       <c r="A13" s="28" t="s">
         <v>187</v>
       </c>
@@ -14467,7 +14467,7 @@
         <v>479.62762105263158</v>
       </c>
     </row>
-    <row r="14" spans="1:186" x14ac:dyDescent="0.2">
+    <row r="14" spans="1:186" x14ac:dyDescent="0.3">
       <c r="A14" s="28" t="s">
         <v>187</v>
       </c>
@@ -14918,7 +14918,7 @@
         <v>421.86473029045646</v>
       </c>
     </row>
-    <row r="15" spans="1:186" x14ac:dyDescent="0.2">
+    <row r="15" spans="1:186" x14ac:dyDescent="0.3">
       <c r="A15" s="28" t="s">
         <v>187</v>
       </c>
@@ -15363,7 +15363,7 @@
         <v>536.81550660792959</v>
       </c>
     </row>
-    <row r="16" spans="1:186" x14ac:dyDescent="0.2">
+    <row r="16" spans="1:186" x14ac:dyDescent="0.3">
       <c r="A16" s="28" t="s">
         <v>187</v>
       </c>
@@ -15796,7 +15796,7 @@
         <v>508.52100686498858</v>
       </c>
     </row>
-    <row r="17" spans="1:186" x14ac:dyDescent="0.2">
+    <row r="17" spans="1:186" x14ac:dyDescent="0.3">
       <c r="A17" s="28" t="s">
         <v>271</v>
       </c>
@@ -16223,7 +16223,7 @@
         <v>472.86926174496642</v>
       </c>
     </row>
-    <row r="18" spans="1:186" ht="15" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="18" spans="1:186" ht="15" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A18" s="28" t="s">
         <v>271</v>
       </c>
@@ -16662,7 +16662,7 @@
         <v>432.96197938144326</v>
       </c>
     </row>
-    <row r="19" spans="1:186" s="29" customFormat="1" x14ac:dyDescent="0.2">
+    <row r="19" spans="1:186" s="29" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A19" s="28" t="s">
         <v>271</v>
       </c>
@@ -17111,7 +17111,7 @@
         <v>491.35153846153844</v>
       </c>
     </row>
-    <row r="20" spans="1:186" x14ac:dyDescent="0.2">
+    <row r="20" spans="1:186" x14ac:dyDescent="0.3">
       <c r="A20" s="73" t="s">
         <v>271</v>
       </c>
@@ -17558,7 +17558,7 @@
         <v>532.19211678832119</v>
       </c>
     </row>
-    <row r="21" spans="1:186" x14ac:dyDescent="0.2">
+    <row r="21" spans="1:186" x14ac:dyDescent="0.3">
       <c r="A21" s="28" t="s">
         <v>271</v>
       </c>
@@ -18007,7 +18007,7 @@
         <v>597.65895781637721</v>
       </c>
     </row>
-    <row r="22" spans="1:186" ht="15" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="22" spans="1:186" ht="15" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A22" s="28" t="s">
         <v>271</v>
       </c>
@@ -18441,7 +18441,7 @@
         <v>509.76905660377361</v>
       </c>
     </row>
-    <row r="23" spans="1:186" x14ac:dyDescent="0.2">
+    <row r="23" spans="1:186" x14ac:dyDescent="0.3">
       <c r="A23" s="28" t="s">
         <v>271</v>
       </c>
@@ -18883,7 +18883,7 @@
         <v>553.84</v>
       </c>
     </row>
-    <row r="24" spans="1:186" x14ac:dyDescent="0.2">
+    <row r="24" spans="1:186" x14ac:dyDescent="0.3">
       <c r="A24" s="28" t="s">
         <v>271</v>
       </c>
@@ -19303,7 +19303,7 @@
         <v>498.68228571428568</v>
       </c>
     </row>
-    <row r="25" spans="1:186" x14ac:dyDescent="0.2">
+    <row r="25" spans="1:186" x14ac:dyDescent="0.3">
       <c r="A25" s="28" t="s">
         <v>271</v>
       </c>
@@ -19747,7 +19747,7 @@
         <v>539.25769911504426</v>
       </c>
     </row>
-    <row r="26" spans="1:186" x14ac:dyDescent="0.2">
+    <row r="26" spans="1:186" x14ac:dyDescent="0.3">
       <c r="A26" s="28"/>
       <c r="B26" s="29">
         <v>1029</v>
@@ -20191,7 +20191,7 @@
         <v>923.44356687898096</v>
       </c>
     </row>
-    <row r="27" spans="1:186" x14ac:dyDescent="0.2">
+    <row r="27" spans="1:186" x14ac:dyDescent="0.3">
       <c r="A27" s="28"/>
       <c r="B27" s="29">
         <v>1030</v>
@@ -20638,7 +20638,7 @@
         <v>485.35087248322151</v>
       </c>
     </row>
-    <row r="28" spans="1:186" x14ac:dyDescent="0.2">
+    <row r="28" spans="1:186" x14ac:dyDescent="0.3">
       <c r="A28" s="28"/>
       <c r="B28" s="29">
         <v>2001</v>
@@ -21091,7 +21091,7 @@
         <v>462.86709677419356</v>
       </c>
     </row>
-    <row r="29" spans="1:186" x14ac:dyDescent="0.2">
+    <row r="29" spans="1:186" x14ac:dyDescent="0.3">
       <c r="A29" s="28"/>
       <c r="B29" s="29">
         <v>2002</v>
@@ -21530,7 +21530,7 @@
         <v>483.41468354430378</v>
       </c>
     </row>
-    <row r="30" spans="1:186" x14ac:dyDescent="0.2">
+    <row r="30" spans="1:186" x14ac:dyDescent="0.3">
       <c r="A30" s="28"/>
       <c r="B30" s="29">
         <v>2003</v>
@@ -21991,7 +21991,7 @@
         <v>483.79489932885906</v>
       </c>
     </row>
-    <row r="31" spans="1:186" x14ac:dyDescent="0.2">
+    <row r="31" spans="1:186" x14ac:dyDescent="0.3">
       <c r="A31" s="28"/>
       <c r="B31" s="29">
         <v>2004</v>
@@ -22411,7 +22411,7 @@
         <v>517.9759509202454</v>
       </c>
     </row>
-    <row r="32" spans="1:186" x14ac:dyDescent="0.2">
+    <row r="32" spans="1:186" x14ac:dyDescent="0.3">
       <c r="A32" s="28"/>
       <c r="B32" s="29">
         <v>2005</v>
@@ -22857,7 +22857,7 @@
         <v>446.09860465116276</v>
       </c>
     </row>
-    <row r="33" spans="1:186" x14ac:dyDescent="0.2">
+    <row r="33" spans="1:186" x14ac:dyDescent="0.3">
       <c r="A33" s="28"/>
       <c r="B33" s="29">
         <v>2007</v>
@@ -23303,7 +23303,7 @@
         <v>595.58110552763821</v>
       </c>
     </row>
-    <row r="34" spans="1:186" x14ac:dyDescent="0.2">
+    <row r="34" spans="1:186" x14ac:dyDescent="0.3">
       <c r="A34" s="28"/>
       <c r="B34" s="29">
         <v>2008</v>
@@ -23751,7 +23751,7 @@
         <v>512.06399999999996</v>
       </c>
     </row>
-    <row r="35" spans="1:186" x14ac:dyDescent="0.2">
+    <row r="35" spans="1:186" x14ac:dyDescent="0.3">
       <c r="A35" s="28"/>
       <c r="B35" s="29">
         <v>2009</v>
@@ -24207,7 +24207,7 @@
         <v>522.50210526315789</v>
       </c>
     </row>
-    <row r="36" spans="1:186" x14ac:dyDescent="0.2">
+    <row r="36" spans="1:186" x14ac:dyDescent="0.3">
       <c r="A36" s="28"/>
       <c r="B36" s="29">
         <v>2010</v>
@@ -24662,7 +24662,7 @@
         <v>599.18526315789472</v>
       </c>
     </row>
-    <row r="37" spans="1:186" x14ac:dyDescent="0.2">
+    <row r="37" spans="1:186" x14ac:dyDescent="0.3">
       <c r="A37" s="28"/>
       <c r="B37" s="29">
         <v>2011</v>
@@ -25097,7 +25097,7 @@
         <v>482.51612903225805</v>
       </c>
     </row>
-    <row r="38" spans="1:186" x14ac:dyDescent="0.2">
+    <row r="38" spans="1:186" x14ac:dyDescent="0.3">
       <c r="A38" s="28"/>
       <c r="B38" s="29">
         <v>2013</v>
@@ -25546,7 +25546,7 @@
         <v>470.46208695652177</v>
       </c>
     </row>
-    <row r="39" spans="1:186" x14ac:dyDescent="0.2">
+    <row r="39" spans="1:186" x14ac:dyDescent="0.3">
       <c r="A39" s="28"/>
       <c r="B39" s="29">
         <v>2014</v>
@@ -25987,7 +25987,7 @@
         <v>552.26935622317603</v>
       </c>
     </row>
-    <row r="40" spans="1:186" x14ac:dyDescent="0.2">
+    <row r="40" spans="1:186" x14ac:dyDescent="0.3">
       <c r="A40" s="28"/>
       <c r="B40" s="29">
         <v>2015</v>
@@ -26410,7 +26410,7 @@
         <v>563.01146853146849</v>
       </c>
     </row>
-    <row r="41" spans="1:186" x14ac:dyDescent="0.2">
+    <row r="41" spans="1:186" x14ac:dyDescent="0.3">
       <c r="A41" s="28"/>
       <c r="B41" s="29">
         <v>2016</v>
@@ -26818,7 +26818,7 @@
         <v>587.19793548387099</v>
       </c>
     </row>
-    <row r="42" spans="1:186" x14ac:dyDescent="0.2">
+    <row r="42" spans="1:186" x14ac:dyDescent="0.3">
       <c r="A42" s="28"/>
       <c r="B42" s="29">
         <v>2017</v>
@@ -27189,7 +27189,7 @@
         <v>469.51636363636362</v>
       </c>
     </row>
-    <row r="43" spans="1:186" x14ac:dyDescent="0.2">
+    <row r="43" spans="1:186" x14ac:dyDescent="0.3">
       <c r="A43" s="28"/>
       <c r="B43" s="29">
         <v>2018</v>
@@ -27596,7 +27596,7 @@
         <v>498.45369863013701</v>
       </c>
     </row>
-    <row r="44" spans="1:186" x14ac:dyDescent="0.2">
+    <row r="44" spans="1:186" x14ac:dyDescent="0.3">
       <c r="A44" s="28"/>
       <c r="B44" s="29">
         <v>2019</v>
@@ -28027,7 +28027,7 @@
         <v>684.96399999999994</v>
       </c>
     </row>
-    <row r="45" spans="1:186" x14ac:dyDescent="0.2">
+    <row r="45" spans="1:186" x14ac:dyDescent="0.3">
       <c r="A45" s="28"/>
       <c r="B45" s="29">
         <v>2020</v>
@@ -28470,7 +28470,7 @@
         <v>511.41631578947363</v>
       </c>
     </row>
-    <row r="46" spans="1:186" x14ac:dyDescent="0.2">
+    <row r="46" spans="1:186" x14ac:dyDescent="0.3">
       <c r="A46" s="28"/>
       <c r="B46" s="29">
         <v>2021</v>
@@ -28905,7 +28905,7 @@
         <v>493.09668874172183</v>
       </c>
     </row>
-    <row r="47" spans="1:186" x14ac:dyDescent="0.2">
+    <row r="47" spans="1:186" x14ac:dyDescent="0.3">
       <c r="A47" s="28"/>
       <c r="B47" s="29">
         <v>2022</v>
@@ -29295,7 +29295,7 @@
         <v>486.69797647058823</v>
       </c>
     </row>
-    <row r="48" spans="1:186" x14ac:dyDescent="0.2">
+    <row r="48" spans="1:186" x14ac:dyDescent="0.3">
       <c r="A48" s="28"/>
       <c r="B48" s="29">
         <v>2024</v>
@@ -29725,7 +29725,7 @@
         <v>463.98577405857742</v>
       </c>
     </row>
-    <row r="49" spans="1:186" x14ac:dyDescent="0.2">
+    <row r="49" spans="1:186" x14ac:dyDescent="0.3">
       <c r="A49" s="28"/>
       <c r="B49" s="29">
         <v>2025</v>
@@ -30163,7 +30163,7 @@
         <v>591.27329032258069</v>
       </c>
     </row>
-    <row r="50" spans="1:186" x14ac:dyDescent="0.2">
+    <row r="50" spans="1:186" x14ac:dyDescent="0.3">
       <c r="A50" s="28"/>
       <c r="B50" s="29">
         <v>2026</v>
@@ -30612,7 +30612,7 @@
         <v>475.63559251559252</v>
       </c>
     </row>
-    <row r="51" spans="1:186" x14ac:dyDescent="0.2">
+    <row r="51" spans="1:186" x14ac:dyDescent="0.3">
       <c r="A51" s="28" t="s">
         <v>522</v>
       </c>
@@ -31058,7 +31058,7 @@
         <v>556.62260869565216</v>
       </c>
     </row>
-    <row r="52" spans="1:186" x14ac:dyDescent="0.2">
+    <row r="52" spans="1:186" x14ac:dyDescent="0.3">
       <c r="A52" s="28" t="s">
         <v>522</v>
       </c>
@@ -31499,7 +31499,7 @@
         <v>578.63205298013258</v>
       </c>
     </row>
-    <row r="53" spans="1:186" x14ac:dyDescent="0.2">
+    <row r="53" spans="1:186" x14ac:dyDescent="0.3">
       <c r="A53" s="28" t="s">
         <v>522</v>
       </c>
@@ -31931,7 +31931,7 @@
         <v>560.13967058823528</v>
       </c>
     </row>
-    <row r="54" spans="1:186" x14ac:dyDescent="0.2">
+    <row r="54" spans="1:186" x14ac:dyDescent="0.3">
       <c r="A54" s="28" t="s">
         <v>522</v>
       </c>
@@ -32393,7 +32393,7 @@
         <v>532.40526315789475</v>
       </c>
     </row>
-    <row r="55" spans="1:186" x14ac:dyDescent="0.2">
+    <row r="55" spans="1:186" x14ac:dyDescent="0.3">
       <c r="A55" s="28" t="s">
         <v>522</v>
       </c>
@@ -32853,7 +32853,7 @@
         <v>532.38545454545454</v>
       </c>
     </row>
-    <row r="56" spans="1:186" x14ac:dyDescent="0.2">
+    <row r="56" spans="1:186" x14ac:dyDescent="0.3">
       <c r="A56" s="28" t="s">
         <v>522</v>
       </c>
@@ -33283,7 +33283,7 @@
         <v>452.69731343283581</v>
       </c>
     </row>
-    <row r="57" spans="1:186" x14ac:dyDescent="0.2">
+    <row r="57" spans="1:186" x14ac:dyDescent="0.3">
       <c r="A57" s="28" t="s">
         <v>522</v>
       </c>
@@ -33745,7 +33745,7 @@
         <v>516.36464692482912</v>
       </c>
     </row>
-    <row r="58" spans="1:186" x14ac:dyDescent="0.2">
+    <row r="58" spans="1:186" x14ac:dyDescent="0.3">
       <c r="A58" s="28" t="s">
         <v>522</v>
       </c>
@@ -34224,7 +34224,7 @@
         <v>518.77736842105264</v>
       </c>
     </row>
-    <row r="59" spans="1:186" x14ac:dyDescent="0.2">
+    <row r="59" spans="1:186" x14ac:dyDescent="0.3">
       <c r="A59" s="28" t="s">
         <v>522</v>
       </c>
@@ -34714,7 +34714,7 @@
         <v>622.89559322033892</v>
       </c>
     </row>
-    <row r="60" spans="1:186" x14ac:dyDescent="0.2">
+    <row r="60" spans="1:186" x14ac:dyDescent="0.3">
       <c r="A60" s="28" t="s">
         <v>522</v>
       </c>
@@ -35178,7 +35178,7 @@
         <v>398.84869565217394</v>
       </c>
     </row>
-    <row r="61" spans="1:186" x14ac:dyDescent="0.2">
+    <row r="61" spans="1:186" x14ac:dyDescent="0.3">
       <c r="A61" s="28"/>
       <c r="B61" s="29">
         <v>2039</v>
@@ -35574,7 +35574,7 @@
         <v>558.70892307692316</v>
       </c>
     </row>
-    <row r="62" spans="1:186" x14ac:dyDescent="0.2">
+    <row r="62" spans="1:186" x14ac:dyDescent="0.3">
       <c r="A62" s="28" t="s">
         <v>522</v>
       </c>
@@ -36048,7 +36048,7 @@
         <v>695.74511166253114</v>
       </c>
     </row>
-    <row r="63" spans="1:186" x14ac:dyDescent="0.2">
+    <row r="63" spans="1:186" x14ac:dyDescent="0.3">
       <c r="A63" s="28" t="s">
         <v>522</v>
       </c>
@@ -36582,25 +36582,25 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0500-000000000000}">
   <dimension ref="A1:N63"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <selection activeCell="J12" sqref="J12"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="8.77734375" defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <cols>
-    <col min="3" max="3" width="13.5" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="12.5" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="13.1640625" bestFit="1" customWidth="1"/>
-    <col min="6" max="6" width="13.5" bestFit="1" customWidth="1"/>
-    <col min="7" max="7" width="12.5" bestFit="1" customWidth="1"/>
-    <col min="8" max="8" width="13.1640625" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="13.44140625" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="12.44140625" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="13.109375" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="13.44140625" bestFit="1" customWidth="1"/>
+    <col min="7" max="7" width="12.44140625" bestFit="1" customWidth="1"/>
+    <col min="8" max="8" width="13.109375" bestFit="1" customWidth="1"/>
     <col min="9" max="11" width="12" bestFit="1" customWidth="1"/>
     <col min="12" max="12" width="17.33203125" bestFit="1" customWidth="1"/>
     <col min="13" max="13" width="16.33203125" bestFit="1" customWidth="1"/>
-    <col min="14" max="14" width="16.83203125" bestFit="1" customWidth="1"/>
+    <col min="14" max="14" width="16.77734375" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:14" x14ac:dyDescent="0.2">
+    <row r="1" spans="1:14" x14ac:dyDescent="0.3">
       <c r="A1" s="116" t="s">
         <v>538</v>
       </c>
@@ -36644,7 +36644,7 @@
         <v>560</v>
       </c>
     </row>
-    <row r="2" spans="1:14" x14ac:dyDescent="0.2">
+    <row r="2" spans="1:14" x14ac:dyDescent="0.3">
       <c r="A2" s="116">
         <v>1001</v>
       </c>
@@ -36688,7 +36688,7 @@
         <v>97.023809523809518</v>
       </c>
     </row>
-    <row r="3" spans="1:14" x14ac:dyDescent="0.2">
+    <row r="3" spans="1:14" x14ac:dyDescent="0.3">
       <c r="A3" s="116">
         <v>1002</v>
       </c>
@@ -36732,7 +36732,7 @@
         <v>90.873015873015873</v>
       </c>
     </row>
-    <row r="4" spans="1:14" x14ac:dyDescent="0.2">
+    <row r="4" spans="1:14" x14ac:dyDescent="0.3">
       <c r="A4" s="116">
         <v>1003</v>
       </c>
@@ -36776,7 +36776,7 @@
         <v>86.30952380952381</v>
       </c>
     </row>
-    <row r="5" spans="1:14" x14ac:dyDescent="0.2">
+    <row r="5" spans="1:14" x14ac:dyDescent="0.3">
       <c r="A5" s="116">
         <v>1004</v>
       </c>
@@ -36820,7 +36820,7 @@
         <v>82.936507936507937</v>
       </c>
     </row>
-    <row r="6" spans="1:14" x14ac:dyDescent="0.2">
+    <row r="6" spans="1:14" x14ac:dyDescent="0.3">
       <c r="A6" s="116">
         <v>1005</v>
       </c>
@@ -36864,7 +36864,7 @@
         <v>86.706349206349202</v>
       </c>
     </row>
-    <row r="7" spans="1:14" x14ac:dyDescent="0.2">
+    <row r="7" spans="1:14" x14ac:dyDescent="0.3">
       <c r="A7" s="116">
         <v>1006</v>
       </c>
@@ -36908,7 +36908,7 @@
         <v>98.412698412698418</v>
       </c>
     </row>
-    <row r="8" spans="1:14" x14ac:dyDescent="0.2">
+    <row r="8" spans="1:14" x14ac:dyDescent="0.3">
       <c r="A8" s="116">
         <v>1007</v>
       </c>
@@ -36952,7 +36952,7 @@
         <v>89.88095238095238</v>
       </c>
     </row>
-    <row r="9" spans="1:14" x14ac:dyDescent="0.2">
+    <row r="9" spans="1:14" x14ac:dyDescent="0.3">
       <c r="A9" s="116">
         <v>1009</v>
       </c>
@@ -36996,7 +36996,7 @@
         <v>91.468253968253961</v>
       </c>
     </row>
-    <row r="10" spans="1:14" x14ac:dyDescent="0.2">
+    <row r="10" spans="1:14" x14ac:dyDescent="0.3">
       <c r="A10" s="116">
         <v>1010</v>
       </c>
@@ -37040,7 +37040,7 @@
         <v>87.896825396825392</v>
       </c>
     </row>
-    <row r="11" spans="1:14" x14ac:dyDescent="0.2">
+    <row r="11" spans="1:14" x14ac:dyDescent="0.3">
       <c r="A11" s="116">
         <v>1011</v>
       </c>
@@ -37084,7 +37084,7 @@
         <v>91.071428571428569</v>
       </c>
     </row>
-    <row r="12" spans="1:14" x14ac:dyDescent="0.2">
+    <row r="12" spans="1:14" x14ac:dyDescent="0.3">
       <c r="A12" s="116">
         <v>1012</v>
       </c>
@@ -37128,7 +37128,7 @@
         <v>92.857142857142861</v>
       </c>
     </row>
-    <row r="13" spans="1:14" x14ac:dyDescent="0.2">
+    <row r="13" spans="1:14" x14ac:dyDescent="0.3">
       <c r="A13" s="116">
         <v>1013</v>
       </c>
@@ -37172,7 +37172,7 @@
         <v>94.246031746031747</v>
       </c>
     </row>
-    <row r="14" spans="1:14" x14ac:dyDescent="0.2">
+    <row r="14" spans="1:14" x14ac:dyDescent="0.3">
       <c r="A14" s="116">
         <v>1014</v>
       </c>
@@ -37216,7 +37216,7 @@
         <v>95.634920634920633</v>
       </c>
     </row>
-    <row r="15" spans="1:14" x14ac:dyDescent="0.2">
+    <row r="15" spans="1:14" x14ac:dyDescent="0.3">
       <c r="A15" s="116">
         <v>1015</v>
       </c>
@@ -37260,7 +37260,7 @@
         <v>90.079365079365076</v>
       </c>
     </row>
-    <row r="16" spans="1:14" x14ac:dyDescent="0.2">
+    <row r="16" spans="1:14" x14ac:dyDescent="0.3">
       <c r="A16" s="116">
         <v>1016</v>
       </c>
@@ -37304,7 +37304,7 @@
         <v>86.706349206349202</v>
       </c>
     </row>
-    <row r="17" spans="1:14" x14ac:dyDescent="0.2">
+    <row r="17" spans="1:14" x14ac:dyDescent="0.3">
       <c r="A17" s="116">
         <v>1017</v>
       </c>
@@ -37348,7 +37348,7 @@
         <v>88.69047619047619</v>
       </c>
     </row>
-    <row r="18" spans="1:14" x14ac:dyDescent="0.2">
+    <row r="18" spans="1:14" x14ac:dyDescent="0.3">
       <c r="A18" s="116">
         <v>1018</v>
       </c>
@@ -37392,7 +37392,7 @@
         <v>96.230158730158735</v>
       </c>
     </row>
-    <row r="19" spans="1:14" x14ac:dyDescent="0.2">
+    <row r="19" spans="1:14" x14ac:dyDescent="0.3">
       <c r="A19" s="116">
         <v>1021</v>
       </c>
@@ -37436,7 +37436,7 @@
         <v>82.539682539682545</v>
       </c>
     </row>
-    <row r="20" spans="1:14" x14ac:dyDescent="0.2">
+    <row r="20" spans="1:14" x14ac:dyDescent="0.3">
       <c r="A20" s="116">
         <v>1022</v>
       </c>
@@ -37480,7 +37480,7 @@
         <v>81.547619047619051</v>
       </c>
     </row>
-    <row r="21" spans="1:14" x14ac:dyDescent="0.2">
+    <row r="21" spans="1:14" x14ac:dyDescent="0.3">
       <c r="A21" s="116">
         <v>1023</v>
       </c>
@@ -37524,7 +37524,7 @@
         <v>79.960317460317455</v>
       </c>
     </row>
-    <row r="22" spans="1:14" x14ac:dyDescent="0.2">
+    <row r="22" spans="1:14" x14ac:dyDescent="0.3">
       <c r="A22" s="116">
         <v>1024</v>
       </c>
@@ -37568,7 +37568,7 @@
         <v>94.642857142857139</v>
       </c>
     </row>
-    <row r="23" spans="1:14" x14ac:dyDescent="0.2">
+    <row r="23" spans="1:14" x14ac:dyDescent="0.3">
       <c r="A23" s="116">
         <v>1025</v>
       </c>
@@ -37612,7 +37612,7 @@
         <v>82.142857142857139</v>
       </c>
     </row>
-    <row r="24" spans="1:14" x14ac:dyDescent="0.2">
+    <row r="24" spans="1:14" x14ac:dyDescent="0.3">
       <c r="A24" s="116">
         <v>1026</v>
       </c>
@@ -37656,7 +37656,7 @@
         <v>97.222222222222229</v>
       </c>
     </row>
-    <row r="25" spans="1:14" x14ac:dyDescent="0.2">
+    <row r="25" spans="1:14" x14ac:dyDescent="0.3">
       <c r="A25" s="116">
         <v>1028</v>
       </c>
@@ -37700,7 +37700,7 @@
         <v>89.682539682539684</v>
       </c>
     </row>
-    <row r="26" spans="1:14" x14ac:dyDescent="0.2">
+    <row r="26" spans="1:14" x14ac:dyDescent="0.3">
       <c r="A26" s="116">
         <v>1029</v>
       </c>
@@ -37744,7 +37744,7 @@
         <v>62.301587301587304</v>
       </c>
     </row>
-    <row r="27" spans="1:14" x14ac:dyDescent="0.2">
+    <row r="27" spans="1:14" x14ac:dyDescent="0.3">
       <c r="A27" s="116">
         <v>1030</v>
       </c>
@@ -37788,7 +37788,7 @@
         <v>88.69047619047619</v>
       </c>
     </row>
-    <row r="28" spans="1:14" x14ac:dyDescent="0.2">
+    <row r="28" spans="1:14" x14ac:dyDescent="0.3">
       <c r="A28" s="116">
         <v>2001</v>
       </c>
@@ -37832,7 +37832,7 @@
         <v>92.261904761904759</v>
       </c>
     </row>
-    <row r="29" spans="1:14" x14ac:dyDescent="0.2">
+    <row r="29" spans="1:14" x14ac:dyDescent="0.3">
       <c r="A29" s="116">
         <v>2002</v>
       </c>
@@ -37876,7 +37876,7 @@
         <v>94.047619047619051</v>
       </c>
     </row>
-    <row r="30" spans="1:14" x14ac:dyDescent="0.2">
+    <row r="30" spans="1:14" x14ac:dyDescent="0.3">
       <c r="A30" s="116">
         <v>2003</v>
       </c>
@@ -37920,7 +37920,7 @@
         <v>88.69047619047619</v>
       </c>
     </row>
-    <row r="31" spans="1:14" x14ac:dyDescent="0.2">
+    <row r="31" spans="1:14" x14ac:dyDescent="0.3">
       <c r="A31" s="116">
         <v>2004</v>
       </c>
@@ -37964,7 +37964,7 @@
         <v>97.023809523809518</v>
       </c>
     </row>
-    <row r="32" spans="1:14" x14ac:dyDescent="0.2">
+    <row r="32" spans="1:14" x14ac:dyDescent="0.3">
       <c r="A32" s="116">
         <v>2005</v>
       </c>
@@ -38008,7 +38008,7 @@
         <v>93.849206349206355</v>
       </c>
     </row>
-    <row r="33" spans="1:14" x14ac:dyDescent="0.2">
+    <row r="33" spans="1:14" x14ac:dyDescent="0.3">
       <c r="A33" s="116">
         <v>2007</v>
       </c>
@@ -38052,7 +38052,7 @@
         <v>78.968253968253961</v>
       </c>
     </row>
-    <row r="34" spans="1:14" x14ac:dyDescent="0.2">
+    <row r="34" spans="1:14" x14ac:dyDescent="0.3">
       <c r="A34" s="116">
         <v>2008</v>
       </c>
@@ -38096,7 +38096,7 @@
         <v>93.253968253968253</v>
       </c>
     </row>
-    <row r="35" spans="1:14" x14ac:dyDescent="0.2">
+    <row r="35" spans="1:14" x14ac:dyDescent="0.3">
       <c r="A35" s="116">
         <v>2009</v>
       </c>
@@ -38140,7 +38140,7 @@
         <v>90.476190476190482</v>
       </c>
     </row>
-    <row r="36" spans="1:14" x14ac:dyDescent="0.2">
+    <row r="36" spans="1:14" x14ac:dyDescent="0.3">
       <c r="A36" s="116">
         <v>2010</v>
       </c>
@@ -38184,7 +38184,7 @@
         <v>90.476190476190482</v>
       </c>
     </row>
-    <row r="37" spans="1:14" x14ac:dyDescent="0.2">
+    <row r="37" spans="1:14" x14ac:dyDescent="0.3">
       <c r="A37" s="116">
         <v>2011</v>
       </c>
@@ -38228,7 +38228,7 @@
         <v>86.111111111111114</v>
       </c>
     </row>
-    <row r="38" spans="1:14" x14ac:dyDescent="0.2">
+    <row r="38" spans="1:14" x14ac:dyDescent="0.3">
       <c r="A38" s="116">
         <v>2013</v>
       </c>
@@ -38272,7 +38272,7 @@
         <v>91.269841269841265</v>
       </c>
     </row>
-    <row r="39" spans="1:14" x14ac:dyDescent="0.2">
+    <row r="39" spans="1:14" x14ac:dyDescent="0.3">
       <c r="A39" s="116">
         <v>2014</v>
       </c>
@@ -38316,7 +38316,7 @@
         <v>92.460317460317455</v>
       </c>
     </row>
-    <row r="40" spans="1:14" x14ac:dyDescent="0.2">
+    <row r="40" spans="1:14" x14ac:dyDescent="0.3">
       <c r="A40" s="116">
         <v>2015</v>
       </c>
@@ -38360,7 +38360,7 @@
         <v>85.11904761904762</v>
       </c>
     </row>
-    <row r="41" spans="1:14" x14ac:dyDescent="0.2">
+    <row r="41" spans="1:14" x14ac:dyDescent="0.3">
       <c r="A41" s="116">
         <v>2016</v>
       </c>
@@ -38404,7 +38404,7 @@
         <v>92.261904761904759</v>
       </c>
     </row>
-    <row r="42" spans="1:14" x14ac:dyDescent="0.2">
+    <row r="42" spans="1:14" x14ac:dyDescent="0.3">
       <c r="A42" s="116">
         <v>2017</v>
       </c>
@@ -38448,7 +38448,7 @@
         <v>91.666666666666671</v>
       </c>
     </row>
-    <row r="43" spans="1:14" x14ac:dyDescent="0.2">
+    <row r="43" spans="1:14" x14ac:dyDescent="0.3">
       <c r="A43" s="116">
         <v>2018</v>
       </c>
@@ -38492,7 +38492,7 @@
         <v>86.904761904761898</v>
       </c>
     </row>
-    <row r="44" spans="1:14" x14ac:dyDescent="0.2">
+    <row r="44" spans="1:14" x14ac:dyDescent="0.3">
       <c r="A44" s="116">
         <v>2019</v>
       </c>
@@ -38536,7 +38536,7 @@
         <v>71.428571428571431</v>
       </c>
     </row>
-    <row r="45" spans="1:14" x14ac:dyDescent="0.2">
+    <row r="45" spans="1:14" x14ac:dyDescent="0.3">
       <c r="A45" s="116">
         <v>2020</v>
       </c>
@@ -38580,7 +38580,7 @@
         <v>90.476190476190482</v>
       </c>
     </row>
-    <row r="46" spans="1:14" x14ac:dyDescent="0.2">
+    <row r="46" spans="1:14" x14ac:dyDescent="0.3">
       <c r="A46" s="116">
         <v>2021</v>
       </c>
@@ -38624,7 +38624,7 @@
         <v>89.88095238095238</v>
       </c>
     </row>
-    <row r="47" spans="1:14" x14ac:dyDescent="0.2">
+    <row r="47" spans="1:14" x14ac:dyDescent="0.3">
       <c r="A47" s="116">
         <v>2022</v>
       </c>
@@ -38668,7 +38668,7 @@
         <v>84.325396825396822</v>
       </c>
     </row>
-    <row r="48" spans="1:14" x14ac:dyDescent="0.2">
+    <row r="48" spans="1:14" x14ac:dyDescent="0.3">
       <c r="A48" s="116">
         <v>2024</v>
       </c>
@@ -38712,7 +38712,7 @@
         <v>94.841269841269835</v>
       </c>
     </row>
-    <row r="49" spans="1:14" x14ac:dyDescent="0.2">
+    <row r="49" spans="1:14" x14ac:dyDescent="0.3">
       <c r="A49" s="116">
         <v>2025</v>
       </c>
@@ -38756,7 +38756,7 @@
         <v>92.261904761904759</v>
       </c>
     </row>
-    <row r="50" spans="1:14" x14ac:dyDescent="0.2">
+    <row r="50" spans="1:14" x14ac:dyDescent="0.3">
       <c r="A50" s="116">
         <v>2026</v>
       </c>
@@ -38800,7 +38800,7 @@
         <v>95.436507936507937</v>
       </c>
     </row>
-    <row r="51" spans="1:14" x14ac:dyDescent="0.2">
+    <row r="51" spans="1:14" x14ac:dyDescent="0.3">
       <c r="A51" s="116">
         <v>2027</v>
       </c>
@@ -38844,7 +38844,7 @@
         <v>95.833333333333329</v>
       </c>
     </row>
-    <row r="52" spans="1:14" x14ac:dyDescent="0.2">
+    <row r="52" spans="1:14" x14ac:dyDescent="0.3">
       <c r="A52" s="116">
         <v>2028</v>
       </c>
@@ -38888,7 +38888,7 @@
         <v>89.88095238095238</v>
       </c>
     </row>
-    <row r="53" spans="1:14" x14ac:dyDescent="0.2">
+    <row r="53" spans="1:14" x14ac:dyDescent="0.3">
       <c r="A53" s="116">
         <v>2029</v>
       </c>
@@ -38932,7 +38932,7 @@
         <v>84.325396825396822</v>
       </c>
     </row>
-    <row r="54" spans="1:14" x14ac:dyDescent="0.2">
+    <row r="54" spans="1:14" x14ac:dyDescent="0.3">
       <c r="A54" s="116">
         <v>2030</v>
       </c>
@@ -38976,7 +38976,7 @@
         <v>90.476190476190482</v>
       </c>
     </row>
-    <row r="55" spans="1:14" x14ac:dyDescent="0.2">
+    <row r="55" spans="1:14" x14ac:dyDescent="0.3">
       <c r="A55" s="116">
         <v>2032</v>
       </c>
@@ -39020,7 +39020,7 @@
         <v>91.666666666666671</v>
       </c>
     </row>
-    <row r="56" spans="1:14" x14ac:dyDescent="0.2">
+    <row r="56" spans="1:14" x14ac:dyDescent="0.3">
       <c r="A56" s="116">
         <v>2033</v>
       </c>
@@ -39064,7 +39064,7 @@
         <v>93.055555555555557</v>
       </c>
     </row>
-    <row r="57" spans="1:14" x14ac:dyDescent="0.2">
+    <row r="57" spans="1:14" x14ac:dyDescent="0.3">
       <c r="A57" s="116">
         <v>2034</v>
       </c>
@@ -39108,7 +39108,7 @@
         <v>87.103174603174608</v>
       </c>
     </row>
-    <row r="58" spans="1:14" x14ac:dyDescent="0.2">
+    <row r="58" spans="1:14" x14ac:dyDescent="0.3">
       <c r="A58" s="116">
         <v>2036</v>
       </c>
@@ -39152,7 +39152,7 @@
         <v>90.476190476190482</v>
       </c>
     </row>
-    <row r="59" spans="1:14" x14ac:dyDescent="0.2">
+    <row r="59" spans="1:14" x14ac:dyDescent="0.3">
       <c r="A59" s="116">
         <v>2037</v>
       </c>
@@ -39196,7 +39196,7 @@
         <v>70.238095238095241</v>
       </c>
     </row>
-    <row r="60" spans="1:14" x14ac:dyDescent="0.2">
+    <row r="60" spans="1:14" x14ac:dyDescent="0.3">
       <c r="A60" s="116">
         <v>2038</v>
       </c>
@@ -39240,7 +39240,7 @@
         <v>95.833333333333329</v>
       </c>
     </row>
-    <row r="61" spans="1:14" x14ac:dyDescent="0.2">
+    <row r="61" spans="1:14" x14ac:dyDescent="0.3">
       <c r="A61" s="116">
         <v>2039</v>
       </c>
@@ -39284,7 +39284,7 @@
         <v>91.666666666666671</v>
       </c>
     </row>
-    <row r="62" spans="1:14" x14ac:dyDescent="0.2">
+    <row r="62" spans="1:14" x14ac:dyDescent="0.3">
       <c r="A62" s="116">
         <v>2040</v>
       </c>
@@ -39328,7 +39328,7 @@
         <v>90.277777777777771</v>
       </c>
     </row>
-    <row r="63" spans="1:14" x14ac:dyDescent="0.2">
+    <row r="63" spans="1:14" x14ac:dyDescent="0.3">
       <c r="A63" s="116">
         <v>2041</v>
       </c>
@@ -39385,20 +39385,20 @@
       <selection activeCell="E21" sqref="E21"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="8.77734375" defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <cols>
-    <col min="1" max="1" width="7.5" customWidth="1"/>
+    <col min="1" max="1" width="7.44140625" customWidth="1"/>
     <col min="2" max="2" width="11" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="11.5" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="11.44140625" bestFit="1" customWidth="1"/>
     <col min="4" max="4" width="11" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="11.5" bestFit="1" customWidth="1"/>
-    <col min="6" max="6" width="9.5" bestFit="1" customWidth="1"/>
-    <col min="7" max="7" width="10.1640625" bestFit="1" customWidth="1"/>
-    <col min="8" max="8" width="14.83203125" bestFit="1" customWidth="1"/>
-    <col min="9" max="9" width="15.5" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="11.44140625" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="9.44140625" bestFit="1" customWidth="1"/>
+    <col min="7" max="7" width="10.109375" bestFit="1" customWidth="1"/>
+    <col min="8" max="8" width="14.77734375" bestFit="1" customWidth="1"/>
+    <col min="9" max="9" width="15.44140625" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:9" x14ac:dyDescent="0.2">
+    <row r="1" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A1" s="116" t="s">
         <v>538</v>
       </c>
@@ -39427,7 +39427,7 @@
         <v>548</v>
       </c>
     </row>
-    <row r="2" spans="1:9" x14ac:dyDescent="0.2">
+    <row r="2" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A2" s="116">
         <v>1001</v>
       </c>
@@ -39456,7 +39456,7 @@
         <v>350.08</v>
       </c>
     </row>
-    <row r="3" spans="1:9" x14ac:dyDescent="0.2">
+    <row r="3" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A3" s="116">
         <v>1002</v>
       </c>
@@ -39485,7 +39485,7 @@
         <v>471.29</v>
       </c>
     </row>
-    <row r="4" spans="1:9" x14ac:dyDescent="0.2">
+    <row r="4" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A4" s="116">
         <v>1003</v>
       </c>
@@ -39514,7 +39514,7 @@
         <v>400.46</v>
       </c>
     </row>
-    <row r="5" spans="1:9" x14ac:dyDescent="0.2">
+    <row r="5" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A5" s="116">
         <v>1004</v>
       </c>
@@ -39543,7 +39543,7 @@
         <v>452.14</v>
       </c>
     </row>
-    <row r="6" spans="1:9" x14ac:dyDescent="0.2">
+    <row r="6" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A6" s="116">
         <v>1005</v>
       </c>
@@ -39572,7 +39572,7 @@
         <v>478.75</v>
       </c>
     </row>
-    <row r="7" spans="1:9" x14ac:dyDescent="0.2">
+    <row r="7" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A7" s="116">
         <v>1006</v>
       </c>
@@ -39601,7 +39601,7 @@
         <v>413.83</v>
       </c>
     </row>
-    <row r="8" spans="1:9" x14ac:dyDescent="0.2">
+    <row r="8" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A8" s="116">
         <v>1007</v>
       </c>
@@ -39630,7 +39630,7 @@
         <v>411.86</v>
       </c>
     </row>
-    <row r="9" spans="1:9" x14ac:dyDescent="0.2">
+    <row r="9" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A9" s="116">
         <v>1009</v>
       </c>
@@ -39659,7 +39659,7 @@
         <v>374.18</v>
       </c>
     </row>
-    <row r="10" spans="1:9" x14ac:dyDescent="0.2">
+    <row r="10" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A10" s="116">
         <v>1010</v>
       </c>
@@ -39688,7 +39688,7 @@
         <v>434.24</v>
       </c>
     </row>
-    <row r="11" spans="1:9" x14ac:dyDescent="0.2">
+    <row r="11" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A11" s="116">
         <v>1011</v>
       </c>
@@ -39717,7 +39717,7 @@
         <v>491.53</v>
       </c>
     </row>
-    <row r="12" spans="1:9" x14ac:dyDescent="0.2">
+    <row r="12" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A12" s="116">
         <v>1012</v>
       </c>
@@ -39746,7 +39746,7 @@
         <v>459.9</v>
       </c>
     </row>
-    <row r="13" spans="1:9" x14ac:dyDescent="0.2">
+    <row r="13" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A13" s="116">
         <v>1013</v>
       </c>
@@ -39775,7 +39775,7 @@
         <v>452.03</v>
       </c>
     </row>
-    <row r="14" spans="1:9" x14ac:dyDescent="0.2">
+    <row r="14" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A14" s="116">
         <v>1014</v>
       </c>
@@ -39804,7 +39804,7 @@
         <v>403.45</v>
       </c>
     </row>
-    <row r="15" spans="1:9" x14ac:dyDescent="0.2">
+    <row r="15" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A15" s="116">
         <v>1015</v>
       </c>
@@ -39833,7 +39833,7 @@
         <v>483.56</v>
       </c>
     </row>
-    <row r="16" spans="1:9" x14ac:dyDescent="0.2">
+    <row r="16" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A16" s="116">
         <v>1016</v>
       </c>
@@ -39862,7 +39862,7 @@
         <v>440.92</v>
       </c>
     </row>
-    <row r="17" spans="1:9" x14ac:dyDescent="0.2">
+    <row r="17" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A17" s="116">
         <v>1017</v>
       </c>
@@ -39891,7 +39891,7 @@
         <v>419.39</v>
       </c>
     </row>
-    <row r="18" spans="1:9" x14ac:dyDescent="0.2">
+    <row r="18" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A18" s="116">
         <v>1018</v>
       </c>
@@ -39920,7 +39920,7 @@
         <v>416.64</v>
       </c>
     </row>
-    <row r="19" spans="1:9" x14ac:dyDescent="0.2">
+    <row r="19" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A19" s="116">
         <v>1021</v>
       </c>
@@ -39949,7 +39949,7 @@
         <v>405.56</v>
       </c>
     </row>
-    <row r="20" spans="1:9" x14ac:dyDescent="0.2">
+    <row r="20" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A20" s="116">
         <v>1022</v>
       </c>
@@ -39978,7 +39978,7 @@
         <v>433.99</v>
       </c>
     </row>
-    <row r="21" spans="1:9" x14ac:dyDescent="0.2">
+    <row r="21" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A21" s="116">
         <v>1023</v>
       </c>
@@ -40007,7 +40007,7 @@
         <v>477.89</v>
       </c>
     </row>
-    <row r="22" spans="1:9" x14ac:dyDescent="0.2">
+    <row r="22" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A22" s="116">
         <v>1024</v>
       </c>
@@ -40036,7 +40036,7 @@
         <v>482.46</v>
       </c>
     </row>
-    <row r="23" spans="1:9" x14ac:dyDescent="0.2">
+    <row r="23" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A23" s="116">
         <v>1025</v>
       </c>
@@ -40065,7 +40065,7 @@
         <v>454.94</v>
       </c>
     </row>
-    <row r="24" spans="1:9" x14ac:dyDescent="0.2">
+    <row r="24" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A24" s="116">
         <v>1026</v>
       </c>
@@ -40094,7 +40094,7 @@
         <v>484.83</v>
       </c>
     </row>
-    <row r="25" spans="1:9" x14ac:dyDescent="0.2">
+    <row r="25" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A25" s="116">
         <v>1028</v>
       </c>
@@ -40123,7 +40123,7 @@
         <v>483.62</v>
       </c>
     </row>
-    <row r="26" spans="1:9" x14ac:dyDescent="0.2">
+    <row r="26" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A26" s="116">
         <v>1029</v>
       </c>
@@ -40152,7 +40152,7 @@
         <v>575.32000000000005</v>
       </c>
     </row>
-    <row r="27" spans="1:9" x14ac:dyDescent="0.2">
+    <row r="27" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A27" s="116">
         <v>1030</v>
       </c>
@@ -40181,7 +40181,7 @@
         <v>430.46</v>
       </c>
     </row>
-    <row r="28" spans="1:9" x14ac:dyDescent="0.2">
+    <row r="28" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A28" s="116">
         <v>2001</v>
       </c>
@@ -40210,7 +40210,7 @@
         <v>427.05</v>
       </c>
     </row>
-    <row r="29" spans="1:9" x14ac:dyDescent="0.2">
+    <row r="29" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A29" s="116">
         <v>2002</v>
       </c>
@@ -40239,7 +40239,7 @@
         <v>454.64</v>
       </c>
     </row>
-    <row r="30" spans="1:9" x14ac:dyDescent="0.2">
+    <row r="30" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A30" s="116">
         <v>2003</v>
       </c>
@@ -40268,7 +40268,7 @@
         <v>429.08</v>
       </c>
     </row>
-    <row r="31" spans="1:9" x14ac:dyDescent="0.2">
+    <row r="31" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A31" s="116">
         <v>2004</v>
       </c>
@@ -40297,7 +40297,7 @@
         <v>502.56</v>
       </c>
     </row>
-    <row r="32" spans="1:9" x14ac:dyDescent="0.2">
+    <row r="32" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A32" s="116">
         <v>2005</v>
       </c>
@@ -40326,7 +40326,7 @@
         <v>418.66</v>
       </c>
     </row>
-    <row r="33" spans="1:9" x14ac:dyDescent="0.2">
+    <row r="33" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A33" s="116">
         <v>2007</v>
       </c>
@@ -40355,7 +40355,7 @@
         <v>470.32</v>
       </c>
     </row>
-    <row r="34" spans="1:9" x14ac:dyDescent="0.2">
+    <row r="34" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A34" s="116">
         <v>2008</v>
       </c>
@@ -40384,7 +40384,7 @@
         <v>477.52</v>
       </c>
     </row>
-    <row r="35" spans="1:9" x14ac:dyDescent="0.2">
+    <row r="35" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A35" s="116">
         <v>2009</v>
       </c>
@@ -40413,7 +40413,7 @@
         <v>472.74</v>
       </c>
     </row>
-    <row r="36" spans="1:9" x14ac:dyDescent="0.2">
+    <row r="36" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A36" s="116">
         <v>2010</v>
       </c>
@@ -40442,7 +40442,7 @@
         <v>542.12</v>
       </c>
     </row>
-    <row r="37" spans="1:9" x14ac:dyDescent="0.2">
+    <row r="37" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A37" s="116">
         <v>2011</v>
       </c>
@@ -40471,7 +40471,7 @@
         <v>415.5</v>
       </c>
     </row>
-    <row r="38" spans="1:9" x14ac:dyDescent="0.2">
+    <row r="38" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A38" s="116">
         <v>2013</v>
       </c>
@@ -40500,7 +40500,7 @@
         <v>429.39</v>
       </c>
     </row>
-    <row r="39" spans="1:9" x14ac:dyDescent="0.2">
+    <row r="39" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A39" s="116">
         <v>2014</v>
       </c>
@@ -40529,7 +40529,7 @@
         <v>510.63</v>
       </c>
     </row>
-    <row r="40" spans="1:9" x14ac:dyDescent="0.2">
+    <row r="40" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A40" s="116">
         <v>2015</v>
       </c>
@@ -40558,7 +40558,7 @@
         <v>479.23</v>
       </c>
     </row>
-    <row r="41" spans="1:9" x14ac:dyDescent="0.2">
+    <row r="41" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A41" s="116">
         <v>2016</v>
       </c>
@@ -40587,7 +40587,7 @@
         <v>541.76</v>
       </c>
     </row>
-    <row r="42" spans="1:9" x14ac:dyDescent="0.2">
+    <row r="42" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A42" s="116">
         <v>2017</v>
       </c>
@@ -40616,7 +40616,7 @@
         <v>430.39</v>
       </c>
     </row>
-    <row r="43" spans="1:9" x14ac:dyDescent="0.2">
+    <row r="43" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A43" s="116">
         <v>2018</v>
       </c>
@@ -40645,7 +40645,7 @@
         <v>433.18</v>
       </c>
     </row>
-    <row r="44" spans="1:9" x14ac:dyDescent="0.2">
+    <row r="44" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A44" s="116">
         <v>2019</v>
       </c>
@@ -40674,7 +40674,7 @@
         <v>489.26</v>
       </c>
     </row>
-    <row r="45" spans="1:9" x14ac:dyDescent="0.2">
+    <row r="45" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A45" s="116">
         <v>2020</v>
       </c>
@@ -40703,7 +40703,7 @@
         <v>462.71</v>
       </c>
     </row>
-    <row r="46" spans="1:9" x14ac:dyDescent="0.2">
+    <row r="46" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A46" s="116">
         <v>2021</v>
       </c>
@@ -40732,7 +40732,7 @@
         <v>443.2</v>
       </c>
     </row>
-    <row r="47" spans="1:9" x14ac:dyDescent="0.2">
+    <row r="47" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A47" s="116">
         <v>2022</v>
       </c>
@@ -40761,7 +40761,7 @@
         <v>410.41</v>
       </c>
     </row>
-    <row r="48" spans="1:9" x14ac:dyDescent="0.2">
+    <row r="48" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A48" s="116">
         <v>2024</v>
       </c>
@@ -40790,7 +40790,7 @@
         <v>440.05</v>
       </c>
     </row>
-    <row r="49" spans="1:9" x14ac:dyDescent="0.2">
+    <row r="49" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A49" s="116">
         <v>2025</v>
       </c>
@@ -40819,7 +40819,7 @@
         <v>545.52</v>
       </c>
     </row>
-    <row r="50" spans="1:9" x14ac:dyDescent="0.2">
+    <row r="50" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A50" s="116">
         <v>2026</v>
       </c>
@@ -40848,7 +40848,7 @@
         <v>453.93</v>
       </c>
     </row>
-    <row r="51" spans="1:9" x14ac:dyDescent="0.2">
+    <row r="51" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A51" s="116">
         <v>2027</v>
       </c>
@@ -40877,7 +40877,7 @@
         <v>533.42999999999995</v>
       </c>
     </row>
-    <row r="52" spans="1:9" x14ac:dyDescent="0.2">
+    <row r="52" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A52" s="116">
         <v>2028</v>
       </c>
@@ -40906,7 +40906,7 @@
         <v>520.08000000000004</v>
       </c>
     </row>
-    <row r="53" spans="1:9" x14ac:dyDescent="0.2">
+    <row r="53" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A53" s="116">
         <v>2029</v>
       </c>
@@ -40935,7 +40935,7 @@
         <v>472.34</v>
       </c>
     </row>
-    <row r="54" spans="1:9" x14ac:dyDescent="0.2">
+    <row r="54" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A54" s="116">
         <v>2030</v>
       </c>
@@ -40964,7 +40964,7 @@
         <v>481.7</v>
       </c>
     </row>
-    <row r="55" spans="1:9" x14ac:dyDescent="0.2">
+    <row r="55" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A55" s="116">
         <v>2032</v>
       </c>
@@ -40993,7 +40993,7 @@
         <v>488.02</v>
       </c>
     </row>
-    <row r="56" spans="1:9" x14ac:dyDescent="0.2">
+    <row r="56" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A56" s="116">
         <v>2033</v>
       </c>
@@ -41022,7 +41022,7 @@
         <v>421.26</v>
       </c>
     </row>
-    <row r="57" spans="1:9" x14ac:dyDescent="0.2">
+    <row r="57" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A57" s="116">
         <v>2034</v>
       </c>
@@ -41051,7 +41051,7 @@
         <v>449.77</v>
       </c>
     </row>
-    <row r="58" spans="1:9" x14ac:dyDescent="0.2">
+    <row r="58" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A58" s="116">
         <v>2036</v>
       </c>
@@ -41080,7 +41080,7 @@
         <v>469.37</v>
       </c>
     </row>
-    <row r="59" spans="1:9" x14ac:dyDescent="0.2">
+    <row r="59" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A59" s="116">
         <v>2037</v>
       </c>
@@ -41109,7 +41109,7 @@
         <v>437.51</v>
       </c>
     </row>
-    <row r="60" spans="1:9" x14ac:dyDescent="0.2">
+    <row r="60" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A60" s="116">
         <v>2038</v>
       </c>
@@ -41138,7 +41138,7 @@
         <v>382.23</v>
       </c>
     </row>
-    <row r="61" spans="1:9" x14ac:dyDescent="0.2">
+    <row r="61" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A61" s="116">
         <v>2039</v>
       </c>
@@ -41167,7 +41167,7 @@
         <v>442.1</v>
       </c>
     </row>
-    <row r="62" spans="1:9" x14ac:dyDescent="0.2">
+    <row r="62" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A62" s="116">
         <v>2040</v>
       </c>
@@ -41196,7 +41196,7 @@
         <v>504.39</v>
       </c>
     </row>
-    <row r="63" spans="1:9" x14ac:dyDescent="0.2">
+    <row r="63" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A63" s="116">
         <v>2041</v>
       </c>
@@ -41237,20 +41237,22 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0700-000000000000}">
   <dimension ref="A1:N63"/>
   <sheetViews>
-    <sheetView workbookViewId="0"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="M12" sqref="M12"/>
+    </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="8.77734375" defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <cols>
-    <col min="3" max="3" width="13.1640625" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="11.5" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="13.1640625" bestFit="1" customWidth="1"/>
-    <col min="6" max="7" width="11.5" bestFit="1" customWidth="1"/>
-    <col min="8" max="8" width="10.1640625" bestFit="1" customWidth="1"/>
-    <col min="9" max="9" width="16.83203125" bestFit="1" customWidth="1"/>
-    <col min="10" max="10" width="15.5" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="13.109375" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="11.44140625" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="13.109375" bestFit="1" customWidth="1"/>
+    <col min="6" max="7" width="11.44140625" bestFit="1" customWidth="1"/>
+    <col min="8" max="8" width="10.109375" bestFit="1" customWidth="1"/>
+    <col min="9" max="9" width="16.77734375" bestFit="1" customWidth="1"/>
+    <col min="10" max="10" width="15.44140625" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:14" x14ac:dyDescent="0.2">
+    <row r="1" spans="1:14" x14ac:dyDescent="0.3">
       <c r="A1" s="116" t="s">
         <v>538</v>
       </c>
@@ -41294,7 +41296,7 @@
         <v>563</v>
       </c>
     </row>
-    <row r="2" spans="1:14" x14ac:dyDescent="0.2">
+    <row r="2" spans="1:14" x14ac:dyDescent="0.3">
       <c r="A2" s="116">
         <v>1001</v>
       </c>
@@ -41326,23 +41328,23 @@
         <v>350.08</v>
       </c>
       <c r="K2">
-        <f t="shared" ref="K2:K33" si="0">(D2*100)/C2</f>
-        <v>376.78825531914896</v>
+        <f>D2/C2</f>
+        <v>3.7678825531914892</v>
       </c>
       <c r="L2">
-        <f t="shared" ref="L2:L33" si="1">(F2*100)/E2</f>
-        <v>382.85770212765959</v>
+        <f>F2/E2</f>
+        <v>3.8285770212765953</v>
       </c>
       <c r="M2">
-        <f t="shared" ref="M2:M33" si="2">(H2*100)/G2</f>
-        <v>377.73913043478262</v>
+        <f>H2/G2</f>
+        <v>3.7773913043478262</v>
       </c>
       <c r="N2">
-        <f t="shared" ref="N2:N33" si="3">(J2*100)/I2</f>
-        <v>360.81865030674851</v>
+        <f>J2/I2</f>
+        <v>3.6081865030674849</v>
       </c>
     </row>
-    <row r="3" spans="1:14" x14ac:dyDescent="0.2">
+    <row r="3" spans="1:14" x14ac:dyDescent="0.3">
       <c r="A3" s="116">
         <v>1002</v>
       </c>
@@ -41374,23 +41376,23 @@
         <v>471.29</v>
       </c>
       <c r="K3">
-        <f t="shared" si="0"/>
-        <v>538.50193548387097</v>
+        <f t="shared" ref="K3:K63" si="0">D3/C3</f>
+        <v>5.3850193548387093</v>
       </c>
       <c r="L3">
-        <f t="shared" si="1"/>
-        <v>537.08193832599125</v>
+        <f t="shared" ref="L3:L63" si="1">F3/E3</f>
+        <v>5.3708193832599118</v>
       </c>
       <c r="M3">
-        <f t="shared" si="2"/>
-        <v>501.00206896551725</v>
+        <f t="shared" ref="M3:M63" si="2">H3/G3</f>
+        <v>5.0100206896551729</v>
       </c>
       <c r="N3">
-        <f t="shared" si="3"/>
-        <v>518.6248034934498</v>
+        <f t="shared" ref="N3:N63" si="3">J3/I3</f>
+        <v>5.1862480349344979</v>
       </c>
     </row>
-    <row r="4" spans="1:14" x14ac:dyDescent="0.2">
+    <row r="4" spans="1:14" x14ac:dyDescent="0.3">
       <c r="A4" s="116">
         <v>1003</v>
       </c>
@@ -41423,22 +41425,22 @@
       </c>
       <c r="K4">
         <f t="shared" si="0"/>
-        <v>417.67659574468087</v>
+        <v>4.1767659574468086</v>
       </c>
       <c r="L4">
         <f t="shared" si="1"/>
-        <v>447.17315436241608</v>
+        <v>4.4717315436241609</v>
       </c>
       <c r="M4">
         <f t="shared" si="2"/>
-        <v>435.28578947368419</v>
+        <v>4.3528578947368413</v>
       </c>
       <c r="N4">
         <f t="shared" si="3"/>
-        <v>463.98124137931035</v>
+        <v>4.6398124137931029</v>
       </c>
     </row>
-    <row r="5" spans="1:14" x14ac:dyDescent="0.2">
+    <row r="5" spans="1:14" x14ac:dyDescent="0.3">
       <c r="A5" s="116">
         <v>1004</v>
       </c>
@@ -41471,22 +41473,22 @@
       </c>
       <c r="K5">
         <f t="shared" si="0"/>
-        <v>532.35282511210767</v>
+        <v>5.3235282511210755</v>
       </c>
       <c r="L5">
         <f t="shared" si="1"/>
-        <v>539.08074418604656</v>
+        <v>5.3908074418604652</v>
       </c>
       <c r="M5">
         <f t="shared" si="2"/>
-        <v>521.62884955752213</v>
+        <v>5.2162884955752213</v>
       </c>
       <c r="N5">
         <f t="shared" si="3"/>
-        <v>545.16401913875598</v>
+        <v>5.4516401913875594</v>
       </c>
     </row>
-    <row r="6" spans="1:14" x14ac:dyDescent="0.2">
+    <row r="6" spans="1:14" x14ac:dyDescent="0.3">
       <c r="A6" s="116">
         <v>1005</v>
       </c>
@@ -41519,22 +41521,22 @@
       </c>
       <c r="K6">
         <f t="shared" si="0"/>
-        <v>584.13254004576663</v>
+        <v>5.8413254004576665</v>
       </c>
       <c r="L6">
         <f t="shared" si="1"/>
-        <v>556.41823008849553</v>
+        <v>5.5641823008849558</v>
       </c>
       <c r="M6">
         <f t="shared" si="2"/>
-        <v>554.1621573033708</v>
+        <v>5.5416215730337077</v>
       </c>
       <c r="N6">
         <f t="shared" si="3"/>
-        <v>552.1510297482838</v>
+        <v>5.5215102974828376</v>
       </c>
     </row>
-    <row r="7" spans="1:14" x14ac:dyDescent="0.2">
+    <row r="7" spans="1:14" x14ac:dyDescent="0.3">
       <c r="A7" s="116">
         <v>1006</v>
       </c>
@@ -41567,22 +41569,22 @@
       </c>
       <c r="K7">
         <f t="shared" si="0"/>
-        <v>449.60487804878051</v>
+        <v>4.4960487804878042</v>
       </c>
       <c r="L7">
         <f t="shared" si="1"/>
-        <v>436.53295774647887</v>
+        <v>4.3653295774647889</v>
       </c>
       <c r="M7">
         <f t="shared" si="2"/>
-        <v>426.57831325301203</v>
+        <v>4.2657831325301201</v>
       </c>
       <c r="N7">
         <f t="shared" si="3"/>
-        <v>420.50467741935483</v>
+        <v>4.2050467741935478</v>
       </c>
     </row>
-    <row r="8" spans="1:14" x14ac:dyDescent="0.2">
+    <row r="8" spans="1:14" x14ac:dyDescent="0.3">
       <c r="A8" s="116">
         <v>1007</v>
       </c>
@@ -41615,22 +41617,22 @@
       </c>
       <c r="K8">
         <f t="shared" si="0"/>
-        <v>444.35823157894737</v>
+        <v>4.4435823157894738</v>
       </c>
       <c r="L8">
         <f t="shared" si="1"/>
-        <v>463.23398230088497</v>
+        <v>4.6323398230088495</v>
       </c>
       <c r="M8">
         <f t="shared" si="2"/>
-        <v>465.22559999999999</v>
+        <v>4.6522559999999995</v>
       </c>
       <c r="N8">
         <f t="shared" si="3"/>
-        <v>458.22834437086095</v>
+        <v>4.5822834437086097</v>
       </c>
     </row>
-    <row r="9" spans="1:14" x14ac:dyDescent="0.2">
+    <row r="9" spans="1:14" x14ac:dyDescent="0.3">
       <c r="A9" s="116">
         <v>1009</v>
       </c>
@@ -41663,22 +41665,22 @@
       </c>
       <c r="K9">
         <f t="shared" si="0"/>
-        <v>414.14709677419359</v>
+        <v>4.1414709677419355</v>
       </c>
       <c r="L9">
         <f t="shared" si="1"/>
-        <v>418.61055432372501</v>
+        <v>4.1861055432372503</v>
       </c>
       <c r="M9">
         <f t="shared" si="2"/>
-        <v>427.3278947368421</v>
+        <v>4.2732789473684205</v>
       </c>
       <c r="N9">
         <f t="shared" si="3"/>
-        <v>409.08182212581346</v>
+        <v>4.090818221258135</v>
       </c>
     </row>
-    <row r="10" spans="1:14" x14ac:dyDescent="0.2">
+    <row r="10" spans="1:14" x14ac:dyDescent="0.3">
       <c r="A10" s="116">
         <v>1010</v>
       </c>
@@ -41711,22 +41713,22 @@
       </c>
       <c r="K10">
         <f t="shared" si="0"/>
-        <v>483.07428571428574</v>
+        <v>4.830742857142857</v>
       </c>
       <c r="L10">
         <f t="shared" si="1"/>
-        <v>502.32774193548386</v>
+        <v>5.0232774193548382</v>
       </c>
       <c r="M10">
         <f t="shared" si="2"/>
-        <v>533.51655502392339</v>
+        <v>5.3351655502392346</v>
       </c>
       <c r="N10">
         <f t="shared" si="3"/>
-        <v>494.03376975169306</v>
+        <v>4.94033769751693</v>
       </c>
     </row>
-    <row r="11" spans="1:14" x14ac:dyDescent="0.2">
+    <row r="11" spans="1:14" x14ac:dyDescent="0.3">
       <c r="A11" s="116">
         <v>1011</v>
       </c>
@@ -41759,22 +41761,22 @@
       </c>
       <c r="K11">
         <f t="shared" si="0"/>
-        <v>595.2208033826638</v>
+        <v>5.9522080338266381</v>
       </c>
       <c r="L11">
         <f t="shared" si="1"/>
-        <v>563.69552238805966</v>
+        <v>5.6369552238805962</v>
       </c>
       <c r="M11">
         <f t="shared" si="2"/>
-        <v>556.92544276457886</v>
+        <v>5.569254427645788</v>
       </c>
       <c r="N11">
         <f t="shared" si="3"/>
-        <v>539.71921568627454</v>
+        <v>5.3971921568627446</v>
       </c>
     </row>
-    <row r="12" spans="1:14" x14ac:dyDescent="0.2">
+    <row r="12" spans="1:14" x14ac:dyDescent="0.3">
       <c r="A12" s="116">
         <v>1012</v>
       </c>
@@ -41807,22 +41809,22 @@
       </c>
       <c r="K12">
         <f t="shared" si="0"/>
-        <v>427.53391304347826</v>
+        <v>4.2753391304347828</v>
       </c>
       <c r="L12">
         <f t="shared" si="1"/>
-        <v>487.39314533622564</v>
+        <v>4.873931453362256</v>
       </c>
       <c r="M12">
         <f t="shared" si="2"/>
-        <v>463.09199999999998</v>
+        <v>4.6309199999999997</v>
       </c>
       <c r="N12">
         <f t="shared" si="3"/>
-        <v>495.27692307692308</v>
+        <v>4.9527692307692304</v>
       </c>
     </row>
-    <row r="13" spans="1:14" x14ac:dyDescent="0.2">
+    <row r="13" spans="1:14" x14ac:dyDescent="0.3">
       <c r="A13" s="116">
         <v>1013</v>
       </c>
@@ -41855,22 +41857,22 @@
       </c>
       <c r="K13">
         <f t="shared" si="0"/>
-        <v>468.24651356993735</v>
+        <v>4.6824651356993732</v>
       </c>
       <c r="L13">
         <f t="shared" si="1"/>
-        <v>479.9833962264151</v>
+        <v>4.7998339622641506</v>
       </c>
       <c r="M13">
         <f t="shared" si="2"/>
-        <v>481.51384615384615</v>
+        <v>4.8151384615384618</v>
       </c>
       <c r="N13">
         <f t="shared" si="3"/>
-        <v>479.62762105263158</v>
+        <v>4.7962762105263153</v>
       </c>
     </row>
-    <row r="14" spans="1:14" x14ac:dyDescent="0.2">
+    <row r="14" spans="1:14" x14ac:dyDescent="0.3">
       <c r="A14" s="116">
         <v>1014</v>
       </c>
@@ -41903,22 +41905,22 @@
       </c>
       <c r="K14">
         <f t="shared" si="0"/>
-        <v>446.53556485355654</v>
+        <v>4.4653556485355654</v>
       </c>
       <c r="L14">
         <f t="shared" si="1"/>
-        <v>430.85217391304349</v>
+        <v>4.3085217391304349</v>
       </c>
       <c r="M14">
         <f t="shared" si="2"/>
-        <v>461.75070967741937</v>
+        <v>4.6175070967741938</v>
       </c>
       <c r="N14">
         <f t="shared" si="3"/>
-        <v>421.86473029045646</v>
+        <v>4.2186473029045644</v>
       </c>
     </row>
-    <row r="15" spans="1:14" x14ac:dyDescent="0.2">
+    <row r="15" spans="1:14" x14ac:dyDescent="0.3">
       <c r="A15" s="116">
         <v>1015</v>
       </c>
@@ -41951,22 +41953,22 @@
       </c>
       <c r="K15">
         <f t="shared" si="0"/>
-        <v>445.75199999999995</v>
+        <v>4.4575199999999997</v>
       </c>
       <c r="L15">
         <f t="shared" si="1"/>
-        <v>521.35503325942352</v>
+        <v>5.2135503325942345</v>
       </c>
       <c r="M15">
         <f t="shared" si="2"/>
-        <v>514.01397379912669</v>
+        <v>5.1401397379912668</v>
       </c>
       <c r="N15">
         <f t="shared" si="3"/>
-        <v>536.81550660792959</v>
+        <v>5.3681550660792956</v>
       </c>
     </row>
-    <row r="16" spans="1:14" x14ac:dyDescent="0.2">
+    <row r="16" spans="1:14" x14ac:dyDescent="0.3">
       <c r="A16" s="116">
         <v>1016</v>
       </c>
@@ -41999,22 +42001,22 @@
       </c>
       <c r="K16">
         <f t="shared" si="0"/>
-        <v>477.38701986754967</v>
+        <v>4.773870198675497</v>
       </c>
       <c r="L16">
         <f t="shared" si="1"/>
-        <v>514.05672055427249</v>
+        <v>5.1405672055427249</v>
       </c>
       <c r="M16">
         <f t="shared" si="2"/>
-        <v>510.78324705882352</v>
+        <v>5.1078324705882361</v>
       </c>
       <c r="N16">
         <f t="shared" si="3"/>
-        <v>508.52100686498858</v>
+        <v>5.0852100686498858</v>
       </c>
     </row>
-    <row r="17" spans="1:14" x14ac:dyDescent="0.2">
+    <row r="17" spans="1:14" x14ac:dyDescent="0.3">
       <c r="A17" s="116">
         <v>1017</v>
       </c>
@@ -42047,22 +42049,22 @@
       </c>
       <c r="K17">
         <f t="shared" si="0"/>
-        <v>420.77189189189187</v>
+        <v>4.2077189189189186</v>
       </c>
       <c r="L17">
         <f t="shared" si="1"/>
-        <v>465.84641425389759</v>
+        <v>4.6584641425389757</v>
       </c>
       <c r="M17">
         <f t="shared" si="2"/>
-        <v>455.13295404814005</v>
+        <v>4.5513295404814</v>
       </c>
       <c r="N17">
         <f t="shared" si="3"/>
-        <v>472.86926174496642</v>
+        <v>4.7286926174496644</v>
       </c>
     </row>
-    <row r="18" spans="1:14" x14ac:dyDescent="0.2">
+    <row r="18" spans="1:14" x14ac:dyDescent="0.3">
       <c r="A18" s="116">
         <v>1018</v>
       </c>
@@ -42095,22 +42097,22 @@
       </c>
       <c r="K18">
         <f t="shared" si="0"/>
-        <v>425.33707317073168</v>
+        <v>4.2533707317073164</v>
       </c>
       <c r="L18">
         <f t="shared" si="1"/>
-        <v>446.67909278350515</v>
+        <v>4.4667909278350511</v>
       </c>
       <c r="M18">
         <f t="shared" si="2"/>
-        <v>432.03421487603305</v>
+        <v>4.3203421487603304</v>
       </c>
       <c r="N18">
         <f t="shared" si="3"/>
-        <v>432.96197938144326</v>
+        <v>4.329619793814433</v>
       </c>
     </row>
-    <row r="19" spans="1:14" x14ac:dyDescent="0.2">
+    <row r="19" spans="1:14" x14ac:dyDescent="0.3">
       <c r="A19" s="116">
         <v>1021</v>
       </c>
@@ -42143,22 +42145,22 @@
       </c>
       <c r="K19">
         <f t="shared" si="0"/>
-        <v>462.060814479638</v>
+        <v>4.6206081447963809</v>
       </c>
       <c r="L19">
         <f t="shared" si="1"/>
-        <v>487.2672</v>
+        <v>4.8726719999999997</v>
       </c>
       <c r="M19">
         <f t="shared" si="2"/>
-        <v>501.45553398058252</v>
+        <v>5.0145553398058258</v>
       </c>
       <c r="N19">
         <f t="shared" si="3"/>
-        <v>491.35153846153844</v>
+        <v>4.9135153846153843</v>
       </c>
     </row>
-    <row r="20" spans="1:14" x14ac:dyDescent="0.2">
+    <row r="20" spans="1:14" x14ac:dyDescent="0.3">
       <c r="A20" s="116">
         <v>1022</v>
       </c>
@@ -42191,22 +42193,22 @@
       </c>
       <c r="K20">
         <f t="shared" si="0"/>
-        <v>425.95443037974684</v>
+        <v>4.2595443037974681</v>
       </c>
       <c r="L20">
         <f t="shared" si="1"/>
-        <v>489.02924829157172</v>
+        <v>4.8902924829157168</v>
       </c>
       <c r="M20">
         <f t="shared" si="2"/>
-        <v>489.14709677419353</v>
+        <v>4.8914709677419355</v>
       </c>
       <c r="N20">
         <f t="shared" si="3"/>
-        <v>532.19211678832119</v>
+        <v>5.3219211678832119</v>
       </c>
     </row>
-    <row r="21" spans="1:14" x14ac:dyDescent="0.2">
+    <row r="21" spans="1:14" x14ac:dyDescent="0.3">
       <c r="A21" s="116">
         <v>1023</v>
       </c>
@@ -42239,22 +42241,22 @@
       </c>
       <c r="K21">
         <f t="shared" si="0"/>
-        <v>475.87659043659045</v>
+        <v>4.7587659043659043</v>
       </c>
       <c r="L21">
         <f t="shared" si="1"/>
-        <v>535.21142857142854</v>
+        <v>5.3521142857142854</v>
       </c>
       <c r="M21">
         <f t="shared" si="2"/>
-        <v>553.11709090909085</v>
+        <v>5.5311709090909087</v>
       </c>
       <c r="N21">
         <f t="shared" si="3"/>
-        <v>597.65895781637721</v>
+        <v>5.9765895781637717</v>
       </c>
     </row>
-    <row r="22" spans="1:14" x14ac:dyDescent="0.2">
+    <row r="22" spans="1:14" x14ac:dyDescent="0.3">
       <c r="A22" s="116">
         <v>1024</v>
       </c>
@@ -42287,22 +42289,22 @@
       </c>
       <c r="K22">
         <f t="shared" si="0"/>
-        <v>475.71030549898165</v>
+        <v>4.7571030549898161</v>
       </c>
       <c r="L22">
         <f t="shared" si="1"/>
-        <v>511.0666105263158</v>
+        <v>5.1106661052631583</v>
       </c>
       <c r="M22">
         <f t="shared" si="2"/>
-        <v>492.89526970954358</v>
+        <v>4.9289526970954354</v>
       </c>
       <c r="N22">
         <f t="shared" si="3"/>
-        <v>509.76905660377361</v>
+        <v>5.0976905660377358</v>
       </c>
     </row>
-    <row r="23" spans="1:14" x14ac:dyDescent="0.2">
+    <row r="23" spans="1:14" x14ac:dyDescent="0.3">
       <c r="A23" s="116">
         <v>1025</v>
       </c>
@@ -42335,22 +42337,22 @@
       </c>
       <c r="K23">
         <f t="shared" si="0"/>
-        <v>678.28958677685955</v>
+        <v>6.7828958677685955</v>
       </c>
       <c r="L23">
         <f t="shared" si="1"/>
-        <v>616.72453608247417</v>
+        <v>6.167245360824742</v>
       </c>
       <c r="M23">
         <f t="shared" si="2"/>
-        <v>616.34238341968921</v>
+        <v>6.1634238341968919</v>
       </c>
       <c r="N23">
         <f t="shared" si="3"/>
-        <v>553.84</v>
+        <v>5.5384000000000002</v>
       </c>
     </row>
-    <row r="24" spans="1:14" x14ac:dyDescent="0.2">
+    <row r="24" spans="1:14" x14ac:dyDescent="0.3">
       <c r="A24" s="116">
         <v>1026</v>
       </c>
@@ -42383,22 +42385,22 @@
       </c>
       <c r="K24">
         <f t="shared" si="0"/>
-        <v>450.09523046092187</v>
+        <v>4.5009523046092186</v>
       </c>
       <c r="L24">
         <f t="shared" si="1"/>
-        <v>476.04534412955468</v>
+        <v>4.7604534412955468</v>
       </c>
       <c r="M24">
         <f t="shared" si="2"/>
-        <v>487.58663951120161</v>
+        <v>4.8758663951120162</v>
       </c>
       <c r="N24">
         <f t="shared" si="3"/>
-        <v>498.68228571428568</v>
+        <v>4.9868228571428563</v>
       </c>
     </row>
-    <row r="25" spans="1:14" x14ac:dyDescent="0.2">
+    <row r="25" spans="1:14" x14ac:dyDescent="0.3">
       <c r="A25" s="116">
         <v>1028</v>
       </c>
@@ -42431,22 +42433,22 @@
       </c>
       <c r="K25">
         <f t="shared" si="0"/>
-        <v>500.06081370449675</v>
+        <v>5.000608137044968</v>
       </c>
       <c r="L25">
         <f t="shared" si="1"/>
-        <v>543.3854304635762</v>
+        <v>5.4338543046357612</v>
       </c>
       <c r="M25">
         <f t="shared" si="2"/>
-        <v>526.13559020044545</v>
+        <v>5.2613559020044551</v>
       </c>
       <c r="N25">
         <f t="shared" si="3"/>
-        <v>539.25769911504426</v>
+        <v>5.3925769911504426</v>
       </c>
     </row>
-    <row r="26" spans="1:14" x14ac:dyDescent="0.2">
+    <row r="26" spans="1:14" x14ac:dyDescent="0.3">
       <c r="A26" s="116">
         <v>1029</v>
       </c>
@@ -42479,22 +42481,22 @@
       </c>
       <c r="K26">
         <f t="shared" si="0"/>
-        <v>590.23304347826092</v>
+        <v>5.9023304347826091</v>
       </c>
       <c r="L26">
         <f t="shared" si="1"/>
-        <v>767.27055118110229</v>
+        <v>7.6727055118110226</v>
       </c>
       <c r="M26">
         <f t="shared" si="2"/>
-        <v>709.74763092269336</v>
+        <v>7.0974763092269333</v>
       </c>
       <c r="N26">
         <f t="shared" si="3"/>
-        <v>923.44356687898096</v>
+        <v>9.2344356687898088</v>
       </c>
     </row>
-    <row r="27" spans="1:14" x14ac:dyDescent="0.2">
+    <row r="27" spans="1:14" x14ac:dyDescent="0.3">
       <c r="A27" s="116">
         <v>1030</v>
       </c>
@@ -42527,22 +42529,22 @@
       </c>
       <c r="K27">
         <f t="shared" si="0"/>
-        <v>459.63058315334774</v>
+        <v>4.5963058315334777</v>
       </c>
       <c r="L27">
         <f t="shared" si="1"/>
-        <v>484.91595505617977</v>
+        <v>4.8491595505617973</v>
       </c>
       <c r="M27">
         <f t="shared" si="2"/>
-        <v>495.9926292134831</v>
+        <v>4.9599262921348313</v>
       </c>
       <c r="N27">
         <f t="shared" si="3"/>
-        <v>485.35087248322151</v>
+        <v>4.8535087248322144</v>
       </c>
     </row>
-    <row r="28" spans="1:14" x14ac:dyDescent="0.2">
+    <row r="28" spans="1:14" x14ac:dyDescent="0.3">
       <c r="A28" s="116">
         <v>2001</v>
       </c>
@@ -42575,22 +42577,22 @@
       </c>
       <c r="K28">
         <f t="shared" si="0"/>
-        <v>439.41212903225806</v>
+        <v>4.3941212903225813</v>
       </c>
       <c r="L28">
         <f t="shared" si="1"/>
-        <v>449.05965517241378</v>
+        <v>4.4905965517241384</v>
       </c>
       <c r="M28">
         <f t="shared" si="2"/>
-        <v>484.69520361990953</v>
+        <v>4.8469520361990952</v>
       </c>
       <c r="N28">
         <f t="shared" si="3"/>
-        <v>462.86709677419356</v>
+        <v>4.628670967741936</v>
       </c>
     </row>
-    <row r="29" spans="1:14" x14ac:dyDescent="0.2">
+    <row r="29" spans="1:14" x14ac:dyDescent="0.3">
       <c r="A29" s="116">
         <v>2002</v>
       </c>
@@ -42623,22 +42625,22 @@
       </c>
       <c r="K29">
         <f t="shared" si="0"/>
-        <v>494.69132075471703</v>
+        <v>4.94691320754717</v>
       </c>
       <c r="L29">
         <f t="shared" si="1"/>
-        <v>495.1128358208955</v>
+        <v>4.9511283582089556</v>
       </c>
       <c r="M29">
         <f t="shared" si="2"/>
-        <v>487.02037735849058</v>
+        <v>4.8702037735849055</v>
       </c>
       <c r="N29">
         <f t="shared" si="3"/>
-        <v>483.41468354430378</v>
+        <v>4.8341468354430379</v>
       </c>
     </row>
-    <row r="30" spans="1:14" x14ac:dyDescent="0.2">
+    <row r="30" spans="1:14" x14ac:dyDescent="0.3">
       <c r="A30" s="116">
         <v>2003</v>
       </c>
@@ -42671,22 +42673,22 @@
       </c>
       <c r="K30">
         <f t="shared" si="0"/>
-        <v>419.3008695652174</v>
+        <v>4.1930086956521739</v>
       </c>
       <c r="L30">
         <f t="shared" si="1"/>
-        <v>468.66437086092714</v>
+        <v>4.6866437086092718</v>
       </c>
       <c r="M30">
         <f t="shared" si="2"/>
-        <v>440.22835117773019</v>
+        <v>4.402283511777302</v>
       </c>
       <c r="N30">
         <f t="shared" si="3"/>
-        <v>483.79489932885906</v>
+        <v>4.8379489932885908</v>
       </c>
     </row>
-    <row r="31" spans="1:14" x14ac:dyDescent="0.2">
+    <row r="31" spans="1:14" x14ac:dyDescent="0.3">
       <c r="A31" s="116">
         <v>2004</v>
       </c>
@@ -42719,22 +42721,22 @@
       </c>
       <c r="K31">
         <f t="shared" si="0"/>
-        <v>537.9422222222222</v>
+        <v>5.3794222222222219</v>
       </c>
       <c r="L31">
         <f t="shared" si="1"/>
-        <v>534.20843423799579</v>
+        <v>5.342084342379958</v>
       </c>
       <c r="M31">
         <f t="shared" si="2"/>
-        <v>543.19304347826085</v>
+        <v>5.4319304347826085</v>
       </c>
       <c r="N31">
         <f t="shared" si="3"/>
-        <v>517.9759509202454</v>
+        <v>5.1797595092024542</v>
       </c>
     </row>
-    <row r="32" spans="1:14" x14ac:dyDescent="0.2">
+    <row r="32" spans="1:14" x14ac:dyDescent="0.3">
       <c r="A32" s="116">
         <v>2005</v>
       </c>
@@ -42767,22 +42769,22 @@
       </c>
       <c r="K32">
         <f t="shared" si="0"/>
-        <v>477.04412903225807</v>
+        <v>4.770441290322581</v>
       </c>
       <c r="L32">
         <f t="shared" si="1"/>
-        <v>461.65538461538461</v>
+        <v>4.6165538461538462</v>
       </c>
       <c r="M32">
         <f t="shared" si="2"/>
-        <v>469.73665236051505</v>
+        <v>4.6973665236051501</v>
       </c>
       <c r="N32">
         <f t="shared" si="3"/>
-        <v>446.09860465116276</v>
+        <v>4.4609860465116276</v>
       </c>
     </row>
-    <row r="33" spans="1:14" x14ac:dyDescent="0.2">
+    <row r="33" spans="1:14" x14ac:dyDescent="0.3">
       <c r="A33" s="116">
         <v>2007</v>
       </c>
@@ -42815,22 +42817,22 @@
       </c>
       <c r="K33">
         <f t="shared" si="0"/>
-        <v>587.64653465346532</v>
+        <v>5.876465346534653</v>
       </c>
       <c r="L33">
         <f t="shared" si="1"/>
-        <v>601.25427135678399</v>
+        <v>6.0125427135678402</v>
       </c>
       <c r="M33">
         <f t="shared" si="2"/>
-        <v>581.58356435643555</v>
+        <v>5.8158356435643563</v>
       </c>
       <c r="N33">
         <f t="shared" si="3"/>
-        <v>595.58110552763821</v>
+        <v>5.9558110552763823</v>
       </c>
     </row>
-    <row r="34" spans="1:14" x14ac:dyDescent="0.2">
+    <row r="34" spans="1:14" x14ac:dyDescent="0.3">
       <c r="A34" s="116">
         <v>2008</v>
       </c>
@@ -42862,23 +42864,23 @@
         <v>477.52</v>
       </c>
       <c r="K34">
-        <f t="shared" ref="K34:K63" si="4">(D34*100)/C34</f>
-        <v>484.43046025104604</v>
+        <f t="shared" si="0"/>
+        <v>4.8443046025104604</v>
       </c>
       <c r="L34">
-        <f t="shared" ref="L34:L63" si="5">(F34*100)/E34</f>
-        <v>495.10092050209209</v>
+        <f t="shared" si="1"/>
+        <v>4.9510092050209211</v>
       </c>
       <c r="M34">
-        <f t="shared" ref="M34:M63" si="6">(H34*100)/G34</f>
-        <v>501.44301886792454</v>
+        <f t="shared" si="2"/>
+        <v>5.0144301886792455</v>
       </c>
       <c r="N34">
-        <f t="shared" ref="N34:N63" si="7">(J34*100)/I34</f>
-        <v>512.06399999999996</v>
+        <f t="shared" si="3"/>
+        <v>5.1206399999999999</v>
       </c>
     </row>
-    <row r="35" spans="1:14" x14ac:dyDescent="0.2">
+    <row r="35" spans="1:14" x14ac:dyDescent="0.3">
       <c r="A35" s="116">
         <v>2009</v>
       </c>
@@ -42910,23 +42912,23 @@
         <v>472.74</v>
       </c>
       <c r="K35">
-        <f t="shared" si="4"/>
-        <v>507.49649999999997</v>
+        <f t="shared" si="0"/>
+        <v>5.0749649999999997</v>
       </c>
       <c r="L35">
-        <f t="shared" si="5"/>
-        <v>515.42328358208954</v>
+        <f t="shared" si="1"/>
+        <v>5.1542328358208955</v>
       </c>
       <c r="M35">
-        <f t="shared" si="6"/>
-        <v>523.94086956521744</v>
+        <f t="shared" si="2"/>
+        <v>5.2394086956521742</v>
       </c>
       <c r="N35">
-        <f t="shared" si="7"/>
-        <v>522.50210526315789</v>
+        <f t="shared" si="3"/>
+        <v>5.225021052631579</v>
       </c>
     </row>
-    <row r="36" spans="1:14" x14ac:dyDescent="0.2">
+    <row r="36" spans="1:14" x14ac:dyDescent="0.3">
       <c r="A36" s="116">
         <v>2010</v>
       </c>
@@ -42958,23 +42960,23 @@
         <v>542.12</v>
       </c>
       <c r="K36">
-        <f t="shared" si="4"/>
-        <v>554.83779661016956</v>
+        <f t="shared" si="0"/>
+        <v>5.548377966101695</v>
       </c>
       <c r="L36">
-        <f t="shared" si="5"/>
-        <v>618.84404494382022</v>
+        <f t="shared" si="1"/>
+        <v>6.1884404494382013</v>
       </c>
       <c r="M36">
-        <f t="shared" si="6"/>
-        <v>557.52676789587861</v>
+        <f t="shared" si="2"/>
+        <v>5.5752676789587854</v>
       </c>
       <c r="N36">
-        <f t="shared" si="7"/>
-        <v>599.18526315789472</v>
+        <f t="shared" si="3"/>
+        <v>5.9918526315789471</v>
       </c>
     </row>
-    <row r="37" spans="1:14" x14ac:dyDescent="0.2">
+    <row r="37" spans="1:14" x14ac:dyDescent="0.3">
       <c r="A37" s="116">
         <v>2011</v>
       </c>
@@ -43006,23 +43008,23 @@
         <v>415.5</v>
       </c>
       <c r="K37">
-        <f t="shared" si="4"/>
-        <v>456.4990243902439</v>
+        <f t="shared" si="0"/>
+        <v>4.5649902439024386</v>
       </c>
       <c r="L37">
-        <f t="shared" si="5"/>
-        <v>482.5661538461539</v>
+        <f t="shared" si="1"/>
+        <v>4.8256615384615387</v>
       </c>
       <c r="M37">
-        <f t="shared" si="6"/>
-        <v>485.19821826280628</v>
+        <f t="shared" si="2"/>
+        <v>4.8519821826280625</v>
       </c>
       <c r="N37">
-        <f t="shared" si="7"/>
-        <v>482.51612903225805</v>
+        <f t="shared" si="3"/>
+        <v>4.8251612903225807</v>
       </c>
     </row>
-    <row r="38" spans="1:14" x14ac:dyDescent="0.2">
+    <row r="38" spans="1:14" x14ac:dyDescent="0.3">
       <c r="A38" s="116">
         <v>2013</v>
       </c>
@@ -43054,23 +43056,23 @@
         <v>429.39</v>
       </c>
       <c r="K38">
-        <f t="shared" si="4"/>
-        <v>458.45692307692303</v>
+        <f t="shared" si="0"/>
+        <v>4.5845692307692305</v>
       </c>
       <c r="L38">
-        <f t="shared" si="5"/>
-        <v>463.36431965442762</v>
+        <f t="shared" si="1"/>
+        <v>4.6336431965442761</v>
       </c>
       <c r="M38">
-        <f t="shared" si="6"/>
-        <v>474.60919037199125</v>
+        <f t="shared" si="2"/>
+        <v>4.746091903719913</v>
       </c>
       <c r="N38">
-        <f t="shared" si="7"/>
-        <v>470.46208695652177</v>
+        <f t="shared" si="3"/>
+        <v>4.7046208695652174</v>
       </c>
     </row>
-    <row r="39" spans="1:14" x14ac:dyDescent="0.2">
+    <row r="39" spans="1:14" x14ac:dyDescent="0.3">
       <c r="A39" s="116">
         <v>2014</v>
       </c>
@@ -43102,23 +43104,23 @@
         <v>510.63</v>
       </c>
       <c r="K39">
-        <f t="shared" si="4"/>
-        <v>580.75043478260864</v>
+        <f t="shared" si="0"/>
+        <v>5.8075043478260868</v>
       </c>
       <c r="L39">
-        <f t="shared" si="5"/>
-        <v>577.35272727272729</v>
+        <f t="shared" si="1"/>
+        <v>5.7735272727272724</v>
       </c>
       <c r="M39">
-        <f t="shared" si="6"/>
-        <v>539.3979574468085</v>
+        <f t="shared" si="2"/>
+        <v>5.3939795744680854</v>
       </c>
       <c r="N39">
-        <f t="shared" si="7"/>
-        <v>552.26935622317603</v>
+        <f t="shared" si="3"/>
+        <v>5.5226935622317601</v>
       </c>
     </row>
-    <row r="40" spans="1:14" x14ac:dyDescent="0.2">
+    <row r="40" spans="1:14" x14ac:dyDescent="0.3">
       <c r="A40" s="116">
         <v>2015</v>
       </c>
@@ -43150,23 +43152,23 @@
         <v>479.23</v>
       </c>
       <c r="K40">
-        <f t="shared" si="4"/>
-        <v>516.82615384615383</v>
+        <f t="shared" si="0"/>
+        <v>5.1682615384615387</v>
       </c>
       <c r="L40">
-        <f t="shared" si="5"/>
-        <v>524.07272727272721</v>
+        <f t="shared" si="1"/>
+        <v>5.2407272727272725</v>
       </c>
       <c r="M40">
-        <f t="shared" si="6"/>
-        <v>549.33769911504419</v>
+        <f t="shared" si="2"/>
+        <v>5.4933769911504431</v>
       </c>
       <c r="N40">
-        <f t="shared" si="7"/>
-        <v>563.01146853146849</v>
+        <f t="shared" si="3"/>
+        <v>5.6301146853146857</v>
       </c>
     </row>
-    <row r="41" spans="1:14" x14ac:dyDescent="0.2">
+    <row r="41" spans="1:14" x14ac:dyDescent="0.3">
       <c r="A41" s="116">
         <v>2016</v>
       </c>
@@ -43198,23 +43200,23 @@
         <v>541.76</v>
       </c>
       <c r="K41">
-        <f t="shared" si="4"/>
-        <v>568.90049999999985</v>
+        <f t="shared" si="0"/>
+        <v>5.689004999999999</v>
       </c>
       <c r="L41">
-        <f t="shared" si="5"/>
-        <v>606.97710583153344</v>
+        <f t="shared" si="1"/>
+        <v>6.069771058315335</v>
       </c>
       <c r="M41">
-        <f t="shared" si="6"/>
-        <v>616.77547826086948</v>
+        <f t="shared" si="2"/>
+        <v>6.1677547826086956</v>
       </c>
       <c r="N41">
-        <f t="shared" si="7"/>
-        <v>587.19793548387099</v>
+        <f t="shared" si="3"/>
+        <v>5.87197935483871</v>
       </c>
     </row>
-    <row r="42" spans="1:14" x14ac:dyDescent="0.2">
+    <row r="42" spans="1:14" x14ac:dyDescent="0.3">
       <c r="A42" s="116">
         <v>2017</v>
       </c>
@@ -43246,23 +43248,23 @@
         <v>430.39</v>
       </c>
       <c r="K42">
-        <f t="shared" si="4"/>
-        <v>491.21292576419216</v>
+        <f t="shared" si="0"/>
+        <v>4.9121292576419213</v>
       </c>
       <c r="L42">
-        <f t="shared" si="5"/>
-        <v>488.08070484581498</v>
+        <f t="shared" si="1"/>
+        <v>4.8808070484581503</v>
       </c>
       <c r="M42">
-        <f t="shared" si="6"/>
-        <v>487.75755458515283</v>
+        <f t="shared" si="2"/>
+        <v>4.8775755458515286</v>
       </c>
       <c r="N42">
-        <f t="shared" si="7"/>
-        <v>469.51636363636362</v>
+        <f t="shared" si="3"/>
+        <v>4.6951636363636355</v>
       </c>
     </row>
-    <row r="43" spans="1:14" x14ac:dyDescent="0.2">
+    <row r="43" spans="1:14" x14ac:dyDescent="0.3">
       <c r="A43" s="116">
         <v>2018</v>
       </c>
@@ -43294,23 +43296,23 @@
         <v>433.18</v>
       </c>
       <c r="K43">
-        <f t="shared" si="4"/>
-        <v>448.7334193548387</v>
+        <f t="shared" si="0"/>
+        <v>4.4873341935483868</v>
       </c>
       <c r="L43">
-        <f t="shared" si="5"/>
-        <v>478.58577181208057</v>
+        <f t="shared" si="1"/>
+        <v>4.7858577181208055</v>
       </c>
       <c r="M43">
-        <f t="shared" si="6"/>
-        <v>485.10284424379233</v>
+        <f t="shared" si="2"/>
+        <v>4.8510284424379231</v>
       </c>
       <c r="N43">
-        <f t="shared" si="7"/>
-        <v>498.45369863013701</v>
+        <f t="shared" si="3"/>
+        <v>4.9845369863013707</v>
       </c>
     </row>
-    <row r="44" spans="1:14" x14ac:dyDescent="0.2">
+    <row r="44" spans="1:14" x14ac:dyDescent="0.3">
       <c r="A44" s="116">
         <v>2019</v>
       </c>
@@ -43342,23 +43344,23 @@
         <v>489.26</v>
       </c>
       <c r="K44">
-        <f t="shared" si="4"/>
-        <v>780.35023255813951</v>
+        <f t="shared" si="0"/>
+        <v>7.8035023255813956</v>
       </c>
       <c r="L44">
-        <f t="shared" si="5"/>
-        <v>677.10562500000003</v>
+        <f t="shared" si="1"/>
+        <v>6.77105625</v>
       </c>
       <c r="M44">
-        <f t="shared" si="6"/>
-        <v>674.53602179836514</v>
+        <f t="shared" si="2"/>
+        <v>6.7453602179836514</v>
       </c>
       <c r="N44">
-        <f t="shared" si="7"/>
-        <v>684.96399999999994</v>
+        <f t="shared" si="3"/>
+        <v>6.84964</v>
       </c>
     </row>
-    <row r="45" spans="1:14" x14ac:dyDescent="0.2">
+    <row r="45" spans="1:14" x14ac:dyDescent="0.3">
       <c r="A45" s="116">
         <v>2020</v>
       </c>
@@ -43390,23 +43392,23 @@
         <v>462.71</v>
       </c>
       <c r="K45">
-        <f t="shared" si="4"/>
-        <v>507.8554323725055</v>
+        <f t="shared" si="0"/>
+        <v>5.0785543237250552</v>
       </c>
       <c r="L45">
-        <f t="shared" si="5"/>
-        <v>530.42813793103448</v>
+        <f t="shared" si="1"/>
+        <v>5.3042813793103445</v>
       </c>
       <c r="M45">
-        <f t="shared" si="6"/>
-        <v>503.64077753779696</v>
+        <f t="shared" si="2"/>
+        <v>5.0364077753779695</v>
       </c>
       <c r="N45">
-        <f t="shared" si="7"/>
-        <v>511.41631578947363</v>
+        <f t="shared" si="3"/>
+        <v>5.114163157894736</v>
       </c>
     </row>
-    <row r="46" spans="1:14" x14ac:dyDescent="0.2">
+    <row r="46" spans="1:14" x14ac:dyDescent="0.3">
       <c r="A46" s="116">
         <v>2021</v>
       </c>
@@ -43438,23 +43440,23 @@
         <v>443.2</v>
       </c>
       <c r="K46">
-        <f t="shared" si="4"/>
-        <v>660.56869565217391</v>
+        <f t="shared" si="0"/>
+        <v>6.6056869565217395</v>
       </c>
       <c r="L46">
-        <f t="shared" si="5"/>
-        <v>630.9885082872928</v>
+        <f t="shared" si="1"/>
+        <v>6.3098850828729285</v>
       </c>
       <c r="M46">
-        <f t="shared" si="6"/>
-        <v>524.83428571428567</v>
+        <f t="shared" si="2"/>
+        <v>5.2483428571428572</v>
       </c>
       <c r="N46">
-        <f t="shared" si="7"/>
-        <v>493.09668874172183</v>
+        <f t="shared" si="3"/>
+        <v>4.9309668874172186</v>
       </c>
     </row>
-    <row r="47" spans="1:14" x14ac:dyDescent="0.2">
+    <row r="47" spans="1:14" x14ac:dyDescent="0.3">
       <c r="A47" s="116">
         <v>2022</v>
       </c>
@@ -43486,23 +43488,23 @@
         <v>410.41</v>
       </c>
       <c r="K47">
-        <f t="shared" si="4"/>
-        <v>468.87272727272727</v>
+        <f t="shared" si="0"/>
+        <v>4.6887272727272729</v>
       </c>
       <c r="L47">
-        <f t="shared" si="5"/>
-        <v>504.6951724137931</v>
+        <f t="shared" si="1"/>
+        <v>5.0469517241379309</v>
       </c>
       <c r="M47">
-        <f t="shared" si="6"/>
-        <v>504.79708029197076</v>
+        <f t="shared" si="2"/>
+        <v>5.0479708029197079</v>
       </c>
       <c r="N47">
-        <f t="shared" si="7"/>
-        <v>486.69797647058823</v>
+        <f t="shared" si="3"/>
+        <v>4.8669797647058832</v>
       </c>
     </row>
-    <row r="48" spans="1:14" x14ac:dyDescent="0.2">
+    <row r="48" spans="1:14" x14ac:dyDescent="0.3">
       <c r="A48" s="116">
         <v>2024</v>
       </c>
@@ -43534,23 +43536,23 @@
         <v>440.05</v>
       </c>
       <c r="K48">
-        <f t="shared" si="4"/>
-        <v>483.54599999999999</v>
+        <f t="shared" si="0"/>
+        <v>4.8354599999999994</v>
       </c>
       <c r="L48">
-        <f t="shared" si="5"/>
-        <v>466.03826086956525</v>
+        <f t="shared" si="1"/>
+        <v>4.6603826086956524</v>
       </c>
       <c r="M48">
-        <f t="shared" si="6"/>
-        <v>465.4393429158111</v>
+        <f t="shared" si="2"/>
+        <v>4.6543934291581106</v>
       </c>
       <c r="N48">
-        <f t="shared" si="7"/>
-        <v>463.98577405857742</v>
+        <f t="shared" si="3"/>
+        <v>4.6398577405857742</v>
       </c>
     </row>
-    <row r="49" spans="1:14" x14ac:dyDescent="0.2">
+    <row r="49" spans="1:14" x14ac:dyDescent="0.3">
       <c r="A49" s="116">
         <v>2025</v>
       </c>
@@ -43582,23 +43584,23 @@
         <v>545.52</v>
       </c>
       <c r="K49">
-        <f t="shared" si="4"/>
-        <v>613.18923076923079</v>
+        <f t="shared" si="0"/>
+        <v>6.1318923076923069</v>
       </c>
       <c r="L49">
-        <f t="shared" si="5"/>
-        <v>596.14481012658223</v>
+        <f t="shared" si="1"/>
+        <v>5.9614481012658223</v>
       </c>
       <c r="M49">
-        <f t="shared" si="6"/>
-        <v>607.69107692307693</v>
+        <f t="shared" si="2"/>
+        <v>6.0769107692307696</v>
       </c>
       <c r="N49">
-        <f t="shared" si="7"/>
-        <v>591.27329032258069</v>
+        <f t="shared" si="3"/>
+        <v>5.9127329032258062</v>
       </c>
     </row>
-    <row r="50" spans="1:14" x14ac:dyDescent="0.2">
+    <row r="50" spans="1:14" x14ac:dyDescent="0.3">
       <c r="A50" s="116">
         <v>2026</v>
       </c>
@@ -43630,23 +43632,23 @@
         <v>453.93</v>
       </c>
       <c r="K50">
-        <f t="shared" si="4"/>
-        <v>443.38490721649481</v>
+        <f t="shared" si="0"/>
+        <v>4.4338490721649482</v>
       </c>
       <c r="L50">
-        <f t="shared" si="5"/>
-        <v>478.43148387096778</v>
+        <f t="shared" si="1"/>
+        <v>4.7843148387096779</v>
       </c>
       <c r="M50">
-        <f t="shared" si="6"/>
-        <v>494.93017241379312</v>
+        <f t="shared" si="2"/>
+        <v>4.9493017241379311</v>
       </c>
       <c r="N50">
-        <f t="shared" si="7"/>
-        <v>475.63559251559252</v>
+        <f t="shared" si="3"/>
+        <v>4.7563559251559253</v>
       </c>
     </row>
-    <row r="51" spans="1:14" x14ac:dyDescent="0.2">
+    <row r="51" spans="1:14" x14ac:dyDescent="0.3">
       <c r="A51" s="116">
         <v>2027</v>
       </c>
@@ -43678,23 +43680,23 @@
         <v>533.42999999999995</v>
       </c>
       <c r="K51">
-        <f t="shared" si="4"/>
-        <v>543.98188679245288</v>
+        <f t="shared" si="0"/>
+        <v>5.4398188679245285</v>
       </c>
       <c r="L51">
-        <f t="shared" si="5"/>
-        <v>561.92332640332643</v>
+        <f t="shared" si="1"/>
+        <v>5.6192332640332641</v>
       </c>
       <c r="M51">
-        <f t="shared" si="6"/>
-        <v>543.30778242677832</v>
+        <f t="shared" si="2"/>
+        <v>5.4330778242677829</v>
       </c>
       <c r="N51">
-        <f t="shared" si="7"/>
-        <v>556.62260869565216</v>
+        <f t="shared" si="3"/>
+        <v>5.5662260869565214</v>
       </c>
     </row>
-    <row r="52" spans="1:14" x14ac:dyDescent="0.2">
+    <row r="52" spans="1:14" x14ac:dyDescent="0.3">
       <c r="A52" s="116">
         <v>2028</v>
       </c>
@@ -43726,23 +43728,23 @@
         <v>520.08000000000004</v>
       </c>
       <c r="K52">
-        <f t="shared" si="4"/>
-        <v>550.61740206185561</v>
+        <f t="shared" si="0"/>
+        <v>5.5061740206185563</v>
       </c>
       <c r="L52">
-        <f t="shared" si="5"/>
-        <v>571.98638297872344</v>
+        <f t="shared" si="1"/>
+        <v>5.7198638297872337</v>
       </c>
       <c r="M52">
-        <f t="shared" si="6"/>
-        <v>581.76461538461535</v>
+        <f t="shared" si="2"/>
+        <v>5.8176461538461544</v>
       </c>
       <c r="N52">
-        <f t="shared" si="7"/>
-        <v>578.63205298013258</v>
+        <f t="shared" si="3"/>
+        <v>5.7863205298013254</v>
       </c>
     </row>
-    <row r="53" spans="1:14" x14ac:dyDescent="0.2">
+    <row r="53" spans="1:14" x14ac:dyDescent="0.3">
       <c r="A53" s="116">
         <v>2029</v>
       </c>
@@ -43774,23 +43776,23 @@
         <v>472.34</v>
       </c>
       <c r="K53">
-        <f t="shared" si="4"/>
-        <v>483.2287659574468</v>
+        <f t="shared" si="0"/>
+        <v>4.8322876595744679</v>
       </c>
       <c r="L53">
-        <f t="shared" si="5"/>
-        <v>543.93853211009173</v>
+        <f t="shared" si="1"/>
+        <v>5.439385321100918</v>
       </c>
       <c r="M53">
-        <f t="shared" si="6"/>
-        <v>530.73589164785551</v>
+        <f t="shared" si="2"/>
+        <v>5.307358916478556</v>
       </c>
       <c r="N53">
-        <f t="shared" si="7"/>
-        <v>560.13967058823528</v>
+        <f t="shared" si="3"/>
+        <v>5.6013967058823528</v>
       </c>
     </row>
-    <row r="54" spans="1:14" x14ac:dyDescent="0.2">
+    <row r="54" spans="1:14" x14ac:dyDescent="0.3">
       <c r="A54" s="116">
         <v>2030</v>
       </c>
@@ -43822,23 +43824,23 @@
         <v>481.7</v>
       </c>
       <c r="K54">
-        <f t="shared" si="4"/>
-        <v>500.24955223880596</v>
+        <f t="shared" si="0"/>
+        <v>5.0024955223880596</v>
       </c>
       <c r="L54">
-        <f t="shared" si="5"/>
-        <v>517.53413793103448</v>
+        <f t="shared" si="1"/>
+        <v>5.1753413793103444</v>
       </c>
       <c r="M54">
-        <f t="shared" si="6"/>
-        <v>520.1324017467249</v>
+        <f t="shared" si="2"/>
+        <v>5.2013240174672495</v>
       </c>
       <c r="N54">
-        <f t="shared" si="7"/>
-        <v>532.40526315789475</v>
+        <f t="shared" si="3"/>
+        <v>5.3240526315789465</v>
       </c>
     </row>
-    <row r="55" spans="1:14" x14ac:dyDescent="0.2">
+    <row r="55" spans="1:14" x14ac:dyDescent="0.3">
       <c r="A55" s="116">
         <v>2032</v>
       </c>
@@ -43870,23 +43872,23 @@
         <v>488.02</v>
       </c>
       <c r="K55">
-        <f t="shared" si="4"/>
-        <v>496.27758835758834</v>
+        <f t="shared" si="0"/>
+        <v>4.9627758835758833</v>
       </c>
       <c r="L55">
-        <f t="shared" si="5"/>
-        <v>514.443821656051</v>
+        <f t="shared" si="1"/>
+        <v>5.14443821656051</v>
       </c>
       <c r="M55">
-        <f t="shared" si="6"/>
-        <v>517.19230769230762</v>
+        <f t="shared" si="2"/>
+        <v>5.1719230769230764</v>
       </c>
       <c r="N55">
-        <f t="shared" si="7"/>
-        <v>532.38545454545454</v>
+        <f t="shared" si="3"/>
+        <v>5.3238545454545454</v>
       </c>
     </row>
-    <row r="56" spans="1:14" x14ac:dyDescent="0.2">
+    <row r="56" spans="1:14" x14ac:dyDescent="0.3">
       <c r="A56" s="116">
         <v>2033</v>
       </c>
@@ -43918,23 +43920,23 @@
         <v>421.26</v>
       </c>
       <c r="K56">
-        <f t="shared" si="4"/>
-        <v>460.03764705882355</v>
+        <f t="shared" si="0"/>
+        <v>4.6003764705882357</v>
       </c>
       <c r="L56">
-        <f t="shared" si="5"/>
-        <v>434.91176470588238</v>
+        <f t="shared" si="1"/>
+        <v>4.349117647058824</v>
       </c>
       <c r="M56">
-        <f t="shared" si="6"/>
-        <v>464.48769230769227</v>
+        <f t="shared" si="2"/>
+        <v>4.6448769230769225</v>
       </c>
       <c r="N56">
-        <f t="shared" si="7"/>
-        <v>452.69731343283581</v>
+        <f t="shared" si="3"/>
+        <v>4.5269731343283581</v>
       </c>
     </row>
-    <row r="57" spans="1:14" x14ac:dyDescent="0.2">
+    <row r="57" spans="1:14" x14ac:dyDescent="0.3">
       <c r="A57" s="116">
         <v>2034</v>
       </c>
@@ -43966,23 +43968,23 @@
         <v>449.77</v>
       </c>
       <c r="K57">
-        <f t="shared" si="4"/>
-        <v>418.44495867768592</v>
+        <f t="shared" si="0"/>
+        <v>4.184449586776859</v>
       </c>
       <c r="L57">
-        <f t="shared" si="5"/>
-        <v>484.15570469798661</v>
+        <f t="shared" si="1"/>
+        <v>4.8415570469798652</v>
       </c>
       <c r="M57">
-        <f t="shared" si="6"/>
-        <v>506.20500000000004</v>
+        <f t="shared" si="2"/>
+        <v>5.0620500000000002</v>
       </c>
       <c r="N57">
-        <f t="shared" si="7"/>
-        <v>516.36464692482912</v>
+        <f t="shared" si="3"/>
+        <v>5.1636464692482908</v>
       </c>
     </row>
-    <row r="58" spans="1:14" x14ac:dyDescent="0.2">
+    <row r="58" spans="1:14" x14ac:dyDescent="0.3">
       <c r="A58" s="116">
         <v>2036</v>
       </c>
@@ -44014,23 +44016,23 @@
         <v>469.37</v>
       </c>
       <c r="K58">
-        <f t="shared" si="4"/>
-        <v>538.796862745098</v>
+        <f t="shared" si="0"/>
+        <v>5.3879686274509808</v>
       </c>
       <c r="L58">
-        <f t="shared" si="5"/>
-        <v>529.50479481641469</v>
+        <f t="shared" si="1"/>
+        <v>5.2950479481641466</v>
       </c>
       <c r="M58">
-        <f t="shared" si="6"/>
-        <v>551.58724373576308</v>
+        <f t="shared" si="2"/>
+        <v>5.5158724373576309</v>
       </c>
       <c r="N58">
-        <f t="shared" si="7"/>
-        <v>518.77736842105264</v>
+        <f t="shared" si="3"/>
+        <v>5.1877736842105264</v>
       </c>
     </row>
-    <row r="59" spans="1:14" x14ac:dyDescent="0.2">
+    <row r="59" spans="1:14" x14ac:dyDescent="0.3">
       <c r="A59" s="116">
         <v>2037</v>
       </c>
@@ -44062,23 +44064,23 @@
         <v>437.51</v>
       </c>
       <c r="K59">
-        <f t="shared" si="4"/>
-        <v>631.25643059490085</v>
+        <f t="shared" si="0"/>
+        <v>6.3125643059490075</v>
       </c>
       <c r="L59">
-        <f t="shared" si="5"/>
-        <v>603.42545454545461</v>
+        <f t="shared" si="1"/>
+        <v>6.0342545454545462</v>
       </c>
       <c r="M59">
-        <f t="shared" si="6"/>
-        <v>625.07389830508475</v>
+        <f t="shared" si="2"/>
+        <v>6.2507389830508471</v>
       </c>
       <c r="N59">
-        <f t="shared" si="7"/>
-        <v>622.89559322033892</v>
+        <f t="shared" si="3"/>
+        <v>6.2289559322033892</v>
       </c>
     </row>
-    <row r="60" spans="1:14" x14ac:dyDescent="0.2">
+    <row r="60" spans="1:14" x14ac:dyDescent="0.3">
       <c r="A60" s="116">
         <v>2038</v>
       </c>
@@ -44110,23 +44112,23 @@
         <v>382.23</v>
       </c>
       <c r="K60">
-        <f t="shared" si="4"/>
-        <v>399.28</v>
+        <f t="shared" si="0"/>
+        <v>3.9927999999999999</v>
       </c>
       <c r="L60">
-        <f t="shared" si="5"/>
-        <v>408.04941176470589</v>
+        <f t="shared" si="1"/>
+        <v>4.080494117647059</v>
       </c>
       <c r="M60">
-        <f t="shared" si="6"/>
-        <v>402.17333333333335</v>
+        <f t="shared" si="2"/>
+        <v>4.0217333333333336</v>
       </c>
       <c r="N60">
-        <f t="shared" si="7"/>
-        <v>398.84869565217394</v>
+        <f t="shared" si="3"/>
+        <v>3.9884869565217396</v>
       </c>
     </row>
-    <row r="61" spans="1:14" x14ac:dyDescent="0.2">
+    <row r="61" spans="1:14" x14ac:dyDescent="0.3">
       <c r="A61" s="116">
         <v>2039</v>
       </c>
@@ -44158,23 +44160,23 @@
         <v>442.1</v>
       </c>
       <c r="K61">
-        <f t="shared" si="4"/>
-        <v>470.589</v>
+        <f t="shared" si="0"/>
+        <v>4.7058900000000001</v>
       </c>
       <c r="L61">
-        <f t="shared" si="5"/>
-        <v>494.34185022026435</v>
+        <f t="shared" si="1"/>
+        <v>4.9434185022026433</v>
       </c>
       <c r="M61">
-        <f t="shared" si="6"/>
-        <v>485.86034482758623</v>
+        <f t="shared" si="2"/>
+        <v>4.8586034482758622</v>
       </c>
       <c r="N61">
-        <f t="shared" si="7"/>
-        <v>482.29090909090905</v>
+        <f t="shared" si="3"/>
+        <v>4.822909090909091</v>
       </c>
     </row>
-    <row r="62" spans="1:14" x14ac:dyDescent="0.2">
+    <row r="62" spans="1:14" x14ac:dyDescent="0.3">
       <c r="A62" s="116">
         <v>2040</v>
       </c>
@@ -44206,23 +44208,23 @@
         <v>504.39</v>
       </c>
       <c r="K62">
-        <f t="shared" si="4"/>
-        <v>519.71357601713055</v>
+        <f t="shared" si="0"/>
+        <v>5.1971357601713057</v>
       </c>
       <c r="L62">
-        <f t="shared" si="5"/>
-        <v>542.15213973799132</v>
+        <f t="shared" si="1"/>
+        <v>5.4215213973799132</v>
       </c>
       <c r="M62">
-        <f t="shared" si="6"/>
-        <v>561.55105263157895</v>
+        <f t="shared" si="2"/>
+        <v>5.6155105263157887</v>
       </c>
       <c r="N62">
-        <f t="shared" si="7"/>
-        <v>558.70892307692316</v>
+        <f t="shared" si="3"/>
+        <v>5.587089230769231</v>
       </c>
     </row>
-    <row r="63" spans="1:14" x14ac:dyDescent="0.2">
+    <row r="63" spans="1:14" x14ac:dyDescent="0.3">
       <c r="A63" s="116">
         <v>2041</v>
       </c>
@@ -44254,20 +44256,20 @@
         <v>556.32000000000005</v>
       </c>
       <c r="K63">
-        <f t="shared" si="4"/>
-        <v>631.53440000000001</v>
+        <f t="shared" si="0"/>
+        <v>6.3153439999999996</v>
       </c>
       <c r="L63">
-        <f t="shared" si="5"/>
-        <v>640.44488687782803</v>
+        <f t="shared" si="1"/>
+        <v>6.4044488687782808</v>
       </c>
       <c r="M63">
-        <f t="shared" si="6"/>
-        <v>621.64180995475101</v>
+        <f t="shared" si="2"/>
+        <v>6.2164180995475107</v>
       </c>
       <c r="N63">
-        <f t="shared" si="7"/>
-        <v>695.74511166253114</v>
+        <f t="shared" si="3"/>
+        <v>6.957451116625311</v>
       </c>
     </row>
   </sheetData>
@@ -44283,9 +44285,9 @@
       <selection activeCell="AV1" sqref="AV1"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="8.77734375" defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <sheetData>
-    <row r="1" spans="1:186" ht="16" thickBot="1" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:186" ht="15" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A1" s="24" t="s">
         <v>0</v>
       </c>
@@ -44831,7 +44833,7 @@
         <v>563</v>
       </c>
     </row>
-    <row r="2" spans="1:186" ht="17" x14ac:dyDescent="0.2">
+    <row r="2" spans="1:186" ht="17.399999999999999" x14ac:dyDescent="0.35">
       <c r="A2" s="28" t="s">
         <v>187</v>
       </c>
@@ -45259,7 +45261,7 @@
         <v>360.81865030674851</v>
       </c>
     </row>
-    <row r="3" spans="1:186" x14ac:dyDescent="0.2">
+    <row r="3" spans="1:186" x14ac:dyDescent="0.3">
       <c r="A3" s="28" t="s">
         <v>187</v>
       </c>
@@ -45675,7 +45677,7 @@
         <v>463.98124137931035</v>
       </c>
     </row>
-    <row r="4" spans="1:186" x14ac:dyDescent="0.2">
+    <row r="4" spans="1:186" x14ac:dyDescent="0.3">
       <c r="A4" s="28" t="s">
         <v>187</v>
       </c>
@@ -46113,7 +46115,7 @@
         <v>458.22834437086095</v>
       </c>
     </row>
-    <row r="5" spans="1:186" x14ac:dyDescent="0.2">
+    <row r="5" spans="1:186" x14ac:dyDescent="0.3">
       <c r="A5" s="28" t="s">
         <v>187</v>
       </c>
@@ -46545,7 +46547,7 @@
         <v>494.03376975169306</v>
       </c>
     </row>
-    <row r="6" spans="1:186" x14ac:dyDescent="0.2">
+    <row r="6" spans="1:186" x14ac:dyDescent="0.3">
       <c r="A6" s="28" t="s">
         <v>187</v>
       </c>
@@ -47001,7 +47003,7 @@
         <v>495.27692307692308</v>
       </c>
     </row>
-    <row r="7" spans="1:186" x14ac:dyDescent="0.2">
+    <row r="7" spans="1:186" x14ac:dyDescent="0.3">
       <c r="A7" s="28" t="s">
         <v>271</v>
       </c>
@@ -47431,7 +47433,7 @@
         <v>472.86926174496642</v>
       </c>
     </row>
-    <row r="8" spans="1:186" x14ac:dyDescent="0.2">
+    <row r="8" spans="1:186" x14ac:dyDescent="0.3">
       <c r="A8" s="28" t="s">
         <v>271</v>
       </c>
@@ -47871,7 +47873,7 @@
         <v>432.96197938144326</v>
       </c>
     </row>
-    <row r="9" spans="1:186" x14ac:dyDescent="0.2">
+    <row r="9" spans="1:186" x14ac:dyDescent="0.3">
       <c r="A9" s="28"/>
       <c r="B9" s="29">
         <v>1029</v>
@@ -48321,7 +48323,7 @@
         <v>923.44356687898096</v>
       </c>
     </row>
-    <row r="10" spans="1:186" x14ac:dyDescent="0.2">
+    <row r="10" spans="1:186" x14ac:dyDescent="0.3">
       <c r="A10" s="28"/>
       <c r="B10" s="29">
         <v>1030</v>
@@ -48773,7 +48775,7 @@
         <v>485.35087248322151</v>
       </c>
     </row>
-    <row r="11" spans="1:186" x14ac:dyDescent="0.2">
+    <row r="11" spans="1:186" x14ac:dyDescent="0.3">
       <c r="A11" s="28"/>
       <c r="B11" s="29">
         <v>2003</v>
@@ -49235,7 +49237,7 @@
         <v>483.79489932885906</v>
       </c>
     </row>
-    <row r="12" spans="1:186" x14ac:dyDescent="0.2">
+    <row r="12" spans="1:186" x14ac:dyDescent="0.3">
       <c r="A12" s="28"/>
       <c r="B12" s="29">
         <v>2004</v>
@@ -49659,7 +49661,7 @@
         <v>517.9759509202454</v>
       </c>
     </row>
-    <row r="13" spans="1:186" x14ac:dyDescent="0.2">
+    <row r="13" spans="1:186" x14ac:dyDescent="0.3">
       <c r="A13" s="28"/>
       <c r="B13" s="29">
         <v>2009</v>
@@ -50117,7 +50119,7 @@
         <v>522.50210526315789</v>
       </c>
     </row>
-    <row r="14" spans="1:186" x14ac:dyDescent="0.2">
+    <row r="14" spans="1:186" x14ac:dyDescent="0.3">
       <c r="A14" s="28"/>
       <c r="B14" s="29">
         <v>2013</v>
@@ -50569,7 +50571,7 @@
         <v>470.46208695652177</v>
       </c>
     </row>
-    <row r="15" spans="1:186" x14ac:dyDescent="0.2">
+    <row r="15" spans="1:186" x14ac:dyDescent="0.3">
       <c r="A15" s="28"/>
       <c r="B15" s="29">
         <v>2018</v>
@@ -50977,7 +50979,7 @@
         <v>498.45369863013701</v>
       </c>
     </row>
-    <row r="16" spans="1:186" x14ac:dyDescent="0.2">
+    <row r="16" spans="1:186" x14ac:dyDescent="0.3">
       <c r="A16" s="28"/>
       <c r="B16" s="29">
         <v>2019</v>
@@ -51409,7 +51411,7 @@
         <v>684.96399999999994</v>
       </c>
     </row>
-    <row r="17" spans="1:186" x14ac:dyDescent="0.2">
+    <row r="17" spans="1:186" x14ac:dyDescent="0.3">
       <c r="A17" s="28"/>
       <c r="B17" s="29">
         <v>2024</v>
@@ -51843,7 +51845,7 @@
         <v>463.98577405857742</v>
       </c>
     </row>
-    <row r="18" spans="1:186" x14ac:dyDescent="0.2">
+    <row r="18" spans="1:186" x14ac:dyDescent="0.3">
       <c r="A18" s="28"/>
       <c r="B18" s="29">
         <v>2026</v>
@@ -52293,7 +52295,7 @@
         <v>475.63559251559252</v>
       </c>
     </row>
-    <row r="19" spans="1:186" x14ac:dyDescent="0.2">
+    <row r="19" spans="1:186" x14ac:dyDescent="0.3">
       <c r="A19" s="28" t="s">
         <v>522</v>
       </c>
@@ -52723,7 +52725,7 @@
         <v>560.13967058823528</v>
       </c>
     </row>
-    <row r="20" spans="1:186" x14ac:dyDescent="0.2">
+    <row r="20" spans="1:186" x14ac:dyDescent="0.3">
       <c r="A20" s="28" t="s">
         <v>522</v>
       </c>
@@ -53157,7 +53159,7 @@
         <v>452.69731343283581</v>
       </c>
     </row>
-    <row r="21" spans="1:186" x14ac:dyDescent="0.2">
+    <row r="21" spans="1:186" x14ac:dyDescent="0.3">
       <c r="A21" s="28" t="s">
         <v>522</v>
       </c>
@@ -53681,9 +53683,9 @@
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="8.77734375" defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <sheetData>
-    <row r="1" spans="1:186" x14ac:dyDescent="0.2">
+    <row r="1" spans="1:186" x14ac:dyDescent="0.3">
       <c r="A1" s="24" t="s">
         <v>0</v>
       </c>
@@ -54229,7 +54231,7 @@
         <v>563</v>
       </c>
     </row>
-    <row r="2" spans="1:186" x14ac:dyDescent="0.2">
+    <row r="2" spans="1:186" x14ac:dyDescent="0.3">
       <c r="A2" s="28" t="s">
         <v>187</v>
       </c>
@@ -54655,7 +54657,7 @@
         <v>545.16401913875598</v>
       </c>
     </row>
-    <row r="3" spans="1:186" x14ac:dyDescent="0.2">
+    <row r="3" spans="1:186" x14ac:dyDescent="0.3">
       <c r="A3" s="28" t="s">
         <v>187</v>
       </c>
@@ -55093,7 +55095,7 @@
         <v>479.62762105263158</v>
       </c>
     </row>
-    <row r="4" spans="1:186" x14ac:dyDescent="0.2">
+    <row r="4" spans="1:186" x14ac:dyDescent="0.3">
       <c r="A4" s="28" t="s">
         <v>187</v>
       </c>
@@ -55527,7 +55529,7 @@
         <v>508.52100686498858</v>
       </c>
     </row>
-    <row r="5" spans="1:186" x14ac:dyDescent="0.2">
+    <row r="5" spans="1:186" x14ac:dyDescent="0.3">
       <c r="A5" s="73" t="s">
         <v>271</v>
       </c>
@@ -55969,7 +55971,7 @@
         <v>532.19211678832119</v>
       </c>
     </row>
-    <row r="6" spans="1:186" x14ac:dyDescent="0.2">
+    <row r="6" spans="1:186" x14ac:dyDescent="0.3">
       <c r="A6" s="28" t="s">
         <v>271</v>
       </c>
@@ -56419,7 +56421,7 @@
         <v>597.65895781637721</v>
       </c>
     </row>
-    <row r="7" spans="1:186" x14ac:dyDescent="0.2">
+    <row r="7" spans="1:186" x14ac:dyDescent="0.3">
       <c r="A7" s="28" t="s">
         <v>271</v>
       </c>
@@ -56839,7 +56841,7 @@
         <v>498.68228571428568</v>
       </c>
     </row>
-    <row r="8" spans="1:186" x14ac:dyDescent="0.2">
+    <row r="8" spans="1:186" x14ac:dyDescent="0.3">
       <c r="A8" s="28" t="s">
         <v>271</v>
       </c>
@@ -57281,7 +57283,7 @@
         <v>539.25769911504426</v>
       </c>
     </row>
-    <row r="9" spans="1:186" x14ac:dyDescent="0.2">
+    <row r="9" spans="1:186" x14ac:dyDescent="0.3">
       <c r="A9" s="28"/>
       <c r="B9" s="29">
         <v>2001</v>
@@ -57735,7 +57737,7 @@
         <v>462.86709677419356</v>
       </c>
     </row>
-    <row r="10" spans="1:186" x14ac:dyDescent="0.2">
+    <row r="10" spans="1:186" x14ac:dyDescent="0.3">
       <c r="A10" s="28"/>
       <c r="B10" s="29">
         <v>2002</v>
@@ -58177,7 +58179,7 @@
         <v>483.41468354430378</v>
       </c>
     </row>
-    <row r="11" spans="1:186" x14ac:dyDescent="0.2">
+    <row r="11" spans="1:186" x14ac:dyDescent="0.3">
       <c r="A11" s="28"/>
       <c r="B11" s="29">
         <v>2007</v>
@@ -58625,7 +58627,7 @@
         <v>595.58110552763821</v>
       </c>
     </row>
-    <row r="12" spans="1:186" x14ac:dyDescent="0.2">
+    <row r="12" spans="1:186" x14ac:dyDescent="0.3">
       <c r="A12" s="28"/>
       <c r="B12" s="29">
         <v>2014</v>
@@ -59067,7 +59069,7 @@
         <v>552.26935622317603</v>
       </c>
     </row>
-    <row r="13" spans="1:186" x14ac:dyDescent="0.2">
+    <row r="13" spans="1:186" x14ac:dyDescent="0.3">
       <c r="A13" s="28"/>
       <c r="B13" s="29">
         <v>2015</v>
@@ -59491,7 +59493,7 @@
         <v>563.01146853146849</v>
       </c>
     </row>
-    <row r="14" spans="1:186" x14ac:dyDescent="0.2">
+    <row r="14" spans="1:186" x14ac:dyDescent="0.3">
       <c r="A14" s="28"/>
       <c r="B14" s="29">
         <v>2017</v>
@@ -59871,7 +59873,7 @@
         <v>469.51636363636362</v>
       </c>
     </row>
-    <row r="15" spans="1:186" x14ac:dyDescent="0.2">
+    <row r="15" spans="1:186" x14ac:dyDescent="0.3">
       <c r="A15" s="28"/>
       <c r="B15" s="29">
         <v>2020</v>
@@ -60315,7 +60317,7 @@
         <v>511.41631578947363</v>
       </c>
     </row>
-    <row r="16" spans="1:186" x14ac:dyDescent="0.2">
+    <row r="16" spans="1:186" x14ac:dyDescent="0.3">
       <c r="A16" s="28"/>
       <c r="B16" s="29">
         <v>2021</v>
@@ -60753,7 +60755,7 @@
         <v>493.09668874172183</v>
       </c>
     </row>
-    <row r="17" spans="1:186" x14ac:dyDescent="0.2">
+    <row r="17" spans="1:186" x14ac:dyDescent="0.3">
       <c r="A17" s="28"/>
       <c r="B17" s="29">
         <v>2022</v>
@@ -61145,7 +61147,7 @@
         <v>486.69797647058823</v>
       </c>
     </row>
-    <row r="18" spans="1:186" x14ac:dyDescent="0.2">
+    <row r="18" spans="1:186" x14ac:dyDescent="0.3">
       <c r="A18" s="28"/>
       <c r="B18" s="29">
         <v>2025</v>
@@ -61585,7 +61587,7 @@
         <v>591.27329032258069</v>
       </c>
     </row>
-    <row r="19" spans="1:186" x14ac:dyDescent="0.2">
+    <row r="19" spans="1:186" x14ac:dyDescent="0.3">
       <c r="A19" s="28" t="s">
         <v>522</v>
       </c>
@@ -62027,7 +62029,7 @@
         <v>578.63205298013258</v>
       </c>
     </row>
-    <row r="20" spans="1:186" x14ac:dyDescent="0.2">
+    <row r="20" spans="1:186" x14ac:dyDescent="0.3">
       <c r="A20" s="28" t="s">
         <v>522</v>
       </c>
@@ -62487,7 +62489,7 @@
         <v>532.40526315789475</v>
       </c>
     </row>
-    <row r="21" spans="1:186" x14ac:dyDescent="0.2">
+    <row r="21" spans="1:186" x14ac:dyDescent="0.3">
       <c r="A21" s="28" t="s">
         <v>522</v>
       </c>
@@ -62949,7 +62951,7 @@
         <v>398.84869565217394</v>
       </c>
     </row>
-    <row r="22" spans="1:186" x14ac:dyDescent="0.2">
+    <row r="22" spans="1:186" x14ac:dyDescent="0.3">
       <c r="A22" s="28"/>
       <c r="B22" s="29">
         <v>2039</v>
@@ -63351,7 +63353,7 @@
         <v>558.70892307692316</v>
       </c>
     </row>
-    <row r="23" spans="1:186" x14ac:dyDescent="0.2">
+    <row r="23" spans="1:186" x14ac:dyDescent="0.3">
       <c r="A23" s="28" t="s">
         <v>522</v>
       </c>
@@ -63863,21 +63865,21 @@
       <selection sqref="A1:C1"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultColWidth="11.5" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="11.44140625" defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <cols>
-    <col min="1" max="1" width="14.1640625" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="74.5" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="14.109375" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="74.44140625" bestFit="1" customWidth="1"/>
     <col min="3" max="3" width="40" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:3" ht="19" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:3" ht="18" x14ac:dyDescent="0.35">
       <c r="A1" s="130" t="s">
         <v>91</v>
       </c>
       <c r="B1" s="131"/>
       <c r="C1" s="132"/>
     </row>
-    <row r="2" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="2" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A2" s="11" t="s">
         <v>91</v>
       </c>
@@ -63886,7 +63888,7 @@
         <v>92</v>
       </c>
     </row>
-    <row r="3" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="3" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A3" s="11" t="s">
         <v>93</v>
       </c>
@@ -63897,7 +63899,7 @@
         <v>95</v>
       </c>
     </row>
-    <row r="4" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="4" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A4" s="4" t="s">
         <v>6</v>
       </c>
@@ -63908,7 +63910,7 @@
         <v>97</v>
       </c>
     </row>
-    <row r="5" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="5" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A5" s="4" t="s">
         <v>14</v>
       </c>
@@ -63917,7 +63919,7 @@
       </c>
       <c r="C5" s="2"/>
     </row>
-    <row r="6" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="6" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A6" s="4" t="s">
         <v>15</v>
       </c>
@@ -63926,7 +63928,7 @@
       </c>
       <c r="C6" s="2"/>
     </row>
-    <row r="7" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="7" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A7" s="5" t="s">
         <v>18</v>
       </c>
@@ -63935,7 +63937,7 @@
       </c>
       <c r="C7" s="2"/>
     </row>
-    <row r="8" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="8" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A8" s="5" t="s">
         <v>16</v>
       </c>
@@ -63944,7 +63946,7 @@
       </c>
       <c r="C8" s="2"/>
     </row>
-    <row r="9" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="9" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A9" s="1" t="s">
         <v>17</v>
       </c>
@@ -63953,7 +63955,7 @@
       </c>
       <c r="C9" s="2"/>
     </row>
-    <row r="10" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="10" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A10" s="1" t="s">
         <v>19</v>
       </c>
@@ -63962,7 +63964,7 @@
       </c>
       <c r="C10" s="2"/>
     </row>
-    <row r="11" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="11" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A11" s="5" t="s">
         <v>20</v>
       </c>
@@ -63973,7 +63975,7 @@
         <v>181</v>
       </c>
     </row>
-    <row r="12" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="12" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A12" s="5" t="s">
         <v>21</v>
       </c>
@@ -63984,7 +63986,7 @@
         <v>181</v>
       </c>
     </row>
-    <row r="13" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="13" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A13" s="5" t="s">
         <v>22</v>
       </c>
@@ -63993,7 +63995,7 @@
       </c>
       <c r="C13" s="2"/>
     </row>
-    <row r="14" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="14" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A14" s="5" t="s">
         <v>23</v>
       </c>
@@ -64004,7 +64006,7 @@
         <v>181</v>
       </c>
     </row>
-    <row r="15" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="15" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A15" s="5" t="s">
         <v>24</v>
       </c>
@@ -64013,7 +64015,7 @@
       </c>
       <c r="C15" s="2"/>
     </row>
-    <row r="16" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="16" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A16" s="5" t="s">
         <v>25</v>
       </c>
@@ -64024,7 +64026,7 @@
         <v>181</v>
       </c>
     </row>
-    <row r="17" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="17" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A17" s="5" t="s">
         <v>26</v>
       </c>
@@ -64033,7 +64035,7 @@
       </c>
       <c r="C17" s="2"/>
     </row>
-    <row r="18" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="18" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A18" s="5" t="s">
         <v>27</v>
       </c>
@@ -64044,7 +64046,7 @@
         <v>181</v>
       </c>
     </row>
-    <row r="19" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="19" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A19" s="5" t="s">
         <v>28</v>
       </c>
@@ -64053,7 +64055,7 @@
       </c>
       <c r="C19" s="2"/>
     </row>
-    <row r="20" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="20" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A20" s="5" t="s">
         <v>29</v>
       </c>
@@ -64064,7 +64066,7 @@
         <v>181</v>
       </c>
     </row>
-    <row r="21" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="21" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A21" s="5" t="s">
         <v>30</v>
       </c>
@@ -64073,7 +64075,7 @@
       </c>
       <c r="C21" s="2"/>
     </row>
-    <row r="22" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="22" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A22" s="5" t="s">
         <v>31</v>
       </c>
@@ -64084,7 +64086,7 @@
         <v>181</v>
       </c>
     </row>
-    <row r="23" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="23" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A23" s="5" t="s">
         <v>32</v>
       </c>
@@ -64093,7 +64095,7 @@
       </c>
       <c r="C23" s="2"/>
     </row>
-    <row r="24" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="24" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A24" s="5" t="s">
         <v>33</v>
       </c>
@@ -64104,7 +64106,7 @@
         <v>118</v>
       </c>
     </row>
-    <row r="25" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="25" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A25" s="5" t="s">
         <v>35</v>
       </c>
@@ -64115,7 +64117,7 @@
         <v>181</v>
       </c>
     </row>
-    <row r="26" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="26" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A26" s="5" t="s">
         <v>36</v>
       </c>
@@ -64124,7 +64126,7 @@
       </c>
       <c r="C26" s="2"/>
     </row>
-    <row r="27" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="27" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A27" s="5" t="s">
         <v>37</v>
       </c>
@@ -64135,7 +64137,7 @@
         <v>181</v>
       </c>
     </row>
-    <row r="28" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="28" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A28" s="5" t="s">
         <v>38</v>
       </c>
@@ -64144,7 +64146,7 @@
       </c>
       <c r="C28" s="2"/>
     </row>
-    <row r="29" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="29" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A29" s="5" t="s">
         <v>39</v>
       </c>
@@ -64155,7 +64157,7 @@
         <v>181</v>
       </c>
     </row>
-    <row r="30" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="30" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A30" s="5" t="s">
         <v>40</v>
       </c>
@@ -64164,7 +64166,7 @@
       </c>
       <c r="C30" s="2"/>
     </row>
-    <row r="31" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="31" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A31" s="5" t="s">
         <v>41</v>
       </c>
@@ -64175,7 +64177,7 @@
         <v>181</v>
       </c>
     </row>
-    <row r="32" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="32" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A32" s="5" t="s">
         <v>42</v>
       </c>
@@ -64184,7 +64186,7 @@
       </c>
       <c r="C32" s="2"/>
     </row>
-    <row r="33" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="33" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A33" s="5" t="s">
         <v>43</v>
       </c>
@@ -64195,7 +64197,7 @@
         <v>181</v>
       </c>
     </row>
-    <row r="34" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="34" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A34" s="5" t="s">
         <v>44</v>
       </c>
@@ -64204,7 +64206,7 @@
       </c>
       <c r="C34" s="2"/>
     </row>
-    <row r="35" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="35" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A35" s="5" t="s">
         <v>45</v>
       </c>
@@ -64215,7 +64217,7 @@
         <v>181</v>
       </c>
     </row>
-    <row r="36" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="36" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A36" s="5" t="s">
         <v>46</v>
       </c>
@@ -64224,7 +64226,7 @@
       </c>
       <c r="C36" s="2"/>
     </row>
-    <row r="37" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="37" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A37" s="5" t="s">
         <v>47</v>
       </c>
@@ -64235,7 +64237,7 @@
         <v>181</v>
       </c>
     </row>
-    <row r="38" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="38" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A38" s="5" t="s">
         <v>48</v>
       </c>
@@ -64244,7 +64246,7 @@
       </c>
       <c r="C38" s="2"/>
     </row>
-    <row r="39" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="39" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A39" s="5" t="s">
         <v>49</v>
       </c>
@@ -64255,7 +64257,7 @@
         <v>181</v>
       </c>
     </row>
-    <row r="40" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="40" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A40" s="5" t="s">
         <v>50</v>
       </c>
@@ -64264,7 +64266,7 @@
       </c>
       <c r="C40" s="2"/>
     </row>
-    <row r="41" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="41" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A41" s="5" t="s">
         <v>51</v>
       </c>
@@ -64275,7 +64277,7 @@
         <v>181</v>
       </c>
     </row>
-    <row r="42" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="42" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A42" s="5" t="s">
         <v>52</v>
       </c>
@@ -64284,7 +64286,7 @@
       </c>
       <c r="C42" s="2"/>
     </row>
-    <row r="43" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="43" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A43" s="5" t="s">
         <v>53</v>
       </c>
@@ -64295,7 +64297,7 @@
         <v>181</v>
       </c>
     </row>
-    <row r="44" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="44" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A44" s="5" t="s">
         <v>54</v>
       </c>
@@ -64304,7 +64306,7 @@
       </c>
       <c r="C44" s="2"/>
     </row>
-    <row r="45" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="45" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A45" s="5" t="s">
         <v>55</v>
       </c>
@@ -64315,7 +64317,7 @@
         <v>140</v>
       </c>
     </row>
-    <row r="46" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="46" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A46" s="5" t="s">
         <v>141</v>
       </c>
@@ -64326,7 +64328,7 @@
         <v>140</v>
       </c>
     </row>
-    <row r="47" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="47" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A47" s="5" t="s">
         <v>57</v>
       </c>
@@ -64335,7 +64337,7 @@
       </c>
       <c r="C47" s="2"/>
     </row>
-    <row r="48" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="48" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A48" s="5" t="s">
         <v>144</v>
       </c>
@@ -64344,7 +64346,7 @@
       </c>
       <c r="C48" s="2"/>
     </row>
-    <row r="49" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="49" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A49" s="5" t="s">
         <v>59</v>
       </c>
@@ -64355,7 +64357,7 @@
         <v>147</v>
       </c>
     </row>
-    <row r="50" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="50" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A50" s="5" t="s">
         <v>60</v>
       </c>
@@ -64366,7 +64368,7 @@
         <v>147</v>
       </c>
     </row>
-    <row r="51" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="51" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A51" s="5" t="s">
         <v>61</v>
       </c>
@@ -64375,7 +64377,7 @@
       </c>
       <c r="C51" s="2"/>
     </row>
-    <row r="52" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="52" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A52" s="5" t="s">
         <v>149</v>
       </c>
@@ -64384,7 +64386,7 @@
       </c>
       <c r="C52" s="2"/>
     </row>
-    <row r="53" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="53" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A53" s="1" t="s">
         <v>63</v>
       </c>
@@ -64393,7 +64395,7 @@
       </c>
       <c r="C53" s="2"/>
     </row>
-    <row r="54" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="54" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A54" s="1" t="s">
         <v>64</v>
       </c>
@@ -64402,7 +64404,7 @@
       </c>
       <c r="C54" s="2"/>
     </row>
-    <row r="55" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="55" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A55" s="3" t="s">
         <v>65</v>
       </c>
@@ -64411,7 +64413,7 @@
       </c>
       <c r="C55" s="2"/>
     </row>
-    <row r="56" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="56" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A56" s="1" t="s">
         <v>66</v>
       </c>
@@ -64420,7 +64422,7 @@
       </c>
       <c r="C56" s="2"/>
     </row>
-    <row r="57" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="57" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A57" s="1" t="s">
         <v>67</v>
       </c>
@@ -64429,7 +64431,7 @@
       </c>
       <c r="C57" s="2"/>
     </row>
-    <row r="58" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="58" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A58" s="1" t="s">
         <v>68</v>
       </c>
@@ -64438,7 +64440,7 @@
       </c>
       <c r="C58" s="2"/>
     </row>
-    <row r="59" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="59" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A59" s="7" t="s">
         <v>69</v>
       </c>
@@ -64447,7 +64449,7 @@
       </c>
       <c r="C59" s="2"/>
     </row>
-    <row r="60" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="60" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A60" s="7" t="s">
         <v>70</v>
       </c>
@@ -64456,7 +64458,7 @@
       </c>
       <c r="C60" s="2"/>
     </row>
-    <row r="61" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="61" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A61" s="7" t="s">
         <v>71</v>
       </c>
@@ -64465,7 +64467,7 @@
       </c>
       <c r="C61" s="2"/>
     </row>
-    <row r="62" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="62" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A62" s="7" t="s">
         <v>72</v>
       </c>
@@ -64474,7 +64476,7 @@
       </c>
       <c r="C62" s="2"/>
     </row>
-    <row r="63" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="63" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A63" s="7" t="s">
         <v>73</v>
       </c>
@@ -64483,7 +64485,7 @@
       </c>
       <c r="C63" s="2"/>
     </row>
-    <row r="64" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="64" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A64" s="7" t="s">
         <v>74</v>
       </c>
@@ -64492,7 +64494,7 @@
       </c>
       <c r="C64" s="2"/>
     </row>
-    <row r="65" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="65" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A65" s="7" t="s">
         <v>75</v>
       </c>
@@ -64501,7 +64503,7 @@
       </c>
       <c r="C65" s="2"/>
     </row>
-    <row r="66" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="66" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A66" s="7" t="s">
         <v>76</v>
       </c>
@@ -64510,7 +64512,7 @@
       </c>
       <c r="C66" s="2"/>
     </row>
-    <row r="67" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="67" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A67" s="7" t="s">
         <v>77</v>
       </c>
@@ -64519,7 +64521,7 @@
       </c>
       <c r="C67" s="2"/>
     </row>
-    <row r="68" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="68" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A68" s="5" t="s">
         <v>78</v>
       </c>
@@ -64528,7 +64530,7 @@
       </c>
       <c r="C68" s="2"/>
     </row>
-    <row r="69" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="69" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A69" s="5" t="s">
         <v>79</v>
       </c>
@@ -64539,7 +64541,7 @@
         <v>167</v>
       </c>
     </row>
-    <row r="70" spans="1:3" s="10" customFormat="1" x14ac:dyDescent="0.2">
+    <row r="70" spans="1:3" s="10" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A70" s="8" t="s">
         <v>168</v>
       </c>
@@ -64548,7 +64550,7 @@
       </c>
       <c r="C70" s="9"/>
     </row>
-    <row r="71" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="71" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A71" s="5" t="s">
         <v>170</v>
       </c>
@@ -64557,7 +64559,7 @@
       </c>
       <c r="C71" s="2"/>
     </row>
-    <row r="72" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="72" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A72" s="13" t="s">
         <v>82</v>
       </c>
@@ -64566,7 +64568,7 @@
       </c>
       <c r="C72" s="2"/>
     </row>
-    <row r="73" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="73" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A73" s="5" t="s">
         <v>83</v>
       </c>
@@ -64575,7 +64577,7 @@
       </c>
       <c r="C73" s="2"/>
     </row>
-    <row r="74" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="74" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A74" s="5" t="s">
         <v>84</v>
       </c>
@@ -64584,7 +64586,7 @@
       </c>
       <c r="C74" s="2"/>
     </row>
-    <row r="75" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="75" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A75" s="5" t="s">
         <v>85</v>
       </c>
@@ -64595,7 +64597,7 @@
         <v>181</v>
       </c>
     </row>
-    <row r="76" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="76" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A76" s="5" t="s">
         <v>176</v>
       </c>
@@ -64604,7 +64606,7 @@
       </c>
       <c r="C76" s="2"/>
     </row>
-    <row r="77" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="77" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A77" s="5" t="s">
         <v>178</v>
       </c>
@@ -64613,7 +64615,7 @@
       </c>
       <c r="C77" s="2"/>
     </row>
-    <row r="78" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="78" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A78" s="5" t="s">
         <v>88</v>
       </c>
@@ -64639,73 +64641,73 @@
       <selection activeCell="Z11" sqref="Z11"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="8.77734375" defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <cols>
-    <col min="1" max="1" width="7.5" customWidth="1"/>
+    <col min="1" max="1" width="7.44140625" customWidth="1"/>
     <col min="2" max="2" width="23.33203125" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="11.83203125" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="11.77734375" bestFit="1" customWidth="1"/>
     <col min="4" max="4" width="11" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="11.5" bestFit="1" customWidth="1"/>
-    <col min="6" max="6" width="11.83203125" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="11.44140625" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="11.77734375" bestFit="1" customWidth="1"/>
     <col min="7" max="7" width="11" bestFit="1" customWidth="1"/>
-    <col min="8" max="8" width="11.5" bestFit="1" customWidth="1"/>
-    <col min="9" max="9" width="10.5" bestFit="1" customWidth="1"/>
-    <col min="10" max="10" width="9.5" bestFit="1" customWidth="1"/>
-    <col min="11" max="11" width="10.1640625" bestFit="1" customWidth="1"/>
+    <col min="8" max="8" width="11.44140625" bestFit="1" customWidth="1"/>
+    <col min="9" max="9" width="10.44140625" bestFit="1" customWidth="1"/>
+    <col min="10" max="10" width="9.44140625" bestFit="1" customWidth="1"/>
+    <col min="11" max="11" width="10.109375" bestFit="1" customWidth="1"/>
     <col min="12" max="12" width="15.6640625" bestFit="1" customWidth="1"/>
-    <col min="13" max="13" width="14.83203125" bestFit="1" customWidth="1"/>
-    <col min="14" max="14" width="15.5" bestFit="1" customWidth="1"/>
-    <col min="15" max="15" width="13.5" bestFit="1" customWidth="1"/>
-    <col min="16" max="16" width="12.5" bestFit="1" customWidth="1"/>
-    <col min="17" max="17" width="13.1640625" bestFit="1" customWidth="1"/>
-    <col min="18" max="18" width="13.5" bestFit="1" customWidth="1"/>
-    <col min="19" max="19" width="12.5" bestFit="1" customWidth="1"/>
-    <col min="20" max="20" width="13.1640625" bestFit="1" customWidth="1"/>
-    <col min="21" max="21" width="11.83203125" bestFit="1" customWidth="1"/>
+    <col min="13" max="13" width="14.77734375" bestFit="1" customWidth="1"/>
+    <col min="14" max="14" width="15.44140625" bestFit="1" customWidth="1"/>
+    <col min="15" max="15" width="13.44140625" bestFit="1" customWidth="1"/>
+    <col min="16" max="16" width="12.44140625" bestFit="1" customWidth="1"/>
+    <col min="17" max="17" width="13.109375" bestFit="1" customWidth="1"/>
+    <col min="18" max="18" width="13.44140625" bestFit="1" customWidth="1"/>
+    <col min="19" max="19" width="12.44140625" bestFit="1" customWidth="1"/>
+    <col min="20" max="20" width="13.109375" bestFit="1" customWidth="1"/>
+    <col min="21" max="21" width="11.77734375" bestFit="1" customWidth="1"/>
     <col min="22" max="22" width="11" bestFit="1" customWidth="1"/>
-    <col min="23" max="23" width="11.5" bestFit="1" customWidth="1"/>
+    <col min="23" max="23" width="11.44140625" bestFit="1" customWidth="1"/>
     <col min="24" max="24" width="17.33203125" bestFit="1" customWidth="1"/>
     <col min="25" max="25" width="16.33203125" bestFit="1" customWidth="1"/>
-    <col min="26" max="26" width="16.83203125" bestFit="1" customWidth="1"/>
+    <col min="26" max="26" width="16.77734375" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:26" x14ac:dyDescent="0.2">
+    <row r="1" spans="1:26" x14ac:dyDescent="0.3">
       <c r="A1" t="s">
         <v>530</v>
       </c>
     </row>
-    <row r="2" spans="1:26" x14ac:dyDescent="0.2">
+    <row r="2" spans="1:26" x14ac:dyDescent="0.3">
       <c r="A2" t="s">
         <v>531</v>
       </c>
     </row>
-    <row r="3" spans="1:26" x14ac:dyDescent="0.2">
+    <row r="3" spans="1:26" x14ac:dyDescent="0.3">
       <c r="A3" t="s">
         <v>532</v>
       </c>
     </row>
-    <row r="4" spans="1:26" x14ac:dyDescent="0.2">
+    <row r="4" spans="1:26" x14ac:dyDescent="0.3">
       <c r="A4" t="s">
         <v>533</v>
       </c>
     </row>
-    <row r="5" spans="1:26" x14ac:dyDescent="0.2">
+    <row r="5" spans="1:26" x14ac:dyDescent="0.3">
       <c r="A5" t="s">
         <v>534</v>
       </c>
     </row>
-    <row r="6" spans="1:26" x14ac:dyDescent="0.2">
+    <row r="6" spans="1:26" x14ac:dyDescent="0.3">
       <c r="A6" t="s">
         <v>535</v>
       </c>
     </row>
-    <row r="7" spans="1:26" x14ac:dyDescent="0.2">
+    <row r="7" spans="1:26" x14ac:dyDescent="0.3">
       <c r="A7" t="s">
         <v>536</v>
       </c>
     </row>
-    <row r="8" spans="1:26" ht="16" thickBot="1" x14ac:dyDescent="0.25"/>
-    <row r="9" spans="1:26" x14ac:dyDescent="0.2">
+    <row r="8" spans="1:26" ht="15" thickBot="1" x14ac:dyDescent="0.35"/>
+    <row r="9" spans="1:26" x14ac:dyDescent="0.3">
       <c r="A9" s="108" t="s">
         <v>537</v>
       </c>
@@ -64723,7 +64725,7 @@
       <c r="M9" s="108"/>
       <c r="N9" s="108"/>
     </row>
-    <row r="10" spans="1:26" x14ac:dyDescent="0.2">
+    <row r="10" spans="1:26" x14ac:dyDescent="0.3">
       <c r="A10" s="109" t="s">
         <v>538</v>
       </c>
@@ -64803,7 +64805,7 @@
         <v>560</v>
       </c>
     </row>
-    <row r="11" spans="1:26" x14ac:dyDescent="0.2">
+    <row r="11" spans="1:26" x14ac:dyDescent="0.3">
       <c r="A11" s="109">
         <v>1001</v>
       </c>
@@ -64895,7 +64897,7 @@
         <v>97.023809523809518</v>
       </c>
     </row>
-    <row r="12" spans="1:26" x14ac:dyDescent="0.2">
+    <row r="12" spans="1:26" x14ac:dyDescent="0.3">
       <c r="A12" s="109">
         <v>1002</v>
       </c>
@@ -64985,7 +64987,7 @@
         <v>90.873015873015873</v>
       </c>
     </row>
-    <row r="13" spans="1:26" x14ac:dyDescent="0.2">
+    <row r="13" spans="1:26" x14ac:dyDescent="0.3">
       <c r="A13" s="109">
         <v>1003</v>
       </c>
@@ -65077,7 +65079,7 @@
         <v>86.30952380952381</v>
       </c>
     </row>
-    <row r="14" spans="1:26" x14ac:dyDescent="0.2">
+    <row r="14" spans="1:26" x14ac:dyDescent="0.3">
       <c r="A14" s="109">
         <v>1004</v>
       </c>
@@ -65169,7 +65171,7 @@
         <v>82.936507936507937</v>
       </c>
     </row>
-    <row r="15" spans="1:26" x14ac:dyDescent="0.2">
+    <row r="15" spans="1:26" x14ac:dyDescent="0.3">
       <c r="A15" s="109">
         <v>1005</v>
       </c>
@@ -65261,7 +65263,7 @@
         <v>86.706349206349202</v>
       </c>
     </row>
-    <row r="16" spans="1:26" x14ac:dyDescent="0.2">
+    <row r="16" spans="1:26" x14ac:dyDescent="0.3">
       <c r="A16" s="109">
         <v>1006</v>
       </c>
@@ -65349,7 +65351,7 @@
         <v>98.412698412698418</v>
       </c>
     </row>
-    <row r="17" spans="1:26" x14ac:dyDescent="0.2">
+    <row r="17" spans="1:26" x14ac:dyDescent="0.3">
       <c r="A17" s="109">
         <v>1007</v>
       </c>
@@ -65441,7 +65443,7 @@
         <v>89.88095238095238</v>
       </c>
     </row>
-    <row r="18" spans="1:26" x14ac:dyDescent="0.2">
+    <row r="18" spans="1:26" x14ac:dyDescent="0.3">
       <c r="A18" s="109">
         <v>1009</v>
       </c>
@@ -65533,7 +65535,7 @@
         <v>91.468253968253961</v>
       </c>
     </row>
-    <row r="19" spans="1:26" x14ac:dyDescent="0.2">
+    <row r="19" spans="1:26" x14ac:dyDescent="0.3">
       <c r="A19" s="109">
         <v>1010</v>
       </c>
@@ -65625,7 +65627,7 @@
         <v>87.896825396825392</v>
       </c>
     </row>
-    <row r="20" spans="1:26" x14ac:dyDescent="0.2">
+    <row r="20" spans="1:26" x14ac:dyDescent="0.3">
       <c r="A20" s="109">
         <v>1011</v>
       </c>
@@ -65717,7 +65719,7 @@
         <v>91.071428571428569</v>
       </c>
     </row>
-    <row r="21" spans="1:26" x14ac:dyDescent="0.2">
+    <row r="21" spans="1:26" x14ac:dyDescent="0.3">
       <c r="A21" s="109">
         <v>1012</v>
       </c>
@@ -65809,7 +65811,7 @@
         <v>92.857142857142861</v>
       </c>
     </row>
-    <row r="22" spans="1:26" x14ac:dyDescent="0.2">
+    <row r="22" spans="1:26" x14ac:dyDescent="0.3">
       <c r="A22" s="109">
         <v>1013</v>
       </c>
@@ -65897,7 +65899,7 @@
         <v>94.246031746031747</v>
       </c>
     </row>
-    <row r="23" spans="1:26" x14ac:dyDescent="0.2">
+    <row r="23" spans="1:26" x14ac:dyDescent="0.3">
       <c r="A23" s="109">
         <v>1014</v>
       </c>
@@ -65989,7 +65991,7 @@
         <v>95.634920634920633</v>
       </c>
     </row>
-    <row r="24" spans="1:26" x14ac:dyDescent="0.2">
+    <row r="24" spans="1:26" x14ac:dyDescent="0.3">
       <c r="A24" s="109">
         <v>1015</v>
       </c>
@@ -66077,7 +66079,7 @@
         <v>90.079365079365076</v>
       </c>
     </row>
-    <row r="25" spans="1:26" x14ac:dyDescent="0.2">
+    <row r="25" spans="1:26" x14ac:dyDescent="0.3">
       <c r="A25" s="109">
         <v>1016</v>
       </c>
@@ -66163,7 +66165,7 @@
         <v>86.706349206349202</v>
       </c>
     </row>
-    <row r="26" spans="1:26" x14ac:dyDescent="0.2">
+    <row r="26" spans="1:26" x14ac:dyDescent="0.3">
       <c r="A26" s="109">
         <v>1017</v>
       </c>
@@ -66255,7 +66257,7 @@
         <v>88.69047619047619</v>
       </c>
     </row>
-    <row r="27" spans="1:26" x14ac:dyDescent="0.2">
+    <row r="27" spans="1:26" x14ac:dyDescent="0.3">
       <c r="A27" s="109">
         <v>1018</v>
       </c>
@@ -66343,7 +66345,7 @@
         <v>96.230158730158735</v>
       </c>
     </row>
-    <row r="28" spans="1:26" x14ac:dyDescent="0.2">
+    <row r="28" spans="1:26" x14ac:dyDescent="0.3">
       <c r="A28" s="109">
         <v>1021</v>
       </c>
@@ -66435,7 +66437,7 @@
         <v>82.539682539682545</v>
       </c>
     </row>
-    <row r="29" spans="1:26" x14ac:dyDescent="0.2">
+    <row r="29" spans="1:26" x14ac:dyDescent="0.3">
       <c r="A29" s="109">
         <v>1022</v>
       </c>
@@ -66527,7 +66529,7 @@
         <v>81.547619047619051</v>
       </c>
     </row>
-    <row r="30" spans="1:26" x14ac:dyDescent="0.2">
+    <row r="30" spans="1:26" x14ac:dyDescent="0.3">
       <c r="A30" s="109">
         <v>1023</v>
       </c>
@@ -66619,7 +66621,7 @@
         <v>79.960317460317455</v>
       </c>
     </row>
-    <row r="31" spans="1:26" x14ac:dyDescent="0.2">
+    <row r="31" spans="1:26" x14ac:dyDescent="0.3">
       <c r="A31" s="109">
         <v>1024</v>
       </c>
@@ -66707,7 +66709,7 @@
         <v>94.642857142857139</v>
       </c>
     </row>
-    <row r="32" spans="1:26" x14ac:dyDescent="0.2">
+    <row r="32" spans="1:26" x14ac:dyDescent="0.3">
       <c r="A32" s="109">
         <v>1025</v>
       </c>
@@ -66799,7 +66801,7 @@
         <v>82.142857142857139</v>
       </c>
     </row>
-    <row r="33" spans="1:26" x14ac:dyDescent="0.2">
+    <row r="33" spans="1:26" x14ac:dyDescent="0.3">
       <c r="A33" s="109">
         <v>1026</v>
       </c>
@@ -66891,7 +66893,7 @@
         <v>97.222222222222229</v>
       </c>
     </row>
-    <row r="34" spans="1:26" x14ac:dyDescent="0.2">
+    <row r="34" spans="1:26" x14ac:dyDescent="0.3">
       <c r="A34" s="109">
         <v>1028</v>
       </c>
@@ -66983,7 +66985,7 @@
         <v>89.682539682539684</v>
       </c>
     </row>
-    <row r="35" spans="1:26" x14ac:dyDescent="0.2">
+    <row r="35" spans="1:26" x14ac:dyDescent="0.3">
       <c r="A35" s="109">
         <v>1029</v>
       </c>
@@ -67075,7 +67077,7 @@
         <v>62.301587301587304</v>
       </c>
     </row>
-    <row r="36" spans="1:26" x14ac:dyDescent="0.2">
+    <row r="36" spans="1:26" x14ac:dyDescent="0.3">
       <c r="A36" s="109">
         <v>1030</v>
       </c>
@@ -67167,7 +67169,7 @@
         <v>88.69047619047619</v>
       </c>
     </row>
-    <row r="37" spans="1:26" x14ac:dyDescent="0.2">
+    <row r="37" spans="1:26" x14ac:dyDescent="0.3">
       <c r="A37" s="109">
         <v>2001</v>
       </c>
@@ -67257,7 +67259,7 @@
         <v>92.261904761904759</v>
       </c>
     </row>
-    <row r="38" spans="1:26" x14ac:dyDescent="0.2">
+    <row r="38" spans="1:26" x14ac:dyDescent="0.3">
       <c r="A38" s="109">
         <v>2002</v>
       </c>
@@ -67343,7 +67345,7 @@
         <v>94.047619047619051</v>
       </c>
     </row>
-    <row r="39" spans="1:26" x14ac:dyDescent="0.2">
+    <row r="39" spans="1:26" x14ac:dyDescent="0.3">
       <c r="A39" s="109">
         <v>2003</v>
       </c>
@@ -67435,7 +67437,7 @@
         <v>88.69047619047619</v>
       </c>
     </row>
-    <row r="40" spans="1:26" x14ac:dyDescent="0.2">
+    <row r="40" spans="1:26" x14ac:dyDescent="0.3">
       <c r="A40" s="109">
         <v>2004</v>
       </c>
@@ -67527,7 +67529,7 @@
         <v>97.023809523809518</v>
       </c>
     </row>
-    <row r="41" spans="1:26" x14ac:dyDescent="0.2">
+    <row r="41" spans="1:26" x14ac:dyDescent="0.3">
       <c r="A41" s="109">
         <v>2005</v>
       </c>
@@ -67611,7 +67613,7 @@
         <v>93.849206349206355</v>
       </c>
     </row>
-    <row r="42" spans="1:26" x14ac:dyDescent="0.2">
+    <row r="42" spans="1:26" x14ac:dyDescent="0.3">
       <c r="A42" s="109">
         <v>2007</v>
       </c>
@@ -67703,7 +67705,7 @@
         <v>78.968253968253961</v>
       </c>
     </row>
-    <row r="43" spans="1:26" x14ac:dyDescent="0.2">
+    <row r="43" spans="1:26" x14ac:dyDescent="0.3">
       <c r="A43" s="109">
         <v>2008</v>
       </c>
@@ -67795,7 +67797,7 @@
         <v>93.253968253968253</v>
       </c>
     </row>
-    <row r="44" spans="1:26" x14ac:dyDescent="0.2">
+    <row r="44" spans="1:26" x14ac:dyDescent="0.3">
       <c r="A44" s="109">
         <v>2009</v>
       </c>
@@ -67881,7 +67883,7 @@
         <v>90.476190476190482</v>
       </c>
     </row>
-    <row r="45" spans="1:26" x14ac:dyDescent="0.2">
+    <row r="45" spans="1:26" x14ac:dyDescent="0.3">
       <c r="A45" s="109">
         <v>2010</v>
       </c>
@@ -67973,7 +67975,7 @@
         <v>90.476190476190482</v>
       </c>
     </row>
-    <row r="46" spans="1:26" x14ac:dyDescent="0.2">
+    <row r="46" spans="1:26" x14ac:dyDescent="0.3">
       <c r="A46" s="109">
         <v>2011</v>
       </c>
@@ -68065,7 +68067,7 @@
         <v>86.111111111111114</v>
       </c>
     </row>
-    <row r="47" spans="1:26" x14ac:dyDescent="0.2">
+    <row r="47" spans="1:26" x14ac:dyDescent="0.3">
       <c r="A47" s="109">
         <v>2013</v>
       </c>
@@ -68157,7 +68159,7 @@
         <v>91.269841269841265</v>
       </c>
     </row>
-    <row r="48" spans="1:26" x14ac:dyDescent="0.2">
+    <row r="48" spans="1:26" x14ac:dyDescent="0.3">
       <c r="A48" s="109">
         <v>2014</v>
       </c>
@@ -68249,7 +68251,7 @@
         <v>92.460317460317455</v>
       </c>
     </row>
-    <row r="49" spans="1:26" x14ac:dyDescent="0.2">
+    <row r="49" spans="1:26" x14ac:dyDescent="0.3">
       <c r="A49" s="109">
         <v>2015</v>
       </c>
@@ -68337,7 +68339,7 @@
         <v>85.11904761904762</v>
       </c>
     </row>
-    <row r="50" spans="1:26" x14ac:dyDescent="0.2">
+    <row r="50" spans="1:26" x14ac:dyDescent="0.3">
       <c r="A50" s="109">
         <v>2016</v>
       </c>
@@ -68429,7 +68431,7 @@
         <v>92.261904761904759</v>
       </c>
     </row>
-    <row r="51" spans="1:26" x14ac:dyDescent="0.2">
+    <row r="51" spans="1:26" x14ac:dyDescent="0.3">
       <c r="A51" s="109">
         <v>2017</v>
       </c>
@@ -68521,7 +68523,7 @@
         <v>91.666666666666671</v>
       </c>
     </row>
-    <row r="52" spans="1:26" x14ac:dyDescent="0.2">
+    <row r="52" spans="1:26" x14ac:dyDescent="0.3">
       <c r="A52" s="109">
         <v>2018</v>
       </c>
@@ -68611,7 +68613,7 @@
         <v>86.904761904761898</v>
       </c>
     </row>
-    <row r="53" spans="1:26" x14ac:dyDescent="0.2">
+    <row r="53" spans="1:26" x14ac:dyDescent="0.3">
       <c r="A53" s="109">
         <v>2019</v>
       </c>
@@ -68703,7 +68705,7 @@
         <v>71.428571428571431</v>
       </c>
     </row>
-    <row r="54" spans="1:26" x14ac:dyDescent="0.2">
+    <row r="54" spans="1:26" x14ac:dyDescent="0.3">
       <c r="A54" s="109">
         <v>2020</v>
       </c>
@@ -68793,7 +68795,7 @@
         <v>90.476190476190482</v>
       </c>
     </row>
-    <row r="55" spans="1:26" x14ac:dyDescent="0.2">
+    <row r="55" spans="1:26" x14ac:dyDescent="0.3">
       <c r="A55" s="109">
         <v>2021</v>
       </c>
@@ -68885,7 +68887,7 @@
         <v>89.88095238095238</v>
       </c>
     </row>
-    <row r="56" spans="1:26" x14ac:dyDescent="0.2">
+    <row r="56" spans="1:26" x14ac:dyDescent="0.3">
       <c r="A56" s="109">
         <v>2022</v>
       </c>
@@ -68977,7 +68979,7 @@
         <v>84.325396825396822</v>
       </c>
     </row>
-    <row r="57" spans="1:26" x14ac:dyDescent="0.2">
+    <row r="57" spans="1:26" x14ac:dyDescent="0.3">
       <c r="A57" s="109">
         <v>2024</v>
       </c>
@@ -69069,7 +69071,7 @@
         <v>94.841269841269835</v>
       </c>
     </row>
-    <row r="58" spans="1:26" x14ac:dyDescent="0.2">
+    <row r="58" spans="1:26" x14ac:dyDescent="0.3">
       <c r="A58" s="109">
         <v>2025</v>
       </c>
@@ -69161,7 +69163,7 @@
         <v>92.261904761904759</v>
       </c>
     </row>
-    <row r="59" spans="1:26" x14ac:dyDescent="0.2">
+    <row r="59" spans="1:26" x14ac:dyDescent="0.3">
       <c r="A59" s="109">
         <v>2026</v>
       </c>
@@ -69251,7 +69253,7 @@
         <v>95.436507936507937</v>
       </c>
     </row>
-    <row r="60" spans="1:26" x14ac:dyDescent="0.2">
+    <row r="60" spans="1:26" x14ac:dyDescent="0.3">
       <c r="A60" s="109">
         <v>2027</v>
       </c>
@@ -69343,7 +69345,7 @@
         <v>95.833333333333329</v>
       </c>
     </row>
-    <row r="61" spans="1:26" x14ac:dyDescent="0.2">
+    <row r="61" spans="1:26" x14ac:dyDescent="0.3">
       <c r="A61" s="109">
         <v>2028</v>
       </c>
@@ -69435,7 +69437,7 @@
         <v>89.88095238095238</v>
       </c>
     </row>
-    <row r="62" spans="1:26" x14ac:dyDescent="0.2">
+    <row r="62" spans="1:26" x14ac:dyDescent="0.3">
       <c r="A62" s="109">
         <v>2029</v>
       </c>
@@ -69527,7 +69529,7 @@
         <v>84.325396825396822</v>
       </c>
     </row>
-    <row r="63" spans="1:26" x14ac:dyDescent="0.2">
+    <row r="63" spans="1:26" x14ac:dyDescent="0.3">
       <c r="A63" s="109">
         <v>2030</v>
       </c>
@@ -69619,7 +69621,7 @@
         <v>90.476190476190482</v>
       </c>
     </row>
-    <row r="64" spans="1:26" x14ac:dyDescent="0.2">
+    <row r="64" spans="1:26" x14ac:dyDescent="0.3">
       <c r="A64" s="109">
         <v>2032</v>
       </c>
@@ -69711,7 +69713,7 @@
         <v>91.666666666666671</v>
       </c>
     </row>
-    <row r="65" spans="1:26" x14ac:dyDescent="0.2">
+    <row r="65" spans="1:26" x14ac:dyDescent="0.3">
       <c r="A65" s="109">
         <v>2033</v>
       </c>
@@ -69799,7 +69801,7 @@
         <v>93.055555555555557</v>
       </c>
     </row>
-    <row r="66" spans="1:26" x14ac:dyDescent="0.2">
+    <row r="66" spans="1:26" x14ac:dyDescent="0.3">
       <c r="A66" s="109">
         <v>2034</v>
       </c>
@@ -69891,7 +69893,7 @@
         <v>87.103174603174608</v>
       </c>
     </row>
-    <row r="67" spans="1:26" x14ac:dyDescent="0.2">
+    <row r="67" spans="1:26" x14ac:dyDescent="0.3">
       <c r="A67" s="109">
         <v>2036</v>
       </c>
@@ -69983,7 +69985,7 @@
         <v>90.476190476190482</v>
       </c>
     </row>
-    <row r="68" spans="1:26" x14ac:dyDescent="0.2">
+    <row r="68" spans="1:26" x14ac:dyDescent="0.3">
       <c r="A68" s="109">
         <v>2037</v>
       </c>
@@ -70075,7 +70077,7 @@
         <v>70.238095238095241</v>
       </c>
     </row>
-    <row r="69" spans="1:26" x14ac:dyDescent="0.2">
+    <row r="69" spans="1:26" x14ac:dyDescent="0.3">
       <c r="A69" s="109">
         <v>2038</v>
       </c>
@@ -70165,7 +70167,7 @@
         <v>95.833333333333329</v>
       </c>
     </row>
-    <row r="70" spans="1:26" x14ac:dyDescent="0.2">
+    <row r="70" spans="1:26" x14ac:dyDescent="0.3">
       <c r="A70" s="109">
         <v>2040</v>
       </c>
@@ -70257,7 +70259,7 @@
         <v>90.277777777777771</v>
       </c>
     </row>
-    <row r="71" spans="1:26" x14ac:dyDescent="0.2">
+    <row r="71" spans="1:26" x14ac:dyDescent="0.3">
       <c r="A71" s="109">
         <v>2041</v>
       </c>
@@ -70349,7 +70351,7 @@
         <v>79.960317460317455</v>
       </c>
     </row>
-    <row r="72" spans="1:26" ht="16" thickBot="1" x14ac:dyDescent="0.25">
+    <row r="72" spans="1:26" ht="15" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A72" s="121">
         <v>2122</v>
       </c>
@@ -70455,14 +70457,14 @@
       <selection activeCell="A15" sqref="A15:D15"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultColWidth="11.5" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="11.44140625" defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <cols>
-    <col min="3" max="3" width="12.5" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="16.5" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="13.5" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="12.44140625" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="16.44140625" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="13.44140625" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:5" ht="16" thickBot="1" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:5" ht="15" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A1" s="57" t="s">
         <v>35</v>
       </c>
@@ -70479,7 +70481,7 @@
         <v>229</v>
       </c>
     </row>
-    <row r="2" spans="1:5" ht="16" thickBot="1" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:5" ht="15" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A2" s="57" t="s">
         <v>37</v>
       </c>
@@ -70494,8 +70496,8 @@
       </c>
       <c r="E2" s="57"/>
     </row>
-    <row r="9" spans="1:5" ht="16" thickBot="1" x14ac:dyDescent="0.25"/>
-    <row r="10" spans="1:5" ht="16" thickBot="1" x14ac:dyDescent="0.25">
+    <row r="9" spans="1:5" ht="15" thickBot="1" x14ac:dyDescent="0.35"/>
+    <row r="10" spans="1:5" ht="15" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A10" s="57" t="s">
         <v>237</v>
       </c>
@@ -70509,7 +70511,7 @@
         <v>239</v>
       </c>
     </row>
-    <row r="11" spans="1:5" ht="16" thickBot="1" x14ac:dyDescent="0.25">
+    <row r="11" spans="1:5" ht="15" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A11" s="57" t="s">
         <v>43</v>
       </c>
@@ -70523,7 +70525,7 @@
         <v>242</v>
       </c>
     </row>
-    <row r="12" spans="1:5" ht="16" thickBot="1" x14ac:dyDescent="0.25">
+    <row r="12" spans="1:5" ht="15" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A12" s="57" t="s">
         <v>45</v>
       </c>
@@ -70537,7 +70539,7 @@
         <v>245</v>
       </c>
     </row>
-    <row r="13" spans="1:5" ht="16" thickBot="1" x14ac:dyDescent="0.25">
+    <row r="13" spans="1:5" ht="15" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A13" s="57" t="s">
         <v>246</v>
       </c>
@@ -70551,7 +70553,7 @@
         <v>249</v>
       </c>
     </row>
-    <row r="14" spans="1:5" ht="16" thickBot="1" x14ac:dyDescent="0.25">
+    <row r="14" spans="1:5" ht="15" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A14" s="57" t="s">
         <v>250</v>
       </c>
@@ -70565,7 +70567,7 @@
         <v>253</v>
       </c>
     </row>
-    <row r="15" spans="1:5" ht="16" thickBot="1" x14ac:dyDescent="0.25">
+    <row r="15" spans="1:5" ht="15" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A15" s="57" t="s">
         <v>254</v>
       </c>
